--- a/Filtered_By_Region/Region VII/Region VII_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_GABALDON.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT32"/>
+  <dimension ref="A1:AU32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -721,7 +727,6 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -730,21 +735,11 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
           <t>January 20, 2021</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
@@ -781,16 +776,11 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -860,10 +850,9 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="3" t="n">
         <v>44545</v>
       </c>
-      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
           <t xml:space="preserve">6944754-Lot 1
@@ -903,7 +892,6 @@
           <t>ELEEO CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
@@ -940,20 +928,16 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1023,11 +1007,9 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="3" t="n">
         <v>44538</v>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
         <v>44321</v>
       </c>
@@ -1051,7 +1033,7 @@
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y4" s="2" t="n">
+      <c r="Y4" s="3" t="n">
         <v>44351</v>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1059,7 +1041,6 @@
           <t>C. JANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
@@ -1096,16 +1077,11 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1175,10 +1151,9 @@
       <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="Q5" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>6944754-Lot 3</t>
@@ -1217,7 +1192,6 @@
           <t>JY BONTILAO CONSTRUCTION AND ENTERPRISE</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
@@ -1254,20 +1228,16 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1326,7 +1296,6 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1335,21 +1304,11 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
           <t>January 20, 2021</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
@@ -1386,16 +1345,11 @@
       <c r="AM6" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1465,10 +1419,9 @@
       <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="3" t="n">
         <v>44864</v>
       </c>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>6944754-Lot 4</t>
@@ -1497,7 +1450,7 @@
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y7" s="2" t="n">
+      <c r="Y7" s="3" t="n">
         <v>44372</v>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1505,7 +1458,6 @@
           <t>JY BONTILAO CONSTRUCTION AND ENTERPRISE</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
@@ -1542,16 +1494,11 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1621,10 +1568,9 @@
       <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="3" t="n">
         <v>44558</v>
       </c>
-      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>6944754-Lot 5</t>
@@ -1653,7 +1599,7 @@
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y8" s="2" t="n">
+      <c r="Y8" s="3" t="n">
         <v>44370</v>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1661,7 +1607,6 @@
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
@@ -1698,16 +1643,11 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1777,10 +1717,9 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="Q9" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>6944754-Lot 6</t>
@@ -1819,7 +1758,6 @@
           <t>MP SORELA CONSTRUCTION AND SUPPLY AND MARINE SERVICES</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
@@ -1856,16 +1794,11 @@
       <c r="AM9" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1935,10 +1868,9 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="Q10" s="3" t="n">
         <v>44520</v>
       </c>
-      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>6944754-Lot 7</t>
@@ -1967,7 +1899,7 @@
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y10" s="2" t="n">
+      <c r="Y10" s="3" t="n">
         <v>44363</v>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1975,7 +1907,6 @@
           <t>GELA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
@@ -2012,16 +1943,11 @@
       <c r="AM10" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2091,10 +2017,9 @@
       <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="Q11" s="3" t="n">
         <v>44518</v>
       </c>
-      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>6944754-Lot 8</t>
@@ -2133,7 +2058,6 @@
           <t>PB OBIAL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
@@ -2170,16 +2094,11 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
-      <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2249,7 +2168,7 @@
       <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="Q12" s="3" t="n">
         <v>44498</v>
       </c>
       <c r="R12" t="inlineStr">
@@ -2285,7 +2204,7 @@
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y12" s="2" t="n">
+      <c r="Y12" s="3" t="n">
         <v>44370</v>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2293,7 +2212,6 @@
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
@@ -2330,16 +2248,11 @@
       <c r="AM12" t="n">
         <v>0</v>
       </c>
-      <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2409,10 +2322,9 @@
       <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="Q13" s="3" t="n">
         <v>44544</v>
       </c>
-      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>6944754-Lot 10</t>
@@ -2451,7 +2363,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="n">
         <v>0</v>
       </c>
@@ -2488,16 +2399,11 @@
       <c r="AM13" t="n">
         <v>0</v>
       </c>
-      <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2567,10 +2473,9 @@
       <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="Q14" s="3" t="n">
         <v>44498</v>
       </c>
-      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>6944754-Lot 11</t>
@@ -2599,7 +2504,7 @@
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y14" s="2" t="n">
+      <c r="Y14" s="3" t="n">
         <v>44370</v>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2607,7 +2512,6 @@
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="n">
         <v>0</v>
       </c>
@@ -2644,16 +2548,11 @@
       <c r="AM14" t="n">
         <v>0</v>
       </c>
-      <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2723,7 +2622,7 @@
       <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="Q15" s="3" t="n">
         <v>44498</v>
       </c>
       <c r="R15" t="inlineStr">
@@ -2759,7 +2658,7 @@
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y15" s="2" t="n">
+      <c r="Y15" s="3" t="n">
         <v>44370</v>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2767,7 +2666,6 @@
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
@@ -2804,16 +2702,11 @@
       <c r="AM15" t="n">
         <v>0</v>
       </c>
-      <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2883,10 +2776,9 @@
       <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="Q16" s="3" t="n">
         <v>44538</v>
       </c>
-      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>7595364-Lot 2</t>
@@ -2925,7 +2817,6 @@
           <t>C. JANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="n">
         <v>0</v>
       </c>
@@ -2962,7 +2853,6 @@
       <c r="AM16" t="n">
         <v>0</v>
       </c>
-      <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -2978,8 +2868,6 @@
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3049,10 +2937,9 @@
       <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="Q17" s="3" t="n">
         <v>44485</v>
       </c>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>7595364-Lot 3</t>
@@ -3091,7 +2978,6 @@
           <t>BARR STEEL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
@@ -3128,7 +3014,6 @@
       <c r="AM17" t="n">
         <v>0</v>
       </c>
-      <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -3144,8 +3029,6 @@
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3215,7 +3098,7 @@
       <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="Q18" s="3" t="n">
         <v>44544</v>
       </c>
       <c r="R18" t="inlineStr">
@@ -3261,7 +3144,6 @@
           <t>RISM BUILDERS AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="n">
         <v>0</v>
       </c>
@@ -3298,7 +3180,6 @@
       <c r="AM18" t="n">
         <v>0</v>
       </c>
-      <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -3314,8 +3195,6 @@
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3374,7 +3253,6 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
-      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
           <t>Reverted</t>
@@ -3383,8 +3261,6 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>6944754-Lot 2</t>
@@ -3393,12 +3269,6 @@
       <c r="T19" t="n">
         <v>44321</v>
       </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr">
         <is>
           <t>REVERTED SINCE FUNDED IN THE QRF BATCH 2</t>
@@ -3440,16 +3310,11 @@
       <c r="AM19" t="n">
         <v>0</v>
       </c>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
       <c r="AT19" t="inlineStr">
         <is>
           <t>REVERTED</t>
@@ -3508,7 +3373,6 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
-      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3517,17 +3381,6 @@
       <c r="P20" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
@@ -3564,7 +3417,6 @@
       <c r="AM20" t="n">
         <v>0</v>
       </c>
-      <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="n">
         <v>1.25</v>
       </c>
@@ -3573,9 +3425,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3645,10 +3494,10 @@
       <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" s="2" t="n">
+      <c r="Q21" s="3" t="n">
         <v>45567</v>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="R21" s="3" t="n">
         <v>45359</v>
       </c>
       <c r="S21" t="inlineStr">
@@ -3666,7 +3515,7 @@
           <t>11/29/2023</t>
         </is>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>45089</v>
       </c>
       <c r="W21" t="inlineStr">
@@ -3674,10 +3523,10 @@
           <t>12/18/2023</t>
         </is>
       </c>
-      <c r="X21" s="2" t="n">
+      <c r="X21" s="3" t="n">
         <v>45296</v>
       </c>
-      <c r="Y21" s="2" t="n">
+      <c r="Y21" s="3" t="n">
         <v>45317</v>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3726,7 +3575,6 @@
       <c r="AM21" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="n">
         <v>8.24</v>
       </c>
@@ -3735,9 +3583,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
       <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3807,10 +3652,10 @@
       <c r="P22" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" s="2" t="n">
+      <c r="Q22" s="3" t="n">
         <v>45507</v>
       </c>
-      <c r="R22" s="2" t="n">
+      <c r="R22" s="3" t="n">
         <v>45507</v>
       </c>
       <c r="S22" t="inlineStr">
@@ -3828,7 +3673,7 @@
           <t>11/29/2023</t>
         </is>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="3" t="n">
         <v>45089</v>
       </c>
       <c r="W22" t="inlineStr">
@@ -3836,10 +3681,10 @@
           <t>12/18/2023</t>
         </is>
       </c>
-      <c r="X22" s="2" t="n">
+      <c r="X22" s="3" t="n">
         <v>45296</v>
       </c>
-      <c r="Y22" s="2" t="n">
+      <c r="Y22" s="3" t="n">
         <v>45317</v>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3888,7 +3733,6 @@
       <c r="AM22" t="n">
         <v>0</v>
       </c>
-      <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="n">
         <v>1.25</v>
       </c>
@@ -3897,9 +3741,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3943,7 +3784,6 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>1</v>
       </c>
@@ -3958,7 +3798,6 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
-      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
@@ -3967,15 +3806,6 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
           <t>MP Sorela Construction</t>
@@ -4023,14 +3853,11 @@
       <c r="AM23" t="n">
         <v>0</v>
       </c>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="n">
         <v>1</v>
       </c>
@@ -4108,10 +3935,10 @@
       <c r="P24" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" s="2" t="n">
+      <c r="Q24" s="3" t="n">
         <v>45701</v>
       </c>
-      <c r="R24" s="2" t="n">
+      <c r="R24" s="3" t="n">
         <v>45700</v>
       </c>
       <c r="S24" t="inlineStr">
@@ -4124,19 +3951,19 @@
           <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
         </is>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>45454</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>45461</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="3" t="n">
         <v>45474</v>
       </c>
-      <c r="X24" s="2" t="n">
+      <c r="X24" s="3" t="n">
         <v>45495</v>
       </c>
-      <c r="Y24" s="2" t="n">
+      <c r="Y24" s="3" t="n">
         <v>45548</v>
       </c>
       <c r="Z24" t="inlineStr">
@@ -4144,7 +3971,6 @@
           <t xml:space="preserve">JAJ&amp;L CONSTRUCTION AND ENGINEERING SERVICES </t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="n">
         <v>0</v>
       </c>
@@ -4181,7 +4007,6 @@
       <c r="AM24" t="n">
         <v>0</v>
       </c>
-      <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="n">
         <v>3.25</v>
       </c>
@@ -4190,8 +4015,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="n">
         <v>7</v>
       </c>
@@ -4286,7 +4109,7 @@
           <t>DepED CCD - Contract # 2024 - 11</t>
         </is>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
         <v>45449</v>
       </c>
       <c r="V25" t="inlineStr">
@@ -4356,7 +4179,6 @@
       <c r="AM25" t="n">
         <v>0</v>
       </c>
-      <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="n">
         <v>3.25</v>
       </c>
@@ -4365,8 +4187,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="n">
         <v>8</v>
       </c>
@@ -4413,7 +4233,6 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>1</v>
       </c>
@@ -4428,7 +4247,6 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
-      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
@@ -4442,7 +4260,6 @@
           <t>11/18/2021</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
           <t>6944754-Lot 8</t>
@@ -4523,14 +4340,11 @@
       <c r="AM26" t="n">
         <v>0</v>
       </c>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr">
         <is>
           <t>FOR REALIGNMENT TO OTHER DIVISION- declined by DO. Variation order implemented by RO. Letter sent to CO.</t>
@@ -4610,10 +4424,9 @@
       <c r="P27" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q27" s="2" t="n">
+      <c r="Q27" s="3" t="n">
         <v>45691</v>
       </c>
-      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
           <t>2024-003</t>
@@ -4629,7 +4442,7 @@
           <t>6/20/2024</t>
         </is>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="3" t="n">
         <v>45298</v>
       </c>
       <c r="W27" t="inlineStr">
@@ -4637,7 +4450,7 @@
           <t>7/16/2024</t>
         </is>
       </c>
-      <c r="X27" s="2" t="n">
+      <c r="X27" s="3" t="n">
         <v>45330</v>
       </c>
       <c r="Y27" t="inlineStr">
@@ -4691,15 +4504,11 @@
       <c r="AM27" t="n">
         <v>0.01000000000000001</v>
       </c>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="n">
         <v>8</v>
       </c>
@@ -4792,7 +4601,7 @@
       <c r="T28" t="n">
         <v>45323</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>45630</v>
       </c>
       <c r="V28" t="inlineStr">
@@ -4800,10 +4609,10 @@
           <t>4/20/2024</t>
         </is>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="W28" s="3" t="n">
         <v>45327</v>
       </c>
-      <c r="X28" s="2" t="n">
+      <c r="X28" s="3" t="n">
         <v>45478</v>
       </c>
       <c r="Y28" t="inlineStr">
@@ -4816,7 +4625,6 @@
           <t>Golden Hammer Construction and Supply</t>
         </is>
       </c>
-      <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
         <v>0</v>
       </c>
@@ -4853,7 +4661,6 @@
       <c r="AM28" t="n">
         <v>0</v>
       </c>
-      <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="n">
         <v>9.24</v>
       </c>
@@ -4862,8 +4669,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="n">
         <v>2</v>
       </c>
@@ -4943,7 +4748,6 @@
           <t>12/26/2025</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
           <t>ITB 2024-03-038</t>
@@ -4959,7 +4763,7 @@
           <t>3/27/2024</t>
         </is>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="3" t="n">
         <v>45386</v>
       </c>
       <c r="W29" t="inlineStr">
@@ -5023,15 +4827,11 @@
       <c r="AM29" t="n">
         <v>0.2</v>
       </c>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="n">
         <v>2</v>
       </c>
@@ -5111,7 +4911,6 @@
           <t>Jan. 26, 2025</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
         <v>10743443</v>
       </c>
@@ -5120,7 +4919,7 @@
           <t>2024-025</t>
         </is>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>45600</v>
       </c>
       <c r="V30" t="inlineStr">
@@ -5133,10 +4932,10 @@
           <t>4/30/2024</t>
         </is>
       </c>
-      <c r="X30" s="2" t="n">
+      <c r="X30" s="3" t="n">
         <v>45417</v>
       </c>
-      <c r="Y30" s="2" t="n">
+      <c r="Y30" s="3" t="n">
         <v>45298</v>
       </c>
       <c r="Z30" t="inlineStr">
@@ -5185,15 +4984,11 @@
       <c r="AM30" t="n">
         <v>0.1499999999999999</v>
       </c>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="n">
         <v>3</v>
       </c>
@@ -5288,7 +5083,7 @@
           <t>2024-001-Infra</t>
         </is>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>45599</v>
       </c>
       <c r="V31" t="inlineStr">
@@ -5296,10 +5091,10 @@
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="3" t="n">
         <v>45416</v>
       </c>
-      <c r="X31" s="2" t="n">
+      <c r="X31" s="3" t="n">
         <v>45569</v>
       </c>
       <c r="Y31" t="inlineStr">
@@ -5312,7 +5107,6 @@
           <t>CJANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="n">
         <v>0</v>
       </c>
@@ -5349,7 +5143,6 @@
       <c r="AM31" t="n">
         <v>0.07999999999999996</v>
       </c>
-      <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="n">
         <v>5.25</v>
       </c>
@@ -5358,8 +5151,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="n">
         <v>1</v>
       </c>
@@ -5454,7 +5245,7 @@
           <t>2024-001</t>
         </is>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>45415</v>
       </c>
       <c r="V32" t="inlineStr">
@@ -5467,10 +5258,10 @@
           <t>3/26/2024</t>
         </is>
       </c>
-      <c r="X32" s="2" t="n">
+      <c r="X32" s="3" t="n">
         <v>45355</v>
       </c>
-      <c r="Y32" s="2" t="n">
+      <c r="Y32" s="3" t="n">
         <v>45510</v>
       </c>
       <c r="Z32" t="inlineStr">
@@ -5478,7 +5269,6 @@
           <t>Anielthone Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="n">
         <v>0</v>
       </c>
@@ -5515,7 +5305,6 @@
       <c r="AM32" t="n">
         <v>0</v>
       </c>
-      <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="n">
         <v>1.25</v>
       </c>
@@ -5524,14 +5313,85 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="n">
         <v>1</v>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
           <t>Completed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU32" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region VII/Region VII_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_GABALDON.xlsx
@@ -740,41 +740,8 @@
           <t>January 20, 2021</t>
         </is>
       </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
       <c r="AL2" t="n">
         <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -892,41 +859,8 @@
           <t>ELEEO CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
       <c r="AL3" t="n">
         <v>1</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
@@ -1041,41 +975,8 @@
           <t>C. JANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
       <c r="AL4" t="n">
         <v>1</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
@@ -1192,41 +1093,8 @@
           <t>JY BONTILAO CONSTRUCTION AND ENTERPRISE</t>
         </is>
       </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
       <c r="AL5" t="n">
         <v>1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
@@ -1309,41 +1177,8 @@
           <t>January 20, 2021</t>
         </is>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
       <c r="AL6" t="n">
         <v>1</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
@@ -1458,41 +1293,8 @@
           <t>JY BONTILAO CONSTRUCTION AND ENTERPRISE</t>
         </is>
       </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
       <c r="AL7" t="n">
         <v>1</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1607,41 +1409,8 @@
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1</v>
-      </c>
       <c r="AL8" t="n">
         <v>1</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -1758,41 +1527,8 @@
           <t>MP SORELA CONSTRUCTION AND SUPPLY AND MARINE SERVICES</t>
         </is>
       </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1</v>
-      </c>
       <c r="AL9" t="n">
         <v>1</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
@@ -1907,41 +1643,8 @@
           <t>GELA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1</v>
-      </c>
       <c r="AL10" t="n">
         <v>1</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
@@ -2058,41 +1761,8 @@
           <t>PB OBIAL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1</v>
-      </c>
       <c r="AL11" t="n">
         <v>1</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
@@ -2212,41 +1882,8 @@
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1</v>
-      </c>
       <c r="AL12" t="n">
         <v>1</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
@@ -2363,41 +2000,8 @@
           <t>RISM BUILDERS AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1</v>
-      </c>
       <c r="AL13" t="n">
         <v>1</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
@@ -2512,41 +2116,8 @@
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1</v>
-      </c>
       <c r="AL14" t="n">
         <v>1</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
@@ -2666,41 +2237,8 @@
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1</v>
-      </c>
       <c r="AL15" t="n">
         <v>1</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
@@ -2817,41 +2355,8 @@
           <t>C. JANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1</v>
-      </c>
       <c r="AL16" t="n">
         <v>1</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
@@ -2978,41 +2483,8 @@
           <t>BARR STEEL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1</v>
-      </c>
       <c r="AL17" t="n">
         <v>1</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
@@ -3144,41 +2616,8 @@
           <t>RISM BUILDERS AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1</v>
-      </c>
       <c r="AL18" t="n">
         <v>1</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
@@ -3274,40 +2713,7 @@
           <t>REVERTED SINCE FUNDED IN THE QRF BATCH 2</t>
         </is>
       </c>
-      <c r="AB19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
       <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
         <v>0</v>
       </c>
       <c r="AP19" t="inlineStr">
@@ -3381,41 +2787,8 @@
       <c r="P20" t="n">
         <v>1</v>
       </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1</v>
-      </c>
       <c r="AL20" t="n">
         <v>1</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
       </c>
       <c r="AO20" t="n">
         <v>1.25</v>
@@ -3539,41 +2912,8 @@
           <t> </t>
         </is>
       </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1</v>
-      </c>
       <c r="AL21" t="n">
         <v>1</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
       </c>
       <c r="AO21" t="n">
         <v>8.24</v>
@@ -3697,41 +3037,8 @@
           <t> </t>
         </is>
       </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1</v>
-      </c>
       <c r="AL22" t="n">
         <v>1</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
       </c>
       <c r="AO22" t="n">
         <v>1.25</v>
@@ -3817,40 +3124,7 @@
 declined by DO. Variation order implemented by RO. Several Letters sent by RO to CO requesting for the release of the fund. The project was already 100% completed.</t>
         </is>
       </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
       <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AP23" t="inlineStr">
@@ -3971,41 +3245,8 @@
           <t xml:space="preserve">JAJ&amp;L CONSTRUCTION AND ENGINEERING SERVICES </t>
         </is>
       </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1</v>
-      </c>
       <c r="AL24" t="n">
         <v>1</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
       </c>
       <c r="AO24" t="n">
         <v>3.25</v>
@@ -4143,41 +3384,8 @@
 with (45 days extension)</t>
         </is>
       </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1</v>
-      </c>
       <c r="AL25" t="n">
         <v>1</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
       </c>
       <c r="AO25" t="n">
         <v>3.25</v>
@@ -4304,40 +3512,7 @@
  (with letter submitted thru Regional Director, dated May 31, 2024). RO is also waiting for a response from CO on the downloading of funds for V.O. The project was satisfactorily done by the Contractor. Follow-up letter sent to Usec. Cabral dated Dec. 8, 2024</t>
         </is>
       </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
       <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
         <v>0</v>
       </c>
       <c r="AP26" t="inlineStr">
@@ -4468,41 +3643,8 @@
           <t>On - Going</t>
         </is>
       </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
       <c r="AL27" t="n">
         <v>0.92</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0.01000000000000001</v>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
@@ -4625,41 +3767,8 @@
           <t>Golden Hammer Construction and Supply</t>
         </is>
       </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1</v>
-      </c>
       <c r="AL28" t="n">
         <v>1</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
       </c>
       <c r="AO28" t="n">
         <v>9.24</v>
@@ -4791,41 +3900,8 @@
           <t>with time extension due to erratic weather conditions, processing of cutting permit, and scarcity of wood supply</t>
         </is>
       </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
       <c r="AL29" t="n">
         <v>0.45</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0.2</v>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
@@ -4948,41 +4024,8 @@
           <t>with Time Extention. Revised Target Completion March 17, 2025</t>
         </is>
       </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
       <c r="AL30" t="n">
         <v>0.55</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0.1499999999999999</v>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
@@ -5107,41 +4150,8 @@
           <t>CJANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1</v>
-      </c>
       <c r="AL31" t="n">
         <v>0.92</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0.07999999999999996</v>
       </c>
       <c r="AO31" t="n">
         <v>5.25</v>
@@ -5269,41 +4279,8 @@
           <t>Anielthone Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1</v>
-      </c>
       <c r="AL32" t="n">
         <v>1</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>0</v>
       </c>
       <c r="AO32" t="n">
         <v>1.25</v>

--- a/Filtered_By_Region/Region VII/Region VII_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_GABALDON.xlsx
@@ -58,13 +58,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU32"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,3734 +576,3257 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Reverted</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Not yet started</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Under Procurement</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites On Going</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Completed</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Reverted</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Not yet started</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Under Procurement</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg On Going</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>No. of bldg Completed</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>PREVIOUS ACCOMPLISHMENT</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>DIFFERENCE</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Projected Date of Completion</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Month Completed</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Implementing Unit</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>BBM TERM COMPLETED</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>AWAITING SUBMISSION OF RTA</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>batch of suballotment</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4" t="n">
         <v>118106</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Tultugan ES</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>CALAPE</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="G2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="J2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="4" t="n">
         <v>6655556.76</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="M2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="inlineStr"/>
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="P2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="inlineStr"/>
+      <c r="R2" s="4" t="inlineStr"/>
+      <c r="S2" s="4" t="inlineStr"/>
+      <c r="T2" s="4" t="inlineStr"/>
+      <c r="U2" s="4" t="inlineStr"/>
+      <c r="V2" s="4" t="inlineStr"/>
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>January 20, 2021</t>
         </is>
       </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="X2" s="4" t="inlineStr"/>
+      <c r="Y2" s="4" t="inlineStr"/>
+      <c r="Z2" s="4" t="inlineStr"/>
+      <c r="AA2" s="4" t="inlineStr"/>
+      <c r="AB2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4" t="n">
         <v>118504</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Sto. Niño Dela Paz ES</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>LOON</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="G3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="J3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="4" t="n">
         <v>5424493.98</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4" t="n">
         <v>5404011.5</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3" t="n">
+      <c r="P3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="n">
         <v>44545</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr"/>
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">6944754-Lot 1
 </t>
         </is>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="4" t="n">
         <v>44320</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>June 19, 2021</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Z3" s="4" t="inlineStr">
         <is>
           <t>ELEEO CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="AL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>CY 2022</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA3" s="4" t="inlineStr"/>
+      <c r="AB3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4" t="n">
         <v>118065</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Dagohoy Central Elementary</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>BUENAVISTA</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="4" t="n">
         <v>4447691.3</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>4401399.38</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="n">
+      <c r="P4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="n">
         <v>44538</v>
       </c>
-      <c r="T4" t="n">
+      <c r="R4" s="4" t="inlineStr"/>
+      <c r="S4" s="4" t="inlineStr"/>
+      <c r="T4" s="4" t="n">
         <v>44321</v>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y4" s="3" t="n">
+      <c r="Y4" s="5" t="n">
         <v>44351</v>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>C. JANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AL4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA4" s="4" t="inlineStr"/>
+      <c r="AB4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4" t="n">
         <v>118358</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Guindulman Central ES</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>GUINDULMAN</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="4" t="n">
         <v>17354037.14</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>13669174.29</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3" t="n">
+      <c r="P5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="n">
         <v>44834</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="R5" s="4" t="inlineStr"/>
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>6944754-Lot 3</t>
         </is>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="4" t="n">
         <v>44324</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>JY BONTILAO CONSTRUCTION AND ENTERPRISE</t>
         </is>
       </c>
-      <c r="AL5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>CY 2022</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA5" s="4" t="inlineStr"/>
+      <c r="AB5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Carcar City</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4" t="n">
         <v>119170</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>Valladolid Elementary School</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>CITY OF CARCAR</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="G6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="4" t="n">
         <v>7095987.75</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="M6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4" t="inlineStr"/>
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" t="inlineStr">
+      <c r="P6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="inlineStr"/>
+      <c r="R6" s="4" t="inlineStr"/>
+      <c r="S6" s="4" t="inlineStr"/>
+      <c r="T6" s="4" t="inlineStr"/>
+      <c r="U6" s="4" t="inlineStr"/>
+      <c r="V6" s="4" t="inlineStr"/>
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>January 20, 2021</t>
         </is>
       </c>
-      <c r="AL6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="X6" s="4" t="inlineStr"/>
+      <c r="Y6" s="4" t="inlineStr"/>
+      <c r="Z6" s="4" t="inlineStr"/>
+      <c r="AA6" s="4" t="inlineStr"/>
+      <c r="AB6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4" t="n">
         <v>118872</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Alcoy Central ES</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>ALCOY</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="4" t="n">
         <v>9684010.33</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="n">
         <v>6905228.73</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3" t="n">
+      <c r="P7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5" t="n">
         <v>44864</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr"/>
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>6944754-Lot 4</t>
         </is>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" s="4" t="n">
         <v>44325</v>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y7" s="3" t="n">
+      <c r="Y7" s="5" t="n">
         <v>44372</v>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>JY BONTILAO CONSTRUCTION AND ENTERPRISE</t>
         </is>
       </c>
-      <c r="AL7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA7" s="4" t="inlineStr"/>
+      <c r="AB7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4" t="n">
         <v>119377</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>DUMANJUG CENTRAL SCHOOL</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>DUMANJUG</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="4" t="n">
         <v>14736225.74</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="n">
         <v>10885703.67</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3" t="n">
+      <c r="P8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5" t="n">
         <v>44558</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="R8" s="4" t="inlineStr"/>
+      <c r="S8" s="4" t="inlineStr">
         <is>
           <t>6944754-Lot 5</t>
         </is>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" s="4" t="n">
         <v>44326</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y8" s="3" t="n">
+      <c r="Y8" s="5" t="n">
         <v>44370</v>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AL8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA8" s="4" t="inlineStr"/>
+      <c r="AB8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4" t="n">
         <v>119566</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>Pinamungajan Central School</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>PINAMUNGAHAN</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="4" t="n">
         <v>16571044.5</v>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4" t="n">
         <v>12738307.98</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="3" t="n">
+      <c r="P9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5" t="n">
         <v>44834</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="R9" s="4" t="inlineStr"/>
+      <c r="S9" s="4" t="inlineStr">
         <is>
           <t>6944754-Lot 6</t>
         </is>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="4" t="n">
         <v>44322</v>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="X9" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>June 10, 2021</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>MP SORELA CONSTRUCTION AND SUPPLY AND MARINE SERVICES</t>
         </is>
       </c>
-      <c r="AL9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA9" s="4" t="inlineStr"/>
+      <c r="AB9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Cebu City</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4" t="n">
         <v>119910</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>Pardo Ext. Elementary School</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>CEBU CITY</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="4" t="n">
         <v>3257286.22</v>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4" t="n">
         <v>2896989.43</v>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3" t="n">
+      <c r="P10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5" t="n">
         <v>44520</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="R10" s="4" t="inlineStr"/>
+      <c r="S10" s="4" t="inlineStr">
         <is>
           <t>6944754-Lot 7</t>
         </is>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="4" t="n">
         <v>44327</v>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V10" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="W10" s="4" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="X10" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y10" s="3" t="n">
+      <c r="Y10" s="5" t="n">
         <v>44363</v>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>GELA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AL10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA10" s="4" t="inlineStr"/>
+      <c r="AB10" s="4" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>Danao City</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4" t="n">
         <v>119357</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>Severo Duterte MES</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>DANAO CITY</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="4" t="n">
         <v>5532839.71</v>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4" t="n">
         <v>4514013.67</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3" t="n">
+      <c r="P11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5" t="n">
         <v>44518</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="R11" s="4" t="inlineStr"/>
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>6944754-Lot 8</t>
         </is>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="4" t="n">
         <v>44331</v>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U11" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V11" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W11" s="4" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X11" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>June 14, 2021</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>PB OBIAL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AL11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA11" s="4" t="inlineStr"/>
+      <c r="AB11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>Mandaue City</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4" t="n">
         <v>120010</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Canduman Elementary School</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>MANDAUE CITY</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="G12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="J12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="4" t="n">
         <v>3305576.84</v>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4" t="n">
         <v>2412962.02</v>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O12" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="3" t="n">
+      <c r="P12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="n">
         <v>44498</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R12" s="4" t="inlineStr">
         <is>
           <t>August 25, 2021</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="4" t="inlineStr">
         <is>
           <t>6944754-Lot 9</t>
         </is>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="4" t="n">
         <v>44328</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="U12" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="V12" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="W12" s="4" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="X12" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y12" s="3" t="n">
+      <c r="Y12" s="5" t="n">
         <v>44370</v>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="Z12" s="4" t="inlineStr">
         <is>
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AL12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA12" s="4" t="inlineStr"/>
+      <c r="AB12" s="4" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>Negros Oriental</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4" t="n">
         <v>120587</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>Lutay ES</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>TAYASAN</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="G13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="J13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="4" t="n">
         <v>4097116.4</v>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4" t="n">
         <v>4077000</v>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="O13" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="3" t="n">
+      <c r="P13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5" t="n">
         <v>44544</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="R13" s="4" t="inlineStr"/>
+      <c r="S13" s="4" t="inlineStr">
         <is>
           <t>6944754-Lot 10</t>
         </is>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="4" t="n">
         <v>44323</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="U13" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="V13" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="W13" s="4" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="X13" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>June 10, 2021</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AL13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA13" s="4" t="inlineStr"/>
+      <c r="AB13" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Tagbilaran City</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4" t="n">
         <v>118713</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>Tagbilaran City Central Elementary School</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="G14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="J14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="4" t="n">
         <v>1857042.7</v>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4" t="n">
         <v>1836406.24</v>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3" t="n">
+      <c r="P14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5" t="n">
         <v>44498</v>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="R14" s="4" t="inlineStr"/>
+      <c r="S14" s="4" t="inlineStr">
         <is>
           <t>6944754-Lot 11</t>
         </is>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="4" t="n">
         <v>44329</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U14" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V14" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="W14" s="4" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="X14" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y14" s="3" t="n">
+      <c r="Y14" s="5" t="n">
         <v>44370</v>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="Z14" s="4" t="inlineStr">
         <is>
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AL14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA14" s="4" t="inlineStr"/>
+      <c r="AB14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Talisay City</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4" t="n">
         <v>119787</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>Lawaan Elementary School</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>CITY OF TALISAY</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="G15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="4" t="n">
         <v>1851252.72</v>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="M15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4" t="n">
         <v>1348308.86</v>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="3" t="n">
+      <c r="P15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5" t="n">
         <v>44498</v>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R15" s="4" t="inlineStr">
         <is>
           <t>August 25, 2021</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S15" s="4" t="inlineStr">
         <is>
           <t>6944754-Lot 12</t>
         </is>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="4" t="n">
         <v>44330</v>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="U15" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="V15" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="W15" s="4" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="X15" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y15" s="3" t="n">
+      <c r="Y15" s="5" t="n">
         <v>44370</v>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="Z15" s="4" t="inlineStr">
         <is>
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AL15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA15" s="4" t="inlineStr"/>
+      <c r="AB15" s="4" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4" t="n">
         <v>118331</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>Getafe Central ES</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>GETAFE</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="inlineStr">
+      <c r="J16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="4" t="n">
         <v>3538205</v>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="M16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4" t="n">
         <v>3502098.85</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3" t="n">
+      <c r="P16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5" t="n">
         <v>44538</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="R16" s="4" t="inlineStr"/>
+      <c r="S16" s="4" t="inlineStr">
         <is>
           <t>7595364-Lot 2</t>
         </is>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" s="4" t="n">
         <v>44318</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="U16" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="V16" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="W16" s="4" t="inlineStr">
         <is>
           <t>May 7, 2021</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="X16" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>June 4, 2021</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="Z16" s="4" t="inlineStr">
         <is>
           <t>C. JANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AL16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>Regional Office</t>
-        </is>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>CY 2022</t>
-        </is>
-      </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA16" s="4" t="inlineStr"/>
+      <c r="AB16" s="4" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="4" t="n">
         <v>119864</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>VILLAHERMOSA ES</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t>TUDELA</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="J17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="4" t="n">
         <v>2804104</v>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4" t="n">
         <v>2779358.3</v>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O17" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="3" t="n">
+      <c r="P17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5" t="n">
         <v>44485</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="R17" s="4" t="inlineStr"/>
+      <c r="S17" s="4" t="inlineStr">
         <is>
           <t>7595364-Lot 3</t>
         </is>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" s="4" t="n">
         <v>44319</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U17" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="V17" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="W17" s="4" t="inlineStr">
         <is>
           <t>May 7, 2021</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="X17" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>June 11, 2021</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>BARR STEEL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AL17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>Regional Office</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>CY 2022</t>
-        </is>
-      </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA17" s="4" t="inlineStr"/>
+      <c r="AB17" s="4" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>Dumaguete City</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4" t="n">
         <v>119935</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>Camanjac Elementary School</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>DUMAGUETE CITY (Capital)</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="H18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="inlineStr">
+      <c r="J18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="4" t="n">
         <v>4102769</v>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4" t="n">
         <v>4061000</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O18" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3" t="n">
+      <c r="P18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5" t="n">
         <v>44544</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R18" s="4" t="inlineStr">
         <is>
           <t>c/o Maam Daday Guillen/Region-Implemented</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S18" s="4" t="inlineStr">
         <is>
           <t>7595364-Lot 1</t>
         </is>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" s="4" t="n">
         <v>44317</v>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="U18" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="V18" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="W18" s="4" t="inlineStr">
         <is>
           <t>May 7, 2021</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
+      <c r="X18" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
+      <c r="Y18" s="4" t="inlineStr">
         <is>
           <t>June 10, 2021</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="Z18" s="4" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AL18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>previous yrs</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>Regional Office</t>
-        </is>
-      </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>CY 2022</t>
-        </is>
-      </c>
-      <c r="AT18" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AA18" s="4" t="inlineStr"/>
+      <c r="AB18" s="4" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2022</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="4" t="n">
         <v>118223</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Dagohoy Central Elementary</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>DAGOHOY</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="J19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="4" t="n">
         <v>952221.1</v>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="M19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4" t="inlineStr"/>
+      <c r="O19" s="4" t="inlineStr">
         <is>
           <t>Reverted</t>
         </is>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="Q19" s="4" t="inlineStr"/>
+      <c r="R19" s="4" t="inlineStr"/>
+      <c r="S19" s="4" t="inlineStr">
         <is>
           <t>6944754-Lot 2</t>
         </is>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" s="4" t="n">
         <v>44321</v>
       </c>
-      <c r="AA19" t="inlineStr">
+      <c r="U19" s="4" t="inlineStr"/>
+      <c r="V19" s="4" t="inlineStr"/>
+      <c r="W19" s="4" t="inlineStr"/>
+      <c r="X19" s="4" t="inlineStr"/>
+      <c r="Y19" s="4" t="inlineStr"/>
+      <c r="Z19" s="4" t="inlineStr"/>
+      <c r="AA19" s="4" t="inlineStr">
         <is>
           <t>REVERTED SINCE FUNDED IN THE QRF BATCH 2</t>
         </is>
       </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>REVERTED</t>
-        </is>
-      </c>
+      <c r="AB19" s="4" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="4" t="n">
         <v>118672</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>SEVILLA CENTRAL ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>SEVILLA</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="H20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="inlineStr">
+      <c r="J20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="4" t="n">
         <v>7036885.43</v>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="M20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4" t="inlineStr"/>
+      <c r="O20" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="P20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4" t="inlineStr"/>
+      <c r="R20" s="4" t="inlineStr"/>
+      <c r="S20" s="4" t="inlineStr"/>
+      <c r="T20" s="4" t="inlineStr"/>
+      <c r="U20" s="4" t="inlineStr"/>
+      <c r="V20" s="4" t="inlineStr"/>
+      <c r="W20" s="4" t="inlineStr"/>
+      <c r="X20" s="4" t="inlineStr"/>
+      <c r="Y20" s="4" t="inlineStr"/>
+      <c r="Z20" s="4" t="inlineStr"/>
+      <c r="AA20" s="4" t="inlineStr"/>
+      <c r="AB20" s="4" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="4" t="n">
         <v>119613</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>Samboan Central ES</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>SAMBOAN</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="inlineStr">
+      <c r="J21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="4" t="n">
         <v>15492410.45</v>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="M21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4" t="n">
         <v>15431357.88</v>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O21" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="3" t="n">
+      <c r="P21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="5" t="n">
         <v>45567</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="5" t="n">
         <v>45359</v>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="S21" s="4" t="inlineStr">
         <is>
           <t>cy 2023 gabaldon-deped-region 7-cebu</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T21" s="4" t="inlineStr">
         <is>
           <t>cy 2023 gabaldon-deped-region 7-cebu-02</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="U21" s="4" t="inlineStr">
         <is>
           <t>11/29/2023</t>
         </is>
       </c>
-      <c r="V21" s="3" t="n">
+      <c r="V21" s="5" t="n">
         <v>45089</v>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="W21" s="4" t="inlineStr">
         <is>
           <t>12/18/2023</t>
         </is>
       </c>
-      <c r="X21" s="3" t="n">
+      <c r="X21" s="5" t="n">
         <v>45296</v>
       </c>
-      <c r="Y21" s="3" t="n">
+      <c r="Y21" s="5" t="n">
         <v>45317</v>
       </c>
-      <c r="Z21" t="inlineStr">
+      <c r="Z21" s="4" t="inlineStr">
         <is>
           <t>Anielthon construction and supply</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr">
+      <c r="AA21" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AL21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AT21" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AB21" s="4" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="4" t="n">
         <v>119549</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Pilar Central School</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="inlineStr">
+      <c r="H22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="4" t="n">
         <v>9189509.48</v>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="M22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4" t="n">
         <v>9133229.310000001</v>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O22" s="4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="3" t="n">
+      <c r="P22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="5" t="n">
         <v>45507</v>
       </c>
-      <c r="R22" s="3" t="n">
+      <c r="R22" s="5" t="n">
         <v>45507</v>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="S22" s="4" t="inlineStr">
         <is>
           <t>cy 2023 gabaldon-deped-region 7-cebu</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="T22" s="4" t="inlineStr">
         <is>
           <t>cy 2023 gabaldon-deped-region 7-cebu-01</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="U22" s="4" t="inlineStr">
         <is>
           <t>11/29/2023</t>
         </is>
       </c>
-      <c r="V22" s="3" t="n">
+      <c r="V22" s="5" t="n">
         <v>45089</v>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="W22" s="4" t="inlineStr">
         <is>
           <t>12/18/2023</t>
         </is>
       </c>
-      <c r="X22" s="3" t="n">
+      <c r="X22" s="5" t="n">
         <v>45296</v>
       </c>
-      <c r="Y22" s="3" t="n">
+      <c r="Y22" s="5" t="n">
         <v>45317</v>
       </c>
-      <c r="Z22" t="inlineStr">
+      <c r="Z22" s="4" t="inlineStr">
         <is>
           <t>Barr steel construction</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
+      <c r="AA22" s="4" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AL22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
+      <c r="AB22" s="4" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="4" t="n">
         <v>119566</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>Pinamungajan Central School</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>PINAMUNGAHAN</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" s="4" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="inlineStr">
+      <c r="H23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="inlineStr"/>
+      <c r="J23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="4" t="n">
         <v>485257.42</v>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="inlineStr">
+      <c r="M23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4" t="inlineStr"/>
+      <c r="O23" s="4" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="P23" t="n">
+      <c r="P23" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="Q23" s="4" t="inlineStr"/>
+      <c r="R23" s="4" t="inlineStr"/>
+      <c r="S23" s="4" t="inlineStr"/>
+      <c r="T23" s="4" t="inlineStr"/>
+      <c r="U23" s="4" t="inlineStr"/>
+      <c r="V23" s="4" t="inlineStr"/>
+      <c r="W23" s="4" t="inlineStr"/>
+      <c r="X23" s="4" t="inlineStr"/>
+      <c r="Y23" s="4" t="inlineStr"/>
+      <c r="Z23" s="4" t="inlineStr">
         <is>
           <t>MP Sorela Construction</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr">
+      <c r="AA23" s="4" t="inlineStr">
         <is>
           <t>RO is waiting for the release of SARO as payment of the V.O. to MP Sorela Construction     
 declined by DO. Variation order implemented by RO. Several Letters sent by RO to CO requesting for the release of the fund. The project was already 100% completed.</t>
         </is>
       </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AR23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="inlineStr">
-        <is>
-          <t>not yet started</t>
-        </is>
-      </c>
+      <c r="AB23" s="4" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="4" t="n">
         <v>119248</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>Tayud ES</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>CONSOLACION</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">6th </t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="H24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="inlineStr">
+      <c r="J24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" s="4" t="n">
         <v>3731085.93</v>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="M24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4" t="n">
         <v>3710147.91</v>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O24" s="4" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="3" t="n">
+      <c r="P24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="5" t="n">
         <v>45701</v>
       </c>
-      <c r="R24" s="3" t="n">
+      <c r="R24" s="5" t="n">
         <v>45700</v>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="S24" s="4" t="inlineStr">
         <is>
           <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="T24" s="4" t="inlineStr">
         <is>
           <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
         </is>
       </c>
-      <c r="U24" s="3" t="n">
+      <c r="U24" s="5" t="n">
         <v>45454</v>
       </c>
-      <c r="V24" s="3" t="n">
+      <c r="V24" s="5" t="n">
         <v>45461</v>
       </c>
-      <c r="W24" s="3" t="n">
+      <c r="W24" s="5" t="n">
         <v>45474</v>
       </c>
-      <c r="X24" s="3" t="n">
+      <c r="X24" s="5" t="n">
         <v>45495</v>
       </c>
-      <c r="Y24" s="3" t="n">
+      <c r="Y24" s="5" t="n">
         <v>45548</v>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="Z24" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">JAJ&amp;L CONSTRUCTION AND ENGINEERING SERVICES </t>
         </is>
       </c>
-      <c r="AL24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AP24" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT24" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
+      <c r="AA24" s="4" t="inlineStr"/>
+      <c r="AB24" s="4" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Cebu City</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="4" t="n">
         <v>119874</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>City Central ES</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>CEBU CITY (Capital)</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="H25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="inlineStr">
+      <c r="J25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="4" t="n">
         <v>8310520</v>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="M25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4" t="n">
         <v>6093285.05</v>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="O25" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="inlineStr">
+      <c r="P25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4" t="inlineStr">
         <is>
           <t>1/27/2025</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="R25" s="4" t="inlineStr">
         <is>
           <t>3/13/2025</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S25" s="4" t="inlineStr">
         <is>
           <t>Gabaldon 2024 - R VII - Cebu City - 002</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="T25" s="4" t="inlineStr">
         <is>
           <t>DepED CCD - Contract # 2024 - 11</t>
         </is>
       </c>
-      <c r="U25" s="3" t="n">
+      <c r="U25" s="5" t="n">
         <v>45449</v>
       </c>
-      <c r="V25" t="inlineStr">
+      <c r="V25" s="4" t="inlineStr">
         <is>
           <t>6/14/2024</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr">
+      <c r="W25" s="4" t="inlineStr">
         <is>
           <t>6/26/2024</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="X25" s="4" t="inlineStr">
         <is>
           <t>7/24/2024</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr">
+      <c r="Y25" s="4" t="inlineStr">
         <is>
           <t>9/23/2024</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="Z25" s="4" t="inlineStr">
         <is>
           <t>JAJ &amp; L CONSTRUCTION AND ENGINEERING SERVICES</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
+      <c r="AA25" s="4" t="inlineStr">
         <is>
           <t>Completed
 with (45 days extension)</t>
         </is>
       </c>
-      <c r="AL25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AP25" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT25" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AB25" s="4" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>Danao City</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="4" t="n">
         <v>119357</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>Severo Duterte Memo. ES</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>DANAO CITY</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" s="4" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="H26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="inlineStr"/>
+      <c r="J26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" s="4" t="n">
         <v>424730.16</v>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="M26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4" t="inlineStr"/>
+      <c r="O26" s="4" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="P26" t="n">
+      <c r="P26" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" s="4" t="inlineStr">
         <is>
           <t>11/18/2021</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr">
         <is>
           <t>6944754-Lot 8</t>
         </is>
       </c>
-      <c r="T26" t="n">
+      <c r="T26" s="4" t="n">
         <v>44331</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U26" s="4" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
+      <c r="V26" s="4" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
+      <c r="W26" s="4" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
+      <c r="X26" s="4" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr">
+      <c r="Y26" s="4" t="inlineStr">
         <is>
           <t>June 14, 2021</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="Z26" s="4" t="inlineStr">
         <is>
           <t>PB OBIAL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA26" t="inlineStr">
+      <c r="AA26" s="4" t="inlineStr">
         <is>
           <t>Declined to Procure
  (with letter submitted thru Regional Director, dated May 31, 2024). RO is also waiting for a response from CO on the downloading of funds for V.O. The project was satisfactorily done by the Contractor. Follow-up letter sent to Usec. Cabral dated Dec. 8, 2024</t>
         </is>
       </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t>FOR REALIGNMENT TO OTHER DIVISION- declined by DO. Variation order implemented by RO. Letter sent to CO.</t>
-        </is>
-      </c>
-      <c r="AS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT26" t="inlineStr">
-        <is>
-          <t>not yet started</t>
-        </is>
-      </c>
+      <c r="AB26" s="4" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>Dumaguete City</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="4" t="n">
         <v>119938</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>North City ES</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>DUMAGUETE CITY (Capital)</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="H27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="J27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L27" t="n">
+      <c r="L27" s="4" t="n">
         <v>10057346.25</v>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4" t="n">
         <v>6973017</v>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="O27" s="4" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P27" t="n">
+      <c r="P27" s="4" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q27" s="3" t="n">
+      <c r="Q27" s="5" t="n">
         <v>45691</v>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="R27" s="4" t="inlineStr"/>
+      <c r="S27" s="4" t="inlineStr">
         <is>
           <t>2024-003</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="T27" s="4" t="inlineStr">
         <is>
           <t>2024-003</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="U27" s="4" t="inlineStr">
         <is>
           <t>6/20/2024</t>
         </is>
       </c>
-      <c r="V27" s="3" t="n">
+      <c r="V27" s="5" t="n">
         <v>45298</v>
       </c>
-      <c r="W27" t="inlineStr">
+      <c r="W27" s="4" t="inlineStr">
         <is>
           <t>7/16/2024</t>
         </is>
       </c>
-      <c r="X27" s="3" t="n">
+      <c r="X27" s="5" t="n">
         <v>45330</v>
       </c>
-      <c r="Y27" t="inlineStr">
+      <c r="Y27" s="4" t="inlineStr">
         <is>
           <t>9/27/2024</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="Z27" s="4" t="inlineStr">
         <is>
           <t>Four SG Enterprises</t>
         </is>
       </c>
-      <c r="AA27" t="inlineStr">
+      <c r="AA27" s="4" t="inlineStr">
         <is>
           <t>On - Going</t>
         </is>
       </c>
-      <c r="AL27" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AP27" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT27" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="AB27" s="4" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>Mandaue City</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="4" t="n">
         <v>119998</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>Basak ES</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t>MANDAUE CITY</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">6th </t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="H28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="inlineStr">
+      <c r="J28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L28" t="n">
+      <c r="L28" s="4" t="n">
         <v>6033004.04</v>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="M28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4" t="n">
         <v>5993579.01</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="O28" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="inlineStr">
+      <c r="P28" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4" t="inlineStr">
         <is>
           <t>9/20/2024</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="R28" s="4" t="inlineStr">
         <is>
           <t>9/20/2024</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="S28" s="4" t="inlineStr">
         <is>
           <t>2024GAB01</t>
         </is>
       </c>
-      <c r="T28" t="n">
+      <c r="T28" s="4" t="n">
         <v>45323</v>
       </c>
-      <c r="U28" s="3" t="n">
+      <c r="U28" s="5" t="n">
         <v>45630</v>
       </c>
-      <c r="V28" t="inlineStr">
+      <c r="V28" s="4" t="inlineStr">
         <is>
           <t>4/20/2024</t>
         </is>
       </c>
-      <c r="W28" s="3" t="n">
+      <c r="W28" s="5" t="n">
         <v>45327</v>
       </c>
-      <c r="X28" s="3" t="n">
+      <c r="X28" s="5" t="n">
         <v>45478</v>
       </c>
-      <c r="Y28" t="inlineStr">
+      <c r="Y28" s="4" t="inlineStr">
         <is>
           <t>6/24/2024</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="Z28" s="4" t="inlineStr">
         <is>
           <t>Golden Hammer Construction and Supply</t>
         </is>
       </c>
-      <c r="AL28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="AP28" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT28" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA28" s="4" t="inlineStr"/>
+      <c r="AB28" s="4" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
         <is>
           <t>Negros Oriental</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="4" t="n">
         <v>120033</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>Ayungon CES</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t>AYUNGON</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="H29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="inlineStr">
+      <c r="J29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building (10 Classrooms + 2 Offices)</t>
         </is>
       </c>
-      <c r="L29" t="n">
+      <c r="L29" s="4" t="n">
         <v>36145286.53</v>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="4" t="n">
         <v>35761963.38</v>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="O29" s="4" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P29" t="n">
+      <c r="P29" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="Q29" s="4" t="inlineStr">
         <is>
           <t>12/26/2025</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="R29" s="4" t="inlineStr"/>
+      <c r="S29" s="4" t="inlineStr">
         <is>
           <t>ITB 2024-03-038</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="T29" s="4" t="inlineStr">
         <is>
           <t>GAB202406026</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="U29" s="4" t="inlineStr">
         <is>
           <t>3/27/2024</t>
         </is>
       </c>
-      <c r="V29" s="3" t="n">
+      <c r="V29" s="5" t="n">
         <v>45386</v>
       </c>
-      <c r="W29" t="inlineStr">
+      <c r="W29" s="4" t="inlineStr">
         <is>
           <t>4/16/2024</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
+      <c r="X29" s="4" t="inlineStr">
         <is>
           <t>5/15/2024</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr">
+      <c r="Y29" s="4" t="inlineStr">
         <is>
           <t>6/24/2024</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
+      <c r="Z29" s="4" t="inlineStr">
         <is>
           <t>TrinityCAD Corporation</t>
         </is>
       </c>
-      <c r="AA29" t="inlineStr">
+      <c r="AA29" s="4" t="inlineStr">
         <is>
           <t>with time extension due to erratic weather conditions, processing of cutting permit, and scarcity of wood supply</t>
         </is>
       </c>
-      <c r="AL29" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AP29" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT29" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="AB29" s="4" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>Siquijor</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="4" t="n">
         <v>501429</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
         <is>
           <t>Maria Integrated School</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t>MARIA</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="H30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="inlineStr">
+      <c r="J30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L30" t="n">
+      <c r="L30" s="4" t="n">
         <v>5057563.48</v>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="4" t="n">
         <v>4996657.17</v>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O30" s="4" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P30" t="n">
+      <c r="P30" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="Q30" s="4" t="inlineStr">
         <is>
           <t>Jan. 26, 2025</t>
         </is>
       </c>
-      <c r="S30" t="n">
+      <c r="R30" s="4" t="inlineStr"/>
+      <c r="S30" s="4" t="n">
         <v>10743443</v>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="T30" s="4" t="inlineStr">
         <is>
           <t>2024-025</t>
         </is>
       </c>
-      <c r="U30" s="3" t="n">
+      <c r="U30" s="5" t="n">
         <v>45600</v>
       </c>
-      <c r="V30" t="inlineStr">
+      <c r="V30" s="4" t="inlineStr">
         <is>
           <t>4/18/2024</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
+      <c r="W30" s="4" t="inlineStr">
         <is>
           <t>4/30/2024</t>
         </is>
       </c>
-      <c r="X30" s="3" t="n">
+      <c r="X30" s="5" t="n">
         <v>45417</v>
       </c>
-      <c r="Y30" s="3" t="n">
+      <c r="Y30" s="5" t="n">
         <v>45298</v>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="Z30" s="4" t="inlineStr">
         <is>
           <t>Nale Construction</t>
         </is>
       </c>
-      <c r="AA30" t="inlineStr">
+      <c r="AA30" s="4" t="inlineStr">
         <is>
           <t>with Time Extention. Revised Target Completion March 17, 2025</t>
         </is>
       </c>
-      <c r="AL30" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AP30" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS30" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT30" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="AB30" s="4" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>Tagbilaran City</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="4" t="n">
         <v>302846</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>Dr. Cecilio Putong NHS (Bohol NHS)</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="H31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="inlineStr">
+      <c r="J31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L31" t="n">
+      <c r="L31" s="4" t="n">
         <v>24222461.26</v>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="M31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="4" t="n">
         <v>24202271.24</v>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="O31" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="inlineStr">
+      <c r="P31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4" t="inlineStr">
         <is>
           <t>3/25/2025</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="R31" s="4" t="inlineStr">
         <is>
           <t>1/30/2025</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="S31" s="4" t="inlineStr">
         <is>
           <t>2024-001-Infra</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="T31" s="4" t="inlineStr">
         <is>
           <t>2024-001-Infra</t>
         </is>
       </c>
-      <c r="U31" s="3" t="n">
+      <c r="U31" s="5" t="n">
         <v>45599</v>
       </c>
-      <c r="V31" t="inlineStr">
+      <c r="V31" s="4" t="inlineStr">
         <is>
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W31" s="3" t="n">
+      <c r="W31" s="5" t="n">
         <v>45416</v>
       </c>
-      <c r="X31" s="3" t="n">
+      <c r="X31" s="5" t="n">
         <v>45569</v>
       </c>
-      <c r="Y31" t="inlineStr">
+      <c r="Y31" s="4" t="inlineStr">
         <is>
           <t>6/21/2024</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="Z31" s="4" t="inlineStr">
         <is>
           <t>CJANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AL31" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AP31" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT31" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="AA31" s="4" t="inlineStr"/>
+      <c r="AB31" s="4" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>Toledo City</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="4" t="n">
         <v>120757</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>South City Central School</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>TOLEDO CITY</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="H32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" t="inlineStr">
+      <c r="J32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L32" t="n">
+      <c r="L32" s="4" t="n">
         <v>8822869.51</v>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="M32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="4" t="n">
         <v>7032361.23</v>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="O32" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="inlineStr">
+      <c r="P32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="4" t="inlineStr">
         <is>
           <t>11/18/2024</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="R32" s="4" t="inlineStr">
         <is>
           <t>10/31/2024</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="S32" s="4" t="inlineStr">
         <is>
           <t>GAB 2022-R VII-TOLEDO-001</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="T32" s="4" t="inlineStr">
         <is>
           <t>2024-001</t>
         </is>
       </c>
-      <c r="U32" s="3" t="n">
+      <c r="U32" s="5" t="n">
         <v>45415</v>
       </c>
-      <c r="V32" t="inlineStr">
+      <c r="V32" s="4" t="inlineStr">
         <is>
           <t>3/14/2024</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="W32" s="4" t="inlineStr">
         <is>
           <t>3/26/2024</t>
         </is>
       </c>
-      <c r="X32" s="3" t="n">
+      <c r="X32" s="5" t="n">
         <v>45355</v>
       </c>
-      <c r="Y32" s="3" t="n">
+      <c r="Y32" s="5" t="n">
         <v>45510</v>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="Z32" s="4" t="inlineStr">
         <is>
           <t>Anielthone Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="AL32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
-          <t>Division Office</t>
-        </is>
-      </c>
-      <c r="AS32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT32" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
+      <c r="AA32" s="4" t="inlineStr"/>
+      <c r="AB32" s="4" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AU2:AU32" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB32" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VII/Region VII_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_GABALDON.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,14 +64,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,3394 +447,3425 @@
   <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="43" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="86" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="43" customWidth="1" min="18" max="18"/>
+    <col width="41" customWidth="1" min="19" max="19"/>
+    <col width="41" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="55" customWidth="1" min="26" max="26"/>
+    <col width="281" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF BUILDINGS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AB1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>118106</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Tultugan ES</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>CALAPE</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="G2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>6655556.76</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4" t="inlineStr"/>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="M2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="inlineStr"/>
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="inlineStr"/>
-      <c r="R2" s="4" t="inlineStr"/>
-      <c r="S2" s="4" t="inlineStr"/>
-      <c r="T2" s="4" t="inlineStr"/>
-      <c r="U2" s="4" t="inlineStr"/>
-      <c r="V2" s="4" t="inlineStr"/>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="P2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="5" t="inlineStr"/>
+      <c r="U2" s="5" t="inlineStr"/>
+      <c r="V2" s="5" t="inlineStr"/>
+      <c r="W2" s="5" t="inlineStr">
         <is>
           <t>January 20, 2021</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr"/>
-      <c r="Y2" s="4" t="inlineStr"/>
-      <c r="Z2" s="4" t="inlineStr"/>
-      <c r="AA2" s="4" t="inlineStr"/>
-      <c r="AB2" s="4" t="n"/>
+      <c r="X2" s="5" t="inlineStr"/>
+      <c r="Y2" s="5" t="inlineStr"/>
+      <c r="Z2" s="5" t="inlineStr"/>
+      <c r="AA2" s="5" t="inlineStr"/>
+      <c r="AB2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>118504</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Sto. Niño Dela Paz ES</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>LOON</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>5424493.98</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="n">
+      <c r="M3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="n">
         <v>5404011.5</v>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="n">
+      <c r="P3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7" t="n">
         <v>44545</v>
       </c>
-      <c r="R3" s="4" t="inlineStr"/>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr"/>
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">6944754-Lot 1
 </t>
         </is>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="T3" s="5" t="n">
         <v>44320</v>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>June 19, 2021</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>ELEEO CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="AA3" s="4" t="inlineStr"/>
-      <c r="AB3" s="4" t="n"/>
+      <c r="AA3" s="5" t="inlineStr"/>
+      <c r="AB3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>118065</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Dagohoy Central Elementary</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>BUENAVISTA</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <v>4447691.3</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="n">
+      <c r="M4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="n">
         <v>4401399.38</v>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5" t="n">
+      <c r="P4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7" t="n">
         <v>44538</v>
       </c>
-      <c r="R4" s="4" t="inlineStr"/>
-      <c r="S4" s="4" t="inlineStr"/>
-      <c r="T4" s="4" t="n">
+      <c r="R4" s="5" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="5" t="n">
         <v>44321</v>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="n">
+      <c r="Y4" s="7" t="n">
         <v>44351</v>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>C. JANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AA4" s="4" t="inlineStr"/>
-      <c r="AB4" s="4" t="n"/>
+      <c r="AA4" s="5" t="inlineStr"/>
+      <c r="AB4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>118358</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Guindulman Central ES</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>GUINDULMAN</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>17354037.14</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4" t="n">
+      <c r="M5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="n">
         <v>13669174.29</v>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5" t="n">
+      <c r="P5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7" t="n">
         <v>44834</v>
       </c>
-      <c r="R5" s="4" t="inlineStr"/>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 3</t>
         </is>
       </c>
-      <c r="T5" s="4" t="n">
+      <c r="T5" s="5" t="n">
         <v>44324</v>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>JY BONTILAO CONSTRUCTION AND ENTERPRISE</t>
         </is>
       </c>
-      <c r="AA5" s="4" t="inlineStr"/>
-      <c r="AB5" s="4" t="n"/>
+      <c r="AA5" s="5" t="inlineStr"/>
+      <c r="AB5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Carcar City</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>119170</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Valladolid Elementary School</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>CITY OF CARCAR</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="5" t="n">
         <v>7095987.75</v>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4" t="inlineStr"/>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="M6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr"/>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="4" t="inlineStr"/>
-      <c r="U6" s="4" t="inlineStr"/>
-      <c r="V6" s="4" t="inlineStr"/>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="P6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr"/>
+      <c r="U6" s="5" t="inlineStr"/>
+      <c r="V6" s="5" t="inlineStr"/>
+      <c r="W6" s="5" t="inlineStr">
         <is>
           <t>January 20, 2021</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr"/>
-      <c r="Y6" s="4" t="inlineStr"/>
-      <c r="Z6" s="4" t="inlineStr"/>
-      <c r="AA6" s="4" t="inlineStr"/>
-      <c r="AB6" s="4" t="n"/>
+      <c r="X6" s="5" t="inlineStr"/>
+      <c r="Y6" s="5" t="inlineStr"/>
+      <c r="Z6" s="5" t="inlineStr"/>
+      <c r="AA6" s="5" t="inlineStr"/>
+      <c r="AB6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>118872</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Alcoy Central ES</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>ALCOY</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="5" t="n">
         <v>9684010.33</v>
       </c>
-      <c r="M7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4" t="n">
+      <c r="M7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="n">
         <v>6905228.73</v>
       </c>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5" t="n">
+      <c r="P7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7" t="n">
         <v>44864</v>
       </c>
-      <c r="R7" s="4" t="inlineStr"/>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr"/>
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 4</t>
         </is>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="T7" s="5" t="n">
         <v>44325</v>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y7" s="5" t="n">
+      <c r="Y7" s="7" t="n">
         <v>44372</v>
       </c>
-      <c r="Z7" s="4" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>JY BONTILAO CONSTRUCTION AND ENTERPRISE</t>
         </is>
       </c>
-      <c r="AA7" s="4" t="inlineStr"/>
-      <c r="AB7" s="4" t="n"/>
+      <c r="AA7" s="5" t="inlineStr"/>
+      <c r="AB7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>119377</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>DUMANJUG CENTRAL SCHOOL</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>DUMANJUG</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="J8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="5" t="n">
         <v>14736225.74</v>
       </c>
-      <c r="M8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4" t="n">
+      <c r="M8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5" t="n">
         <v>10885703.67</v>
       </c>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5" t="n">
+      <c r="P8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7" t="n">
         <v>44558</v>
       </c>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr"/>
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 5</t>
         </is>
       </c>
-      <c r="T8" s="4" t="n">
+      <c r="T8" s="5" t="n">
         <v>44326</v>
       </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W8" s="4" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="n">
+      <c r="Y8" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="Z8" s="4" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA8" s="4" t="inlineStr"/>
-      <c r="AB8" s="4" t="n"/>
+      <c r="AA8" s="5" t="inlineStr"/>
+      <c r="AB8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>119566</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Pinamungajan Central School</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>PINAMUNGAHAN</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="J9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="5" t="n">
         <v>16571044.5</v>
       </c>
-      <c r="M9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4" t="n">
+      <c r="M9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5" t="n">
         <v>12738307.98</v>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5" t="n">
+      <c r="P9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7" t="n">
         <v>44834</v>
       </c>
-      <c r="R9" s="4" t="inlineStr"/>
-      <c r="S9" s="4" t="inlineStr">
+      <c r="R9" s="5" t="inlineStr"/>
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 6</t>
         </is>
       </c>
-      <c r="T9" s="4" t="n">
+      <c r="T9" s="5" t="n">
         <v>44322</v>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>June 10, 2021</t>
         </is>
       </c>
-      <c r="Z9" s="4" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>MP SORELA CONSTRUCTION AND SUPPLY AND MARINE SERVICES</t>
         </is>
       </c>
-      <c r="AA9" s="4" t="inlineStr"/>
-      <c r="AB9" s="4" t="n"/>
+      <c r="AA9" s="5" t="inlineStr"/>
+      <c r="AB9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Cebu City</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>119910</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Pardo Ext. Elementary School</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>CEBU CITY</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5" t="n">
         <v>3257286.22</v>
       </c>
-      <c r="M10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4" t="n">
+      <c r="M10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5" t="n">
         <v>2896989.43</v>
       </c>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5" t="n">
+      <c r="P10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7" t="n">
         <v>44520</v>
       </c>
-      <c r="R10" s="4" t="inlineStr"/>
-      <c r="S10" s="4" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr"/>
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 7</t>
         </is>
       </c>
-      <c r="T10" s="4" t="n">
+      <c r="T10" s="5" t="n">
         <v>44327</v>
       </c>
-      <c r="U10" s="4" t="inlineStr">
+      <c r="U10" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W10" s="4" t="inlineStr">
+      <c r="W10" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y10" s="5" t="n">
+      <c r="Y10" s="7" t="n">
         <v>44363</v>
       </c>
-      <c r="Z10" s="4" t="inlineStr">
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>GELA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA10" s="4" t="inlineStr"/>
-      <c r="AB10" s="4" t="n"/>
+      <c r="AA10" s="5" t="inlineStr"/>
+      <c r="AB10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Danao City</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>119357</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Severo Duterte MES</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>DANAO CITY</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <v>5532839.71</v>
       </c>
-      <c r="M11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="4" t="n">
+      <c r="M11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5" t="n">
         <v>4514013.67</v>
       </c>
-      <c r="O11" s="4" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
+      <c r="P11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7" t="n">
         <v>44518</v>
       </c>
-      <c r="R11" s="4" t="inlineStr"/>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="R11" s="5" t="inlineStr"/>
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 8</t>
         </is>
       </c>
-      <c r="T11" s="4" t="n">
+      <c r="T11" s="5" t="n">
         <v>44331</v>
       </c>
-      <c r="U11" s="4" t="inlineStr">
+      <c r="U11" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V11" s="4" t="inlineStr">
+      <c r="V11" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W11" s="4" t="inlineStr">
+      <c r="W11" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>June 14, 2021</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>PB OBIAL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA11" s="4" t="inlineStr"/>
-      <c r="AB11" s="4" t="n"/>
+      <c r="AA11" s="5" t="inlineStr"/>
+      <c r="AB11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Mandaue City</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>120010</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Canduman Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>MANDAUE CITY</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="G12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <v>3305576.84</v>
       </c>
-      <c r="M12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4" t="n">
+      <c r="M12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="n">
         <v>2412962.02</v>
       </c>
-      <c r="O12" s="4" t="inlineStr">
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="5" t="n">
+      <c r="P12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7" t="n">
         <v>44498</v>
       </c>
-      <c r="R12" s="4" t="inlineStr">
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>August 25, 2021</t>
         </is>
       </c>
-      <c r="S12" s="4" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 9</t>
         </is>
       </c>
-      <c r="T12" s="4" t="n">
+      <c r="T12" s="5" t="n">
         <v>44328</v>
       </c>
-      <c r="U12" s="4" t="inlineStr">
+      <c r="U12" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V12" s="4" t="inlineStr">
+      <c r="V12" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W12" s="4" t="inlineStr">
+      <c r="W12" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X12" s="4" t="inlineStr">
+      <c r="X12" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y12" s="5" t="n">
+      <c r="Y12" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="Z12" s="4" t="inlineStr">
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA12" s="4" t="inlineStr"/>
-      <c r="AB12" s="4" t="n"/>
+      <c r="AA12" s="5" t="inlineStr"/>
+      <c r="AB12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Negros Oriental</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>120587</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Lutay ES</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>TAYASAN</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="G13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="5" t="n">
         <v>4097116.4</v>
       </c>
-      <c r="M13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4" t="n">
+      <c r="M13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5" t="n">
         <v>4077000</v>
       </c>
-      <c r="O13" s="4" t="inlineStr">
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5" t="n">
+      <c r="P13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7" t="n">
         <v>44544</v>
       </c>
-      <c r="R13" s="4" t="inlineStr"/>
-      <c r="S13" s="4" t="inlineStr">
+      <c r="R13" s="5" t="inlineStr"/>
+      <c r="S13" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 10</t>
         </is>
       </c>
-      <c r="T13" s="4" t="n">
+      <c r="T13" s="5" t="n">
         <v>44323</v>
       </c>
-      <c r="U13" s="4" t="inlineStr">
+      <c r="U13" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V13" s="4" t="inlineStr">
+      <c r="V13" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W13" s="4" t="inlineStr">
+      <c r="W13" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X13" s="4" t="inlineStr">
+      <c r="X13" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y13" s="4" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>June 10, 2021</t>
         </is>
       </c>
-      <c r="Z13" s="4" t="inlineStr">
+      <c r="Z13" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA13" s="4" t="inlineStr"/>
-      <c r="AB13" s="4" t="n"/>
+      <c r="AA13" s="5" t="inlineStr"/>
+      <c r="AB13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Tagbilaran City</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>118713</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Tagbilaran City Central Elementary School</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="G14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5" t="n">
         <v>1857042.7</v>
       </c>
-      <c r="M14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4" t="n">
+      <c r="M14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5" t="n">
         <v>1836406.24</v>
       </c>
-      <c r="O14" s="4" t="inlineStr">
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="5" t="n">
+      <c r="P14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7" t="n">
         <v>44498</v>
       </c>
-      <c r="R14" s="4" t="inlineStr"/>
-      <c r="S14" s="4" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr"/>
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 11</t>
         </is>
       </c>
-      <c r="T14" s="4" t="n">
+      <c r="T14" s="5" t="n">
         <v>44329</v>
       </c>
-      <c r="U14" s="4" t="inlineStr">
+      <c r="U14" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V14" s="4" t="inlineStr">
+      <c r="V14" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W14" s="4" t="inlineStr">
+      <c r="W14" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X14" s="4" t="inlineStr">
+      <c r="X14" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y14" s="5" t="n">
+      <c r="Y14" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="Z14" s="4" t="inlineStr">
+      <c r="Z14" s="5" t="inlineStr">
         <is>
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA14" s="4" t="inlineStr"/>
-      <c r="AB14" s="4" t="n"/>
+      <c r="AA14" s="5" t="inlineStr"/>
+      <c r="AB14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Talisay City</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>119787</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Lawaan Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>CITY OF TALISAY</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4" t="inlineStr">
+      <c r="G15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="5" t="n">
         <v>1851252.72</v>
       </c>
-      <c r="M15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4" t="n">
+      <c r="M15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5" t="n">
         <v>1348308.86</v>
       </c>
-      <c r="O15" s="4" t="inlineStr">
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5" t="n">
+      <c r="P15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7" t="n">
         <v>44498</v>
       </c>
-      <c r="R15" s="4" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>August 25, 2021</t>
         </is>
       </c>
-      <c r="S15" s="4" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 12</t>
         </is>
       </c>
-      <c r="T15" s="4" t="n">
+      <c r="T15" s="5" t="n">
         <v>44330</v>
       </c>
-      <c r="U15" s="4" t="inlineStr">
+      <c r="U15" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V15" s="4" t="inlineStr">
+      <c r="V15" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W15" s="4" t="inlineStr">
+      <c r="W15" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X15" s="4" t="inlineStr">
+      <c r="X15" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y15" s="5" t="n">
+      <c r="Y15" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="Z15" s="4" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA15" s="4" t="inlineStr"/>
-      <c r="AB15" s="4" t="n"/>
+      <c r="AA15" s="5" t="inlineStr"/>
+      <c r="AB15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>118331</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Getafe Central ES</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>GETAFE</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="5" t="n">
         <v>3538205</v>
       </c>
-      <c r="M16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4" t="n">
+      <c r="M16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5" t="n">
         <v>3502098.85</v>
       </c>
-      <c r="O16" s="4" t="inlineStr">
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5" t="n">
+      <c r="P16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7" t="n">
         <v>44538</v>
       </c>
-      <c r="R16" s="4" t="inlineStr"/>
-      <c r="S16" s="4" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr"/>
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>7595364-Lot 2</t>
         </is>
       </c>
-      <c r="T16" s="4" t="n">
+      <c r="T16" s="5" t="n">
         <v>44318</v>
       </c>
-      <c r="U16" s="4" t="inlineStr">
+      <c r="U16" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V16" s="4" t="inlineStr">
+      <c r="V16" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W16" s="4" t="inlineStr">
+      <c r="W16" s="5" t="inlineStr">
         <is>
           <t>May 7, 2021</t>
         </is>
       </c>
-      <c r="X16" s="4" t="inlineStr">
+      <c r="X16" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>June 4, 2021</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>C. JANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AA16" s="4" t="inlineStr"/>
-      <c r="AB16" s="4" t="n"/>
+      <c r="AA16" s="5" t="inlineStr"/>
+      <c r="AB16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>119864</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>VILLAHERMOSA ES</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>TUDELA</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="5" t="n">
         <v>2804104</v>
       </c>
-      <c r="M17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4" t="n">
+      <c r="M17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5" t="n">
         <v>2779358.3</v>
       </c>
-      <c r="O17" s="4" t="inlineStr">
+      <c r="O17" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="5" t="n">
+      <c r="P17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="7" t="n">
         <v>44485</v>
       </c>
-      <c r="R17" s="4" t="inlineStr"/>
-      <c r="S17" s="4" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr"/>
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>7595364-Lot 3</t>
         </is>
       </c>
-      <c r="T17" s="4" t="n">
+      <c r="T17" s="5" t="n">
         <v>44319</v>
       </c>
-      <c r="U17" s="4" t="inlineStr">
+      <c r="U17" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="V17" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W17" s="4" t="inlineStr">
+      <c r="W17" s="5" t="inlineStr">
         <is>
           <t>May 7, 2021</t>
         </is>
       </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="X17" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>June 11, 2021</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="inlineStr">
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>BARR STEEL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA17" s="4" t="inlineStr"/>
-      <c r="AB17" s="4" t="n"/>
+      <c r="AA17" s="5" t="inlineStr"/>
+      <c r="AB17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Dumaguete City</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>119935</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Camanjac Elementary School</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>DUMAGUETE CITY (Capital)</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="5" t="n">
         <v>4102769</v>
       </c>
-      <c r="M18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="4" t="n">
+      <c r="M18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5" t="n">
         <v>4061000</v>
       </c>
-      <c r="O18" s="4" t="inlineStr">
+      <c r="O18" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="5" t="n">
+      <c r="P18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="7" t="n">
         <v>44544</v>
       </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>c/o Maam Daday Guillen/Region-Implemented</t>
         </is>
       </c>
-      <c r="S18" s="4" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>7595364-Lot 1</t>
         </is>
       </c>
-      <c r="T18" s="4" t="n">
+      <c r="T18" s="5" t="n">
         <v>44317</v>
       </c>
-      <c r="U18" s="4" t="inlineStr">
+      <c r="U18" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V18" s="4" t="inlineStr">
+      <c r="V18" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W18" s="4" t="inlineStr">
+      <c r="W18" s="5" t="inlineStr">
         <is>
           <t>May 7, 2021</t>
         </is>
       </c>
-      <c r="X18" s="4" t="inlineStr">
+      <c r="X18" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>June 10, 2021</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="inlineStr">
+      <c r="Z18" s="5" t="inlineStr">
         <is>
           <t>RISM BUILDERS AND CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA18" s="4" t="inlineStr"/>
-      <c r="AB18" s="4" t="n"/>
+      <c r="AA18" s="5" t="inlineStr"/>
+      <c r="AB18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2022</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>118223</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Dagohoy Central Elementary</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>DAGOHOY</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <v>952221.1</v>
       </c>
-      <c r="M19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4" t="inlineStr"/>
-      <c r="O19" s="4" t="inlineStr">
+      <c r="M19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr">
         <is>
           <t>Reverted</t>
         </is>
       </c>
-      <c r="P19" s="4" t="n">
+      <c r="P19" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" s="4" t="inlineStr"/>
-      <c r="R19" s="4" t="inlineStr"/>
-      <c r="S19" s="4" t="inlineStr">
+      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="R19" s="5" t="inlineStr"/>
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 2</t>
         </is>
       </c>
-      <c r="T19" s="4" t="n">
+      <c r="T19" s="5" t="n">
         <v>44321</v>
       </c>
-      <c r="U19" s="4" t="inlineStr"/>
-      <c r="V19" s="4" t="inlineStr"/>
-      <c r="W19" s="4" t="inlineStr"/>
-      <c r="X19" s="4" t="inlineStr"/>
-      <c r="Y19" s="4" t="inlineStr"/>
-      <c r="Z19" s="4" t="inlineStr"/>
-      <c r="AA19" s="4" t="inlineStr">
+      <c r="U19" s="5" t="inlineStr"/>
+      <c r="V19" s="5" t="inlineStr"/>
+      <c r="W19" s="5" t="inlineStr"/>
+      <c r="X19" s="5" t="inlineStr"/>
+      <c r="Y19" s="5" t="inlineStr"/>
+      <c r="Z19" s="5" t="inlineStr"/>
+      <c r="AA19" s="5" t="inlineStr">
         <is>
           <t>REVERTED SINCE FUNDED IN THE QRF BATCH 2</t>
         </is>
       </c>
-      <c r="AB19" s="4" t="n"/>
+      <c r="AB19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>118672</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>SEVILLA CENTRAL ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>SEVILLA</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="5" t="n">
         <v>7036885.43</v>
       </c>
-      <c r="M20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="4" t="inlineStr"/>
-      <c r="O20" s="4" t="inlineStr">
+      <c r="M20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5" t="inlineStr"/>
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="4" t="inlineStr"/>
-      <c r="R20" s="4" t="inlineStr"/>
-      <c r="S20" s="4" t="inlineStr"/>
-      <c r="T20" s="4" t="inlineStr"/>
-      <c r="U20" s="4" t="inlineStr"/>
-      <c r="V20" s="4" t="inlineStr"/>
-      <c r="W20" s="4" t="inlineStr"/>
-      <c r="X20" s="4" t="inlineStr"/>
-      <c r="Y20" s="4" t="inlineStr"/>
-      <c r="Z20" s="4" t="inlineStr"/>
-      <c r="AA20" s="4" t="inlineStr"/>
-      <c r="AB20" s="4" t="n"/>
+      <c r="P20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="R20" s="5" t="inlineStr"/>
+      <c r="S20" s="5" t="inlineStr"/>
+      <c r="T20" s="5" t="inlineStr"/>
+      <c r="U20" s="5" t="inlineStr"/>
+      <c r="V20" s="5" t="inlineStr"/>
+      <c r="W20" s="5" t="inlineStr"/>
+      <c r="X20" s="5" t="inlineStr"/>
+      <c r="Y20" s="5" t="inlineStr"/>
+      <c r="Z20" s="5" t="inlineStr"/>
+      <c r="AA20" s="5" t="inlineStr"/>
+      <c r="AB20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>119613</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Samboan Central ES</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>SAMBOAN</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="5" t="n">
         <v>15492410.45</v>
       </c>
-      <c r="M21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="4" t="n">
+      <c r="M21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5" t="n">
         <v>15431357.88</v>
       </c>
-      <c r="O21" s="4" t="inlineStr">
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="5" t="n">
+      <c r="P21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="7" t="n">
         <v>45567</v>
       </c>
-      <c r="R21" s="5" t="n">
+      <c r="R21" s="7" t="n">
         <v>45359</v>
       </c>
-      <c r="S21" s="4" t="inlineStr">
+      <c r="S21" s="5" t="inlineStr">
         <is>
           <t>cy 2023 gabaldon-deped-region 7-cebu</t>
         </is>
       </c>
-      <c r="T21" s="4" t="inlineStr">
+      <c r="T21" s="5" t="inlineStr">
         <is>
           <t>cy 2023 gabaldon-deped-region 7-cebu-02</t>
         </is>
       </c>
-      <c r="U21" s="4" t="inlineStr">
+      <c r="U21" s="5" t="inlineStr">
         <is>
           <t>11/29/2023</t>
         </is>
       </c>
-      <c r="V21" s="5" t="n">
+      <c r="V21" s="7" t="n">
         <v>45089</v>
       </c>
-      <c r="W21" s="4" t="inlineStr">
+      <c r="W21" s="5" t="inlineStr">
         <is>
           <t>12/18/2023</t>
         </is>
       </c>
-      <c r="X21" s="5" t="n">
+      <c r="X21" s="7" t="n">
         <v>45296</v>
       </c>
-      <c r="Y21" s="5" t="n">
+      <c r="Y21" s="7" t="n">
         <v>45317</v>
       </c>
-      <c r="Z21" s="4" t="inlineStr">
+      <c r="Z21" s="5" t="inlineStr">
         <is>
           <t>Anielthon construction and supply</t>
         </is>
       </c>
-      <c r="AA21" s="4" t="inlineStr">
+      <c r="AA21" s="5" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AB21" s="4" t="n"/>
+      <c r="AB21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>119549</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Pilar Central School</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="5" t="n">
         <v>9189509.48</v>
       </c>
-      <c r="M22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="4" t="n">
+      <c r="M22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5" t="n">
         <v>9133229.310000001</v>
       </c>
-      <c r="O22" s="4" t="inlineStr">
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="5" t="n">
+      <c r="P22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="7" t="n">
         <v>45507</v>
       </c>
-      <c r="R22" s="5" t="n">
+      <c r="R22" s="7" t="n">
         <v>45507</v>
       </c>
-      <c r="S22" s="4" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>cy 2023 gabaldon-deped-region 7-cebu</t>
         </is>
       </c>
-      <c r="T22" s="4" t="inlineStr">
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>cy 2023 gabaldon-deped-region 7-cebu-01</t>
         </is>
       </c>
-      <c r="U22" s="4" t="inlineStr">
+      <c r="U22" s="5" t="inlineStr">
         <is>
           <t>11/29/2023</t>
         </is>
       </c>
-      <c r="V22" s="5" t="n">
+      <c r="V22" s="7" t="n">
         <v>45089</v>
       </c>
-      <c r="W22" s="4" t="inlineStr">
+      <c r="W22" s="5" t="inlineStr">
         <is>
           <t>12/18/2023</t>
         </is>
       </c>
-      <c r="X22" s="5" t="n">
+      <c r="X22" s="7" t="n">
         <v>45296</v>
       </c>
-      <c r="Y22" s="5" t="n">
+      <c r="Y22" s="7" t="n">
         <v>45317</v>
       </c>
-      <c r="Z22" s="4" t="inlineStr">
+      <c r="Z22" s="5" t="inlineStr">
         <is>
           <t>Barr steel construction</t>
         </is>
       </c>
-      <c r="AA22" s="4" t="inlineStr">
+      <c r="AA22" s="5" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AB22" s="4" t="n"/>
+      <c r="AB22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>119566</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Pinamungajan Central School</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>PINAMUNGAHAN</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="inlineStr"/>
-      <c r="J23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="inlineStr"/>
+      <c r="J23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="5" t="n">
         <v>485257.42</v>
       </c>
-      <c r="M23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="4" t="inlineStr"/>
-      <c r="O23" s="4" t="inlineStr">
+      <c r="M23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="5" t="inlineStr"/>
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="P23" s="4" t="n">
+      <c r="P23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" s="4" t="inlineStr"/>
-      <c r="R23" s="4" t="inlineStr"/>
-      <c r="S23" s="4" t="inlineStr"/>
-      <c r="T23" s="4" t="inlineStr"/>
-      <c r="U23" s="4" t="inlineStr"/>
-      <c r="V23" s="4" t="inlineStr"/>
-      <c r="W23" s="4" t="inlineStr"/>
-      <c r="X23" s="4" t="inlineStr"/>
-      <c r="Y23" s="4" t="inlineStr"/>
-      <c r="Z23" s="4" t="inlineStr">
+      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="R23" s="5" t="inlineStr"/>
+      <c r="S23" s="5" t="inlineStr"/>
+      <c r="T23" s="5" t="inlineStr"/>
+      <c r="U23" s="5" t="inlineStr"/>
+      <c r="V23" s="5" t="inlineStr"/>
+      <c r="W23" s="5" t="inlineStr"/>
+      <c r="X23" s="5" t="inlineStr"/>
+      <c r="Y23" s="5" t="inlineStr"/>
+      <c r="Z23" s="5" t="inlineStr">
         <is>
           <t>MP Sorela Construction</t>
         </is>
       </c>
-      <c r="AA23" s="4" t="inlineStr">
+      <c r="AA23" s="5" t="inlineStr">
         <is>
           <t>RO is waiting for the release of SARO as payment of the V.O. to MP Sorela Construction     
 declined by DO. Variation order implemented by RO. Several Letters sent by RO to CO requesting for the release of the fund. The project was already 100% completed.</t>
         </is>
       </c>
-      <c r="AB23" s="4" t="n"/>
+      <c r="AB23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>119248</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Tayud ES</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>CONSOLACION</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">6th </t>
         </is>
       </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="5" t="n">
         <v>3731085.93</v>
       </c>
-      <c r="M24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4" t="n">
+      <c r="M24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5" t="n">
         <v>3710147.91</v>
       </c>
-      <c r="O24" s="4" t="inlineStr">
+      <c r="O24" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="5" t="n">
+      <c r="P24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="7" t="n">
         <v>45701</v>
       </c>
-      <c r="R24" s="5" t="n">
+      <c r="R24" s="7" t="n">
         <v>45700</v>
       </c>
-      <c r="S24" s="4" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
         </is>
       </c>
-      <c r="T24" s="4" t="inlineStr">
+      <c r="T24" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
         </is>
       </c>
-      <c r="U24" s="5" t="n">
+      <c r="U24" s="7" t="n">
         <v>45454</v>
       </c>
-      <c r="V24" s="5" t="n">
+      <c r="V24" s="7" t="n">
         <v>45461</v>
       </c>
-      <c r="W24" s="5" t="n">
+      <c r="W24" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="X24" s="5" t="n">
+      <c r="X24" s="7" t="n">
         <v>45495</v>
       </c>
-      <c r="Y24" s="5" t="n">
+      <c r="Y24" s="7" t="n">
         <v>45548</v>
       </c>
-      <c r="Z24" s="4" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JAJ&amp;L CONSTRUCTION AND ENGINEERING SERVICES </t>
         </is>
       </c>
-      <c r="AA24" s="4" t="inlineStr"/>
-      <c r="AB24" s="4" t="n"/>
+      <c r="AA24" s="5" t="inlineStr"/>
+      <c r="AB24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Cebu City</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>119874</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>City Central ES</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>CEBU CITY (Capital)</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="5" t="n">
         <v>8310520</v>
       </c>
-      <c r="M25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="4" t="n">
+      <c r="M25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="5" t="n">
         <v>6093285.05</v>
       </c>
-      <c r="O25" s="4" t="inlineStr">
+      <c r="O25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="4" t="inlineStr">
+      <c r="P25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="5" t="inlineStr">
         <is>
           <t>1/27/2025</t>
         </is>
       </c>
-      <c r="R25" s="4" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>3/13/2025</t>
         </is>
       </c>
-      <c r="S25" s="4" t="inlineStr">
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>Gabaldon 2024 - R VII - Cebu City - 002</t>
         </is>
       </c>
-      <c r="T25" s="4" t="inlineStr">
+      <c r="T25" s="5" t="inlineStr">
         <is>
           <t>DepED CCD - Contract # 2024 - 11</t>
         </is>
       </c>
-      <c r="U25" s="5" t="n">
+      <c r="U25" s="7" t="n">
         <v>45449</v>
       </c>
-      <c r="V25" s="4" t="inlineStr">
+      <c r="V25" s="5" t="inlineStr">
         <is>
           <t>6/14/2024</t>
         </is>
       </c>
-      <c r="W25" s="4" t="inlineStr">
+      <c r="W25" s="5" t="inlineStr">
         <is>
           <t>6/26/2024</t>
         </is>
       </c>
-      <c r="X25" s="4" t="inlineStr">
+      <c r="X25" s="5" t="inlineStr">
         <is>
           <t>7/24/2024</t>
         </is>
       </c>
-      <c r="Y25" s="4" t="inlineStr">
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t>9/23/2024</t>
         </is>
       </c>
-      <c r="Z25" s="4" t="inlineStr">
+      <c r="Z25" s="5" t="inlineStr">
         <is>
           <t>JAJ &amp; L CONSTRUCTION AND ENGINEERING SERVICES</t>
         </is>
       </c>
-      <c r="AA25" s="4" t="inlineStr">
+      <c r="AA25" s="5" t="inlineStr">
         <is>
           <t>Completed
 with (45 days extension)</t>
         </is>
       </c>
-      <c r="AB25" s="4" t="n"/>
+      <c r="AB25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Danao City</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>119357</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Severo Duterte Memo. ES</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>DANAO CITY</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="inlineStr"/>
-      <c r="J26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4" t="inlineStr">
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="inlineStr"/>
+      <c r="J26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L26" s="4" t="n">
+      <c r="L26" s="5" t="n">
         <v>424730.16</v>
       </c>
-      <c r="M26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="4" t="inlineStr"/>
-      <c r="O26" s="4" t="inlineStr">
+      <c r="M26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="5" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="P26" s="4" t="n">
+      <c r="P26" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>11/18/2021</t>
         </is>
       </c>
-      <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="4" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr"/>
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 8</t>
         </is>
       </c>
-      <c r="T26" s="4" t="n">
+      <c r="T26" s="5" t="n">
         <v>44331</v>
       </c>
-      <c r="U26" s="4" t="inlineStr">
+      <c r="U26" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V26" s="4" t="inlineStr">
+      <c r="V26" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W26" s="4" t="inlineStr">
+      <c r="W26" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X26" s="4" t="inlineStr">
+      <c r="X26" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y26" s="4" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>June 14, 2021</t>
         </is>
       </c>
-      <c r="Z26" s="4" t="inlineStr">
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>PB OBIAL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA26" s="4" t="inlineStr">
+      <c r="AA26" s="5" t="inlineStr">
         <is>
           <t>Declined to Procure
  (with letter submitted thru Regional Director, dated May 31, 2024). RO is also waiting for a response from CO on the downloading of funds for V.O. The project was satisfactorily done by the Contractor. Follow-up letter sent to Usec. Cabral dated Dec. 8, 2024</t>
         </is>
       </c>
-      <c r="AB26" s="4" t="n"/>
+      <c r="AB26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Dumaguete City</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>119938</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>North City ES</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>DUMAGUETE CITY (Capital)</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4" t="n">
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="J27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L27" s="4" t="n">
+      <c r="L27" s="5" t="n">
         <v>10057346.25</v>
       </c>
-      <c r="M27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="4" t="n">
+      <c r="M27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="5" t="n">
         <v>6973017</v>
       </c>
-      <c r="O27" s="4" t="inlineStr">
+      <c r="O27" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P27" s="4" t="n">
+      <c r="P27" s="5" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q27" s="5" t="n">
+      <c r="Q27" s="7" t="n">
         <v>45691</v>
       </c>
-      <c r="R27" s="4" t="inlineStr"/>
-      <c r="S27" s="4" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr"/>
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>2024-003</t>
         </is>
       </c>
-      <c r="T27" s="4" t="inlineStr">
+      <c r="T27" s="5" t="inlineStr">
         <is>
           <t>2024-003</t>
         </is>
       </c>
-      <c r="U27" s="4" t="inlineStr">
+      <c r="U27" s="5" t="inlineStr">
         <is>
           <t>6/20/2024</t>
         </is>
       </c>
-      <c r="V27" s="5" t="n">
+      <c r="V27" s="7" t="n">
         <v>45298</v>
       </c>
-      <c r="W27" s="4" t="inlineStr">
+      <c r="W27" s="5" t="inlineStr">
         <is>
           <t>7/16/2024</t>
         </is>
       </c>
-      <c r="X27" s="5" t="n">
+      <c r="X27" s="7" t="n">
         <v>45330</v>
       </c>
-      <c r="Y27" s="4" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>9/27/2024</t>
         </is>
       </c>
-      <c r="Z27" s="4" t="inlineStr">
+      <c r="Z27" s="5" t="inlineStr">
         <is>
           <t>Four SG Enterprises</t>
         </is>
       </c>
-      <c r="AA27" s="4" t="inlineStr">
+      <c r="AA27" s="5" t="inlineStr">
         <is>
           <t>On - Going</t>
         </is>
       </c>
-      <c r="AB27" s="4" t="n"/>
+      <c r="AB27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Mandaue City</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>119998</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Basak ES</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>MANDAUE CITY</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">6th </t>
         </is>
       </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="n">
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4" t="inlineStr">
+      <c r="J28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L28" s="4" t="n">
+      <c r="L28" s="5" t="n">
         <v>6033004.04</v>
       </c>
-      <c r="M28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" s="4" t="n">
+      <c r="M28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5" t="n">
         <v>5993579.01</v>
       </c>
-      <c r="O28" s="4" t="inlineStr">
+      <c r="O28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="4" t="inlineStr">
+      <c r="P28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="5" t="inlineStr">
         <is>
           <t>9/20/2024</t>
         </is>
       </c>
-      <c r="R28" s="4" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>9/20/2024</t>
         </is>
       </c>
-      <c r="S28" s="4" t="inlineStr">
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>2024GAB01</t>
         </is>
       </c>
-      <c r="T28" s="4" t="n">
+      <c r="T28" s="5" t="n">
         <v>45323</v>
       </c>
-      <c r="U28" s="5" t="n">
+      <c r="U28" s="7" t="n">
         <v>45630</v>
       </c>
-      <c r="V28" s="4" t="inlineStr">
+      <c r="V28" s="5" t="inlineStr">
         <is>
           <t>4/20/2024</t>
         </is>
       </c>
-      <c r="W28" s="5" t="n">
+      <c r="W28" s="7" t="n">
         <v>45327</v>
       </c>
-      <c r="X28" s="5" t="n">
+      <c r="X28" s="7" t="n">
         <v>45478</v>
       </c>
-      <c r="Y28" s="4" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>6/24/2024</t>
         </is>
       </c>
-      <c r="Z28" s="4" t="inlineStr">
+      <c r="Z28" s="5" t="inlineStr">
         <is>
           <t>Golden Hammer Construction and Supply</t>
         </is>
       </c>
-      <c r="AA28" s="4" t="inlineStr"/>
-      <c r="AB28" s="4" t="n"/>
+      <c r="AA28" s="5" t="inlineStr"/>
+      <c r="AB28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Negros Oriental</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>120033</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Ayungon CES</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>AYUNGON</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4" t="inlineStr">
+      <c r="J29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building (10 Classrooms + 2 Offices)</t>
         </is>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="5" t="n">
         <v>36145286.53</v>
       </c>
-      <c r="M29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" s="4" t="n">
+      <c r="M29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="5" t="n">
         <v>35761963.38</v>
       </c>
-      <c r="O29" s="4" t="inlineStr">
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P29" s="4" t="n">
+      <c r="P29" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="Q29" s="4" t="inlineStr">
+      <c r="Q29" s="5" t="inlineStr">
         <is>
           <t>12/26/2025</t>
         </is>
       </c>
-      <c r="R29" s="4" t="inlineStr"/>
-      <c r="S29" s="4" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr"/>
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>ITB 2024-03-038</t>
         </is>
       </c>
-      <c r="T29" s="4" t="inlineStr">
+      <c r="T29" s="5" t="inlineStr">
         <is>
           <t>GAB202406026</t>
         </is>
       </c>
-      <c r="U29" s="4" t="inlineStr">
+      <c r="U29" s="5" t="inlineStr">
         <is>
           <t>3/27/2024</t>
         </is>
       </c>
-      <c r="V29" s="5" t="n">
+      <c r="V29" s="7" t="n">
         <v>45386</v>
       </c>
-      <c r="W29" s="4" t="inlineStr">
+      <c r="W29" s="5" t="inlineStr">
         <is>
           <t>4/16/2024</t>
         </is>
       </c>
-      <c r="X29" s="4" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>5/15/2024</t>
         </is>
       </c>
-      <c r="Y29" s="4" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>6/24/2024</t>
         </is>
       </c>
-      <c r="Z29" s="4" t="inlineStr">
+      <c r="Z29" s="5" t="inlineStr">
         <is>
           <t>TrinityCAD Corporation</t>
         </is>
       </c>
-      <c r="AA29" s="4" t="inlineStr">
+      <c r="AA29" s="5" t="inlineStr">
         <is>
           <t>with time extension due to erratic weather conditions, processing of cutting permit, and scarcity of wood supply</t>
         </is>
       </c>
-      <c r="AB29" s="4" t="n"/>
+      <c r="AB29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Siquijor</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>501429</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Maria Integrated School</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>MARIA</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="4" t="inlineStr">
+      <c r="J30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L30" s="4" t="n">
+      <c r="L30" s="5" t="n">
         <v>5057563.48</v>
       </c>
-      <c r="M30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="4" t="n">
+      <c r="M30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="5" t="n">
         <v>4996657.17</v>
       </c>
-      <c r="O30" s="4" t="inlineStr">
+      <c r="O30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P30" s="4" t="n">
+      <c r="P30" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="Q30" s="4" t="inlineStr">
+      <c r="Q30" s="5" t="inlineStr">
         <is>
           <t>Jan. 26, 2025</t>
         </is>
       </c>
-      <c r="R30" s="4" t="inlineStr"/>
-      <c r="S30" s="4" t="n">
+      <c r="R30" s="5" t="inlineStr"/>
+      <c r="S30" s="5" t="n">
         <v>10743443</v>
       </c>
-      <c r="T30" s="4" t="inlineStr">
+      <c r="T30" s="5" t="inlineStr">
         <is>
           <t>2024-025</t>
         </is>
       </c>
-      <c r="U30" s="5" t="n">
+      <c r="U30" s="7" t="n">
         <v>45600</v>
       </c>
-      <c r="V30" s="4" t="inlineStr">
+      <c r="V30" s="5" t="inlineStr">
         <is>
           <t>4/18/2024</t>
         </is>
       </c>
-      <c r="W30" s="4" t="inlineStr">
+      <c r="W30" s="5" t="inlineStr">
         <is>
           <t>4/30/2024</t>
         </is>
       </c>
-      <c r="X30" s="5" t="n">
+      <c r="X30" s="7" t="n">
         <v>45417</v>
       </c>
-      <c r="Y30" s="5" t="n">
+      <c r="Y30" s="7" t="n">
         <v>45298</v>
       </c>
-      <c r="Z30" s="4" t="inlineStr">
+      <c r="Z30" s="5" t="inlineStr">
         <is>
           <t>Nale Construction</t>
         </is>
       </c>
-      <c r="AA30" s="4" t="inlineStr">
+      <c r="AA30" s="5" t="inlineStr">
         <is>
           <t>with Time Extention. Revised Target Completion March 17, 2025</t>
         </is>
       </c>
-      <c r="AB30" s="4" t="n"/>
+      <c r="AB30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Tagbilaran City</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>302846</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Dr. Cecilio Putong NHS (Bohol NHS)</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="n">
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="J31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="4" t="inlineStr">
+      <c r="J31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L31" s="4" t="n">
+      <c r="L31" s="5" t="n">
         <v>24222461.26</v>
       </c>
-      <c r="M31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" s="4" t="n">
+      <c r="M31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="5" t="n">
         <v>24202271.24</v>
       </c>
-      <c r="O31" s="4" t="inlineStr">
+      <c r="O31" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="4" t="inlineStr">
+      <c r="P31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="5" t="inlineStr">
         <is>
           <t>3/25/2025</t>
         </is>
       </c>
-      <c r="R31" s="4" t="inlineStr">
+      <c r="R31" s="5" t="inlineStr">
         <is>
           <t>1/30/2025</t>
         </is>
       </c>
-      <c r="S31" s="4" t="inlineStr">
+      <c r="S31" s="5" t="inlineStr">
         <is>
           <t>2024-001-Infra</t>
         </is>
       </c>
-      <c r="T31" s="4" t="inlineStr">
+      <c r="T31" s="5" t="inlineStr">
         <is>
           <t>2024-001-Infra</t>
         </is>
       </c>
-      <c r="U31" s="5" t="n">
+      <c r="U31" s="7" t="n">
         <v>45599</v>
       </c>
-      <c r="V31" s="4" t="inlineStr">
+      <c r="V31" s="5" t="inlineStr">
         <is>
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W31" s="5" t="n">
+      <c r="W31" s="7" t="n">
         <v>45416</v>
       </c>
-      <c r="X31" s="5" t="n">
+      <c r="X31" s="7" t="n">
         <v>45569</v>
       </c>
-      <c r="Y31" s="4" t="inlineStr">
+      <c r="Y31" s="5" t="inlineStr">
         <is>
           <t>6/21/2024</t>
         </is>
       </c>
-      <c r="Z31" s="4" t="inlineStr">
+      <c r="Z31" s="5" t="inlineStr">
         <is>
           <t>CJANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AA31" s="4" t="inlineStr"/>
-      <c r="AB31" s="4" t="n"/>
+      <c r="AA31" s="5" t="inlineStr"/>
+      <c r="AB31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Toledo City</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>120757</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>South City Central School</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>TOLEDO CITY</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="n">
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="4" t="inlineStr">
+      <c r="J32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L32" s="4" t="n">
+      <c r="L32" s="5" t="n">
         <v>8822869.51</v>
       </c>
-      <c r="M32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" s="4" t="n">
+      <c r="M32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="5" t="n">
         <v>7032361.23</v>
       </c>
-      <c r="O32" s="4" t="inlineStr">
+      <c r="O32" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="4" t="inlineStr">
+      <c r="P32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="5" t="inlineStr">
         <is>
           <t>11/18/2024</t>
         </is>
       </c>
-      <c r="R32" s="4" t="inlineStr">
+      <c r="R32" s="5" t="inlineStr">
         <is>
           <t>10/31/2024</t>
         </is>
       </c>
-      <c r="S32" s="4" t="inlineStr">
+      <c r="S32" s="5" t="inlineStr">
         <is>
           <t>GAB 2022-R VII-TOLEDO-001</t>
         </is>
       </c>
-      <c r="T32" s="4" t="inlineStr">
+      <c r="T32" s="5" t="inlineStr">
         <is>
           <t>2024-001</t>
         </is>
       </c>
-      <c r="U32" s="5" t="n">
+      <c r="U32" s="7" t="n">
         <v>45415</v>
       </c>
-      <c r="V32" s="4" t="inlineStr">
+      <c r="V32" s="5" t="inlineStr">
         <is>
           <t>3/14/2024</t>
         </is>
       </c>
-      <c r="W32" s="4" t="inlineStr">
+      <c r="W32" s="5" t="inlineStr">
         <is>
           <t>3/26/2024</t>
         </is>
       </c>
-      <c r="X32" s="5" t="n">
+      <c r="X32" s="7" t="n">
         <v>45355</v>
       </c>
-      <c r="Y32" s="5" t="n">
+      <c r="Y32" s="7" t="n">
         <v>45510</v>
       </c>
-      <c r="Z32" s="4" t="inlineStr">
+      <c r="Z32" s="5" t="inlineStr">
         <is>
           <t>Anielthone Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="AA32" s="4" t="inlineStr"/>
-      <c r="AB32" s="4" t="n"/>
+      <c r="AA32" s="5" t="inlineStr"/>
+      <c r="AB32" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region VII/Region VII_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_GABALDON.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -459,11 +459,11 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="43" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
     <col width="24" customWidth="1" min="10" max="10"/>
-    <col width="86" customWidth="1" min="11" max="11"/>
+    <col width="58" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="17" customWidth="1" min="14" max="14"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -1757,20 +1757,20 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Tagbilaran City</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>120587</v>
+        <v>118713</v>
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
-          <t>Lutay ES</t>
+          <t>Tagbilaran City Central Elementary School</t>
         </is>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
-          <t>TAYASAN</t>
+          <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
       <c r="G13" s="5" t="n">
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1791,13 +1791,13 @@
         </is>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4097116.4</v>
+        <v>1857042.7</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>4077000</v>
+        <v>1836406.24</v>
       </c>
       <c r="O13" s="5" t="inlineStr">
         <is>
@@ -1808,16 +1808,16 @@
         <v>1</v>
       </c>
       <c r="Q13" s="7" t="n">
-        <v>44544</v>
+        <v>44498</v>
       </c>
       <c r="R13" s="5" t="inlineStr"/>
       <c r="S13" s="5" t="inlineStr">
         <is>
-          <t>6944754-Lot 10</t>
+          <t>6944754-Lot 11</t>
         </is>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44323</v>
+        <v>44329</v>
       </c>
       <c r="U13" s="5" t="inlineStr">
         <is>
@@ -1839,14 +1839,12 @@
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y13" s="5" t="inlineStr">
-        <is>
-          <t>June 10, 2021</t>
-        </is>
+      <c r="Y13" s="7" t="n">
+        <v>44370</v>
       </c>
       <c r="Z13" s="5" t="inlineStr">
         <is>
-          <t>RISM BUILDERS AND CONSTRUCTION</t>
+          <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
       <c r="AA13" s="5" t="inlineStr"/>
@@ -1865,20 +1863,20 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>Tagbilaran City</t>
+          <t>Talisay City</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>118713</v>
+        <v>119787</v>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>Tagbilaran City Central Elementary School</t>
+          <t>Lawaan Elementary School</t>
         </is>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>TAGBILARAN CITY (Capital)</t>
+          <t>CITY OF TALISAY</t>
         </is>
       </c>
       <c r="G14" s="5" t="n">
@@ -1888,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1899,13 +1897,13 @@
         </is>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1857042.7</v>
+        <v>1851252.72</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1836406.24</v>
+        <v>1348308.86</v>
       </c>
       <c r="O14" s="5" t="inlineStr">
         <is>
@@ -1918,14 +1916,18 @@
       <c r="Q14" s="7" t="n">
         <v>44498</v>
       </c>
-      <c r="R14" s="5" t="inlineStr"/>
+      <c r="R14" s="5" t="inlineStr">
+        <is>
+          <t>August 25, 2021</t>
+        </is>
+      </c>
       <c r="S14" s="5" t="inlineStr">
         <is>
-          <t>6944754-Lot 11</t>
+          <t>6944754-Lot 12</t>
         </is>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="U14" s="5" t="inlineStr">
         <is>
@@ -1961,7 +1963,7 @@
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2020</t>
+          <t>GABALDON 2021</t>
         </is>
       </c>
       <c r="B15" s="5" t="inlineStr">
@@ -1971,30 +1973,30 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>Talisay City</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>119787</v>
+        <v>118331</v>
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
-          <t>Lawaan Elementary School</t>
+          <t>Getafe Central ES</t>
         </is>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
-          <t>CITY OF TALISAY</t>
+          <t>GETAFE</t>
         </is>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -2005,13 +2007,13 @@
         </is>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1851252.72</v>
+        <v>3538205</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>1348308.86</v>
+        <v>3502098.85</v>
       </c>
       <c r="O15" s="5" t="inlineStr">
         <is>
@@ -2022,20 +2024,16 @@
         <v>1</v>
       </c>
       <c r="Q15" s="7" t="n">
-        <v>44498</v>
-      </c>
-      <c r="R15" s="5" t="inlineStr">
-        <is>
-          <t>August 25, 2021</t>
-        </is>
-      </c>
+        <v>44538</v>
+      </c>
+      <c r="R15" s="5" t="inlineStr"/>
       <c r="S15" s="5" t="inlineStr">
         <is>
-          <t>6944754-Lot 12</t>
+          <t>7595364-Lot 2</t>
         </is>
       </c>
       <c r="T15" s="5" t="n">
-        <v>44330</v>
+        <v>44318</v>
       </c>
       <c r="U15" s="5" t="inlineStr">
         <is>
@@ -2049,7 +2047,7 @@
       </c>
       <c r="W15" s="5" t="inlineStr">
         <is>
-          <t>May 11, 2021</t>
+          <t>May 7, 2021</t>
         </is>
       </c>
       <c r="X15" s="5" t="inlineStr">
@@ -2057,12 +2055,14 @@
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y15" s="7" t="n">
-        <v>44370</v>
+      <c r="Y15" s="5" t="inlineStr">
+        <is>
+          <t>June 4, 2021</t>
+        </is>
       </c>
       <c r="Z15" s="5" t="inlineStr">
         <is>
-          <t>TRI BAIRN CONSTRUCTION</t>
+          <t>C. JANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
       <c r="AA15" s="5" t="inlineStr"/>
@@ -2081,31 +2081,31 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>118331</v>
+        <v>119864</v>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>Getafe Central ES</t>
+          <t>VILLAHERMOSA ES</t>
         </is>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
-          <t>GETAFE</t>
+          <t>TUDELA</t>
         </is>
       </c>
       <c r="G16" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>3</v>
-      </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
       </c>
@@ -2115,13 +2115,13 @@
         </is>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3538205</v>
+        <v>2804104</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>3502098.85</v>
+        <v>2779358.3</v>
       </c>
       <c r="O16" s="5" t="inlineStr">
         <is>
@@ -2132,16 +2132,16 @@
         <v>1</v>
       </c>
       <c r="Q16" s="7" t="n">
-        <v>44538</v>
+        <v>44485</v>
       </c>
       <c r="R16" s="5" t="inlineStr"/>
       <c r="S16" s="5" t="inlineStr">
         <is>
-          <t>7595364-Lot 2</t>
+          <t>7595364-Lot 3</t>
         </is>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="U16" s="5" t="inlineStr">
         <is>
@@ -2165,12 +2165,12 @@
       </c>
       <c r="Y16" s="5" t="inlineStr">
         <is>
-          <t>June 4, 2021</t>
+          <t>June 11, 2021</t>
         </is>
       </c>
       <c r="Z16" s="5" t="inlineStr">
         <is>
-          <t>C. JANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
+          <t>BARR STEEL CONSTRUCTION</t>
         </is>
       </c>
       <c r="AA16" s="5" t="inlineStr"/>
@@ -2189,30 +2189,30 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Dumaguete City</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>119864</v>
+        <v>119935</v>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>VILLAHERMOSA ES</t>
+          <t>Camanjac Elementary School</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>TUDELA</t>
+          <t>DUMAGUETE CITY (Capital)</t>
         </is>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -2223,13 +2223,13 @@
         </is>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2804104</v>
+        <v>4102769</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>2779358.3</v>
+        <v>4061000</v>
       </c>
       <c r="O17" s="5" t="inlineStr">
         <is>
@@ -2240,16 +2240,20 @@
         <v>1</v>
       </c>
       <c r="Q17" s="7" t="n">
-        <v>44485</v>
-      </c>
-      <c r="R17" s="5" t="inlineStr"/>
+        <v>44544</v>
+      </c>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>c/o Maam Daday Guillen/Region-Implemented</t>
+        </is>
+      </c>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>7595364-Lot 3</t>
+          <t>7595364-Lot 1</t>
         </is>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44319</v>
+        <v>44317</v>
       </c>
       <c r="U17" s="5" t="inlineStr">
         <is>
@@ -2273,12 +2277,12 @@
       </c>
       <c r="Y17" s="5" t="inlineStr">
         <is>
-          <t>June 11, 2021</t>
+          <t>June 10, 2021</t>
         </is>
       </c>
       <c r="Z17" s="5" t="inlineStr">
         <is>
-          <t>BARR STEEL CONSTRUCTION</t>
+          <t>RISM BUILDERS AND CONSTRUCTION</t>
         </is>
       </c>
       <c r="AA17" s="5" t="inlineStr"/>
@@ -2287,7 +2291,7 @@
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2021</t>
+          <t>GABALDON 2022</t>
         </is>
       </c>
       <c r="B18" s="5" t="inlineStr">
@@ -2297,20 +2301,20 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>Dumaguete City</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>119935</v>
+        <v>118223</v>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Camanjac Elementary School</t>
+          <t>Dagohoy Central Elementary</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>DUMAGUETE CITY (Capital)</t>
+          <t>DAGOHOY</t>
         </is>
       </c>
       <c r="G18" s="5" t="n">
@@ -2320,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -2331,75 +2335,47 @@
         </is>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4102769</v>
+        <v>952221.1</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N18" s="5" t="n">
-        <v>4061000</v>
-      </c>
+      <c r="N18" s="5" t="inlineStr"/>
       <c r="O18" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Reverted</t>
         </is>
       </c>
       <c r="P18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="7" t="n">
-        <v>44544</v>
-      </c>
-      <c r="R18" s="5" t="inlineStr">
-        <is>
-          <t>c/o Maam Daday Guillen/Region-Implemented</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="R18" s="5" t="inlineStr"/>
       <c r="S18" s="5" t="inlineStr">
         <is>
-          <t>7595364-Lot 1</t>
+          <t>6944754-Lot 2</t>
         </is>
       </c>
       <c r="T18" s="5" t="n">
-        <v>44317</v>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>April 29, 2021</t>
-        </is>
-      </c>
-      <c r="V18" s="5" t="inlineStr">
-        <is>
-          <t>April 15, 2021</t>
-        </is>
-      </c>
-      <c r="W18" s="5" t="inlineStr">
-        <is>
-          <t>May 7, 2021</t>
-        </is>
-      </c>
-      <c r="X18" s="5" t="inlineStr">
-        <is>
-          <t>May 27, 2021</t>
-        </is>
-      </c>
-      <c r="Y18" s="5" t="inlineStr">
-        <is>
-          <t>June 10, 2021</t>
-        </is>
-      </c>
-      <c r="Z18" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="AA18" s="5" t="inlineStr"/>
+        <v>44321</v>
+      </c>
+      <c r="U18" s="5" t="inlineStr"/>
+      <c r="V18" s="5" t="inlineStr"/>
+      <c r="W18" s="5" t="inlineStr"/>
+      <c r="X18" s="5" t="inlineStr"/>
+      <c r="Y18" s="5" t="inlineStr"/>
+      <c r="Z18" s="5" t="inlineStr"/>
+      <c r="AA18" s="5" t="inlineStr">
+        <is>
+          <t>REVERTED SINCE FUNDED IN THE QRF BATCH 2</t>
+        </is>
+      </c>
       <c r="AB18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2022</t>
+          <t>GABALDON 2023</t>
         </is>
       </c>
       <c r="B19" s="5" t="inlineStr">
@@ -2413,37 +2389,37 @@
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>118223</v>
+        <v>118672</v>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>Dagohoy Central Elementary</t>
+          <t>SEVILLA CENTRAL ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>DAGOHOY</t>
+          <t>SEVILLA</t>
         </is>
       </c>
       <c r="G19" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K19" s="5" t="inlineStr">
         <is>
-          <t>Rehabilitation of Gabaldon Building</t>
+          <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
       <c r="L19" s="5" t="n">
-        <v>952221.1</v>
+        <v>7036885.43</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>1</v>
@@ -2451,33 +2427,23 @@
       <c r="N19" s="5" t="inlineStr"/>
       <c r="O19" s="5" t="inlineStr">
         <is>
-          <t>Reverted</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="P19" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="5" t="inlineStr"/>
       <c r="R19" s="5" t="inlineStr"/>
-      <c r="S19" s="5" t="inlineStr">
-        <is>
-          <t>6944754-Lot 2</t>
-        </is>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>44321</v>
-      </c>
+      <c r="S19" s="5" t="inlineStr"/>
+      <c r="T19" s="5" t="inlineStr"/>
       <c r="U19" s="5" t="inlineStr"/>
       <c r="V19" s="5" t="inlineStr"/>
       <c r="W19" s="5" t="inlineStr"/>
       <c r="X19" s="5" t="inlineStr"/>
       <c r="Y19" s="5" t="inlineStr"/>
       <c r="Z19" s="5" t="inlineStr"/>
-      <c r="AA19" s="5" t="inlineStr">
-        <is>
-          <t>REVERTED SINCE FUNDED IN THE QRF BATCH 2</t>
-        </is>
-      </c>
+      <c r="AA19" s="5" t="inlineStr"/>
       <c r="AB19" s="6" t="n"/>
     </row>
     <row r="20">
@@ -2493,30 +2459,30 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>118672</v>
+        <v>119613</v>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>SEVILLA CENTRAL ELEMENTARY SCHOOL</t>
+          <t>Samboan Central ES</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>SEVILLA</t>
+          <t>SAMBOAN</t>
         </is>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -2527,12 +2493,14 @@
         </is>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7036885.43</v>
+        <v>15492410.45</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="N20" s="5" t="n">
+        <v>15431357.88</v>
+      </c>
       <c r="O20" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2541,17 +2509,51 @@
       <c r="P20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" s="5" t="inlineStr"/>
-      <c r="R20" s="5" t="inlineStr"/>
-      <c r="S20" s="5" t="inlineStr"/>
-      <c r="T20" s="5" t="inlineStr"/>
-      <c r="U20" s="5" t="inlineStr"/>
-      <c r="V20" s="5" t="inlineStr"/>
-      <c r="W20" s="5" t="inlineStr"/>
-      <c r="X20" s="5" t="inlineStr"/>
-      <c r="Y20" s="5" t="inlineStr"/>
-      <c r="Z20" s="5" t="inlineStr"/>
-      <c r="AA20" s="5" t="inlineStr"/>
+      <c r="Q20" s="7" t="n">
+        <v>45567</v>
+      </c>
+      <c r="R20" s="7" t="n">
+        <v>45359</v>
+      </c>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>cy 2023 gabaldon-deped-region 7-cebu</t>
+        </is>
+      </c>
+      <c r="T20" s="5" t="inlineStr">
+        <is>
+          <t>cy 2023 gabaldon-deped-region 7-cebu-02</t>
+        </is>
+      </c>
+      <c r="U20" s="5" t="inlineStr">
+        <is>
+          <t>11/29/2023</t>
+        </is>
+      </c>
+      <c r="V20" s="7" t="n">
+        <v>45089</v>
+      </c>
+      <c r="W20" s="5" t="inlineStr">
+        <is>
+          <t>12/18/2023</t>
+        </is>
+      </c>
+      <c r="X20" s="7" t="n">
+        <v>45296</v>
+      </c>
+      <c r="Y20" s="7" t="n">
+        <v>45317</v>
+      </c>
+      <c r="Z20" s="5" t="inlineStr">
+        <is>
+          <t>Anielthon construction and supply</t>
+        </is>
+      </c>
+      <c r="AA20" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="AB20" s="6" t="n"/>
     </row>
     <row r="21">
@@ -2571,26 +2573,26 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>119613</v>
+        <v>119549</v>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Samboan Central ES</t>
+          <t>Pilar Central School</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>SAMBOAN</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="G21" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -2601,13 +2603,13 @@
         </is>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15492410.45</v>
+        <v>9189509.48</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>15431357.88</v>
+        <v>9133229.310000001</v>
       </c>
       <c r="O21" s="5" t="inlineStr">
         <is>
@@ -2618,10 +2620,10 @@
         <v>1</v>
       </c>
       <c r="Q21" s="7" t="n">
-        <v>45567</v>
+        <v>45507</v>
       </c>
       <c r="R21" s="7" t="n">
-        <v>45359</v>
+        <v>45507</v>
       </c>
       <c r="S21" s="5" t="inlineStr">
         <is>
@@ -2630,7 +2632,7 @@
       </c>
       <c r="T21" s="5" t="inlineStr">
         <is>
-          <t>cy 2023 gabaldon-deped-region 7-cebu-02</t>
+          <t>cy 2023 gabaldon-deped-region 7-cebu-01</t>
         </is>
       </c>
       <c r="U21" s="5" t="inlineStr">
@@ -2654,7 +2656,7 @@
       </c>
       <c r="Z21" s="5" t="inlineStr">
         <is>
-          <t>Anielthon construction and supply</t>
+          <t>Barr steel construction</t>
         </is>
       </c>
       <c r="AA21" s="5" t="inlineStr">
@@ -2667,7 +2669,7 @@
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2023</t>
+          <t>GABALDON 2024</t>
         </is>
       </c>
       <c r="B22" s="5" t="inlineStr">
@@ -2681,95 +2683,68 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>119549</v>
+        <v>119566</v>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>Pilar Central School</t>
+          <t>Pinamungajan Central School</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>5</v>
+          <t>PINAMUNGAHAN</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
       </c>
       <c r="H22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" s="5" t="inlineStr"/>
       <c r="J22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K22" s="5" t="inlineStr">
         <is>
-          <t>Restoration &amp; Conservation of Gabaldon Building</t>
+          <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9189509.48</v>
+        <v>485257.42</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N22" s="5" t="n">
-        <v>9133229.310000001</v>
-      </c>
+      <c r="N22" s="5" t="inlineStr"/>
       <c r="O22" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Not Yet Started</t>
         </is>
       </c>
       <c r="P22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="7" t="n">
-        <v>45507</v>
-      </c>
-      <c r="R22" s="7" t="n">
-        <v>45507</v>
-      </c>
-      <c r="S22" s="5" t="inlineStr">
-        <is>
-          <t>cy 2023 gabaldon-deped-region 7-cebu</t>
-        </is>
-      </c>
-      <c r="T22" s="5" t="inlineStr">
-        <is>
-          <t>cy 2023 gabaldon-deped-region 7-cebu-01</t>
-        </is>
-      </c>
-      <c r="U22" s="5" t="inlineStr">
-        <is>
-          <t>11/29/2023</t>
-        </is>
-      </c>
-      <c r="V22" s="7" t="n">
-        <v>45089</v>
-      </c>
-      <c r="W22" s="5" t="inlineStr">
-        <is>
-          <t>12/18/2023</t>
-        </is>
-      </c>
-      <c r="X22" s="7" t="n">
-        <v>45296</v>
-      </c>
-      <c r="Y22" s="7" t="n">
-        <v>45317</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="R22" s="5" t="inlineStr"/>
+      <c r="S22" s="5" t="inlineStr"/>
+      <c r="T22" s="5" t="inlineStr"/>
+      <c r="U22" s="5" t="inlineStr"/>
+      <c r="V22" s="5" t="inlineStr"/>
+      <c r="W22" s="5" t="inlineStr"/>
+      <c r="X22" s="5" t="inlineStr"/>
+      <c r="Y22" s="5" t="inlineStr"/>
       <c r="Z22" s="5" t="inlineStr">
         <is>
-          <t>Barr steel construction</t>
+          <t>MP Sorela Construction</t>
         </is>
       </c>
       <c r="AA22" s="5" t="inlineStr">
         <is>
-          <t> </t>
+          <t>RO is waiting for the release of SARO as payment of the V.O. to MP Sorela Construction     
+declined by DO. Variation order implemented by RO. Several Letters sent by RO to CO requesting for the release of the fund. The project was already 100% completed.</t>
         </is>
       </c>
       <c r="AB22" s="6" t="n"/>
@@ -2791,27 +2766,29 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>119566</v>
+        <v>119248</v>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>Pinamungajan Central School</t>
+          <t>Tayud ES</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>PINAMUNGAHAN</t>
+          <t>CONSOLACION</t>
         </is>
       </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t xml:space="preserve">6th </t>
         </is>
       </c>
       <c r="H23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I23" s="5" t="inlineStr"/>
+      <c r="I23" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
       </c>
@@ -2821,40 +2798,59 @@
         </is>
       </c>
       <c r="L23" s="5" t="n">
-        <v>485257.42</v>
+        <v>3731085.93</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="N23" s="5" t="n">
+        <v>3710147.91</v>
+      </c>
       <c r="O23" s="5" t="inlineStr">
         <is>
-          <t>Not Yet Started</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="P23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="5" t="inlineStr"/>
-      <c r="R23" s="5" t="inlineStr"/>
-      <c r="S23" s="5" t="inlineStr"/>
-      <c r="T23" s="5" t="inlineStr"/>
-      <c r="U23" s="5" t="inlineStr"/>
-      <c r="V23" s="5" t="inlineStr"/>
-      <c r="W23" s="5" t="inlineStr"/>
-      <c r="X23" s="5" t="inlineStr"/>
-      <c r="Y23" s="5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="7" t="n">
+        <v>45701</v>
+      </c>
+      <c r="R23" s="7" t="n">
+        <v>45700</v>
+      </c>
+      <c r="S23" s="5" t="inlineStr">
+        <is>
+          <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
+        </is>
+      </c>
+      <c r="T23" s="5" t="inlineStr">
+        <is>
+          <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
+        </is>
+      </c>
+      <c r="U23" s="7" t="n">
+        <v>45454</v>
+      </c>
+      <c r="V23" s="7" t="n">
+        <v>45461</v>
+      </c>
+      <c r="W23" s="7" t="n">
+        <v>45474</v>
+      </c>
+      <c r="X23" s="7" t="n">
+        <v>45495</v>
+      </c>
+      <c r="Y23" s="7" t="n">
+        <v>45548</v>
+      </c>
       <c r="Z23" s="5" t="inlineStr">
         <is>
-          <t>MP Sorela Construction</t>
-        </is>
-      </c>
-      <c r="AA23" s="5" t="inlineStr">
-        <is>
-          <t>RO is waiting for the release of SARO as payment of the V.O. to MP Sorela Construction     
-declined by DO. Variation order implemented by RO. Several Letters sent by RO to CO requesting for the release of the fund. The project was already 100% completed.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">JAJ&amp;L CONSTRUCTION AND ENGINEERING SERVICES </t>
+        </is>
+      </c>
+      <c r="AA23" s="5" t="inlineStr"/>
       <c r="AB23" s="6" t="n"/>
     </row>
     <row r="24">
@@ -2870,32 +2866,32 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Cebu City</t>
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>119248</v>
+        <v>119874</v>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>Tayud ES</t>
+          <t>City Central ES</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>CONSOLACION</t>
+          <t>CEBU CITY (Capital)</t>
         </is>
       </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">6th </t>
+          <t xml:space="preserve">1st </t>
         </is>
       </c>
       <c r="H24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2906,59 +2902,76 @@
         </is>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3731085.93</v>
+        <v>8310520</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>3710147.91</v>
+        <v>6093285.05</v>
       </c>
       <c r="O24" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="P24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" s="7" t="n">
-        <v>45701</v>
-      </c>
-      <c r="R24" s="7" t="n">
-        <v>45700</v>
+      <c r="Q24" s="5" t="inlineStr">
+        <is>
+          <t>1/27/2025</t>
+        </is>
+      </c>
+      <c r="R24" s="5" t="inlineStr">
+        <is>
+          <t>3/13/2025</t>
+        </is>
       </c>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
+          <t>Gabaldon 2024 - R VII - Cebu City - 002</t>
         </is>
       </c>
       <c r="T24" s="5" t="inlineStr">
         <is>
-          <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
+          <t>DepED CCD - Contract # 2024 - 11</t>
         </is>
       </c>
       <c r="U24" s="7" t="n">
-        <v>45454</v>
-      </c>
-      <c r="V24" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="W24" s="7" t="n">
-        <v>45474</v>
-      </c>
-      <c r="X24" s="7" t="n">
-        <v>45495</v>
-      </c>
-      <c r="Y24" s="7" t="n">
-        <v>45548</v>
+        <v>45449</v>
+      </c>
+      <c r="V24" s="5" t="inlineStr">
+        <is>
+          <t>6/14/2024</t>
+        </is>
+      </c>
+      <c r="W24" s="5" t="inlineStr">
+        <is>
+          <t>6/26/2024</t>
+        </is>
+      </c>
+      <c r="X24" s="5" t="inlineStr">
+        <is>
+          <t>7/24/2024</t>
+        </is>
+      </c>
+      <c r="Y24" s="5" t="inlineStr">
+        <is>
+          <t>9/23/2024</t>
+        </is>
       </c>
       <c r="Z24" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAJ&amp;L CONSTRUCTION AND ENGINEERING SERVICES </t>
-        </is>
-      </c>
-      <c r="AA24" s="5" t="inlineStr"/>
+          <t>JAJ &amp; L CONSTRUCTION AND ENGINEERING SERVICES</t>
+        </is>
+      </c>
+      <c r="AA24" s="5" t="inlineStr">
+        <is>
+          <t>Completed
+with (45 days extension)</t>
+        </is>
+      </c>
       <c r="AB24" s="6" t="n"/>
     </row>
     <row r="25">
@@ -2974,33 +2987,31 @@
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>Cebu City</t>
+          <t>Danao City</t>
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>119874</v>
+        <v>119357</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>City Central ES</t>
+          <t>Severo Duterte Memo. ES</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>CEBU CITY (Capital)</t>
+          <t>DANAO CITY</t>
         </is>
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1st </t>
+          <t>5th</t>
         </is>
       </c>
       <c r="H25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="5" t="n">
-        <v>20</v>
-      </c>
+      <c r="I25" s="5" t="inlineStr"/>
       <c r="J25" s="5" t="n">
         <v>1</v>
       </c>
@@ -3010,74 +3021,68 @@
         </is>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8310520</v>
+        <v>424730.16</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N25" s="5" t="n">
-        <v>6093285.05</v>
-      </c>
+      <c r="N25" s="5" t="inlineStr"/>
       <c r="O25" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Not Yet Started</t>
         </is>
       </c>
       <c r="P25" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="5" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
-        </is>
-      </c>
-      <c r="R25" s="5" t="inlineStr">
-        <is>
-          <t>3/13/2025</t>
-        </is>
-      </c>
+          <t>11/18/2021</t>
+        </is>
+      </c>
+      <c r="R25" s="5" t="inlineStr"/>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>Gabaldon 2024 - R VII - Cebu City - 002</t>
-        </is>
-      </c>
-      <c r="T25" s="5" t="inlineStr">
-        <is>
-          <t>DepED CCD - Contract # 2024 - 11</t>
-        </is>
-      </c>
-      <c r="U25" s="7" t="n">
-        <v>45449</v>
+          <t>6944754-Lot 8</t>
+        </is>
+      </c>
+      <c r="T25" s="5" t="n">
+        <v>44331</v>
+      </c>
+      <c r="U25" s="5" t="inlineStr">
+        <is>
+          <t>April 29, 2021</t>
+        </is>
       </c>
       <c r="V25" s="5" t="inlineStr">
         <is>
-          <t>6/14/2024</t>
+          <t>April 15, 2021</t>
         </is>
       </c>
       <c r="W25" s="5" t="inlineStr">
         <is>
-          <t>6/26/2024</t>
+          <t>May 11, 2021</t>
         </is>
       </c>
       <c r="X25" s="5" t="inlineStr">
         <is>
-          <t>7/24/2024</t>
+          <t>May 27, 2021</t>
         </is>
       </c>
       <c r="Y25" s="5" t="inlineStr">
         <is>
-          <t>9/23/2024</t>
+          <t>June 14, 2021</t>
         </is>
       </c>
       <c r="Z25" s="5" t="inlineStr">
         <is>
-          <t>JAJ &amp; L CONSTRUCTION AND ENGINEERING SERVICES</t>
+          <t>PB OBIAL CONSTRUCTION</t>
         </is>
       </c>
       <c r="AA25" s="5" t="inlineStr">
         <is>
-          <t>Completed
-with (45 days extension)</t>
+          <t>Declined to Procure
+ (with letter submitted thru Regional Director, dated May 31, 2024). RO is also waiting for a response from CO on the downloading of funds for V.O. The project was satisfactorily done by the Contractor. Follow-up letter sent to Usec. Cabral dated Dec. 8, 2024</t>
         </is>
       </c>
       <c r="AB25" s="6" t="n"/>
@@ -3095,31 +3100,33 @@
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>Danao City</t>
+          <t>Dumaguete City</t>
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>119357</v>
+        <v>119938</v>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>Severo Duterte Memo. ES</t>
+          <t>North City ES</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>DANAO CITY</t>
+          <t>DUMAGUETE CITY (Capital)</t>
         </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t xml:space="preserve">2nd </t>
         </is>
       </c>
       <c r="H26" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="5" t="inlineStr"/>
+      <c r="I26" s="5" t="n">
+        <v>16</v>
+      </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
       </c>
@@ -3129,68 +3136,65 @@
         </is>
       </c>
       <c r="L26" s="5" t="n">
-        <v>424730.16</v>
+        <v>10057346.25</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N26" s="5" t="inlineStr"/>
+      <c r="N26" s="5" t="n">
+        <v>6973017</v>
+      </c>
       <c r="O26" s="5" t="inlineStr">
         <is>
-          <t>Not Yet Started</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="P26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>11/18/2021</t>
-        </is>
+        <v>0.93</v>
+      </c>
+      <c r="Q26" s="7" t="n">
+        <v>45691</v>
       </c>
       <c r="R26" s="5" t="inlineStr"/>
       <c r="S26" s="5" t="inlineStr">
         <is>
-          <t>6944754-Lot 8</t>
-        </is>
-      </c>
-      <c r="T26" s="5" t="n">
-        <v>44331</v>
+          <t>2024-003</t>
+        </is>
+      </c>
+      <c r="T26" s="5" t="inlineStr">
+        <is>
+          <t>2024-003</t>
+        </is>
       </c>
       <c r="U26" s="5" t="inlineStr">
         <is>
-          <t>April 29, 2021</t>
-        </is>
-      </c>
-      <c r="V26" s="5" t="inlineStr">
-        <is>
-          <t>April 15, 2021</t>
-        </is>
+          <t>6/20/2024</t>
+        </is>
+      </c>
+      <c r="V26" s="7" t="n">
+        <v>45298</v>
       </c>
       <c r="W26" s="5" t="inlineStr">
         <is>
-          <t>May 11, 2021</t>
-        </is>
-      </c>
-      <c r="X26" s="5" t="inlineStr">
-        <is>
-          <t>May 27, 2021</t>
-        </is>
+          <t>7/16/2024</t>
+        </is>
+      </c>
+      <c r="X26" s="7" t="n">
+        <v>45330</v>
       </c>
       <c r="Y26" s="5" t="inlineStr">
         <is>
-          <t>June 14, 2021</t>
+          <t>9/27/2024</t>
         </is>
       </c>
       <c r="Z26" s="5" t="inlineStr">
         <is>
-          <t>PB OBIAL CONSTRUCTION</t>
+          <t>Four SG Enterprises</t>
         </is>
       </c>
       <c r="AA26" s="5" t="inlineStr">
         <is>
-          <t>Declined to Procure
- (with letter submitted thru Regional Director, dated May 31, 2024). RO is also waiting for a response from CO on the downloading of funds for V.O. The project was satisfactorily done by the Contractor. Follow-up letter sent to Usec. Cabral dated Dec. 8, 2024</t>
+          <t>On - Going</t>
         </is>
       </c>
       <c r="AB26" s="6" t="n"/>
@@ -3208,32 +3212,32 @@
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>Dumaguete City</t>
+          <t>Mandaue City</t>
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>119938</v>
+        <v>119998</v>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>North City ES</t>
+          <t>Basak ES</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>DUMAGUETE CITY (Capital)</t>
+          <t>MANDAUE CITY</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2nd </t>
+          <t xml:space="preserve">6th </t>
         </is>
       </c>
       <c r="H27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -3244,67 +3248,65 @@
         </is>
       </c>
       <c r="L27" s="5" t="n">
-        <v>10057346.25</v>
+        <v>6033004.04</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>6973017</v>
+        <v>5993579.01</v>
       </c>
       <c r="O27" s="5" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="P27" s="5" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Q27" s="7" t="n">
-        <v>45691</v>
-      </c>
-      <c r="R27" s="5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="5" t="inlineStr">
+        <is>
+          <t>9/20/2024</t>
+        </is>
+      </c>
+      <c r="R27" s="5" t="inlineStr">
+        <is>
+          <t>9/20/2024</t>
+        </is>
+      </c>
       <c r="S27" s="5" t="inlineStr">
         <is>
-          <t>2024-003</t>
-        </is>
-      </c>
-      <c r="T27" s="5" t="inlineStr">
-        <is>
-          <t>2024-003</t>
-        </is>
-      </c>
-      <c r="U27" s="5" t="inlineStr">
-        <is>
-          <t>6/20/2024</t>
-        </is>
-      </c>
-      <c r="V27" s="7" t="n">
-        <v>45298</v>
-      </c>
-      <c r="W27" s="5" t="inlineStr">
-        <is>
-          <t>7/16/2024</t>
-        </is>
+          <t>2024GAB01</t>
+        </is>
+      </c>
+      <c r="T27" s="5" t="n">
+        <v>45323</v>
+      </c>
+      <c r="U27" s="7" t="n">
+        <v>45630</v>
+      </c>
+      <c r="V27" s="5" t="inlineStr">
+        <is>
+          <t>4/20/2024</t>
+        </is>
+      </c>
+      <c r="W27" s="7" t="n">
+        <v>45327</v>
       </c>
       <c r="X27" s="7" t="n">
-        <v>45330</v>
+        <v>45478</v>
       </c>
       <c r="Y27" s="5" t="inlineStr">
         <is>
-          <t>9/27/2024</t>
+          <t>6/24/2024</t>
         </is>
       </c>
       <c r="Z27" s="5" t="inlineStr">
         <is>
-          <t>Four SG Enterprises</t>
-        </is>
-      </c>
-      <c r="AA27" s="5" t="inlineStr">
-        <is>
-          <t>On - Going</t>
-        </is>
-      </c>
+          <t>Golden Hammer Construction and Supply</t>
+        </is>
+      </c>
+      <c r="AA27" s="5" t="inlineStr"/>
       <c r="AB27" s="6" t="n"/>
     </row>
     <row r="28">
@@ -3320,32 +3322,32 @@
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>Mandaue City</t>
+          <t>Tagbilaran City</t>
         </is>
       </c>
       <c r="D28" s="5" t="n">
-        <v>119998</v>
+        <v>302846</v>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>Basak ES</t>
+          <t>Dr. Cecilio Putong NHS (Bohol NHS)</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>MANDAUE CITY</t>
+          <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">6th </t>
+          <t xml:space="preserve">1st </t>
         </is>
       </c>
       <c r="H28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -3356,13 +3358,13 @@
         </is>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6033004.04</v>
+        <v>24222461.26</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>5993579.01</v>
+        <v>24202271.24</v>
       </c>
       <c r="O28" s="5" t="inlineStr">
         <is>
@@ -3374,44 +3376,46 @@
       </c>
       <c r="Q28" s="5" t="inlineStr">
         <is>
-          <t>9/20/2024</t>
+          <t>3/25/2025</t>
         </is>
       </c>
       <c r="R28" s="5" t="inlineStr">
         <is>
-          <t>9/20/2024</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="S28" s="5" t="inlineStr">
         <is>
-          <t>2024GAB01</t>
-        </is>
-      </c>
-      <c r="T28" s="5" t="n">
-        <v>45323</v>
+          <t>2024-001-Infra</t>
+        </is>
+      </c>
+      <c r="T28" s="5" t="inlineStr">
+        <is>
+          <t>2024-001-Infra</t>
+        </is>
       </c>
       <c r="U28" s="7" t="n">
-        <v>45630</v>
+        <v>45599</v>
       </c>
       <c r="V28" s="5" t="inlineStr">
         <is>
-          <t>4/20/2024</t>
+          <t>3/21/2024</t>
         </is>
       </c>
       <c r="W28" s="7" t="n">
-        <v>45327</v>
+        <v>45416</v>
       </c>
       <c r="X28" s="7" t="n">
-        <v>45478</v>
+        <v>45569</v>
       </c>
       <c r="Y28" s="5" t="inlineStr">
         <is>
-          <t>6/24/2024</t>
+          <t>6/21/2024</t>
         </is>
       </c>
       <c r="Z28" s="5" t="inlineStr">
         <is>
-          <t>Golden Hammer Construction and Supply</t>
+          <t>CJANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
       <c r="AA28" s="5" t="inlineStr"/>
@@ -3430,446 +3434,108 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>Negros Oriental</t>
+          <t>Toledo City</t>
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>120033</v>
+        <v>120757</v>
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>Ayungon CES</t>
+          <t>South City Central School</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>AYUNGON</t>
+          <t>TOLEDO CITY</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1st </t>
+          <t xml:space="preserve">3rd </t>
         </is>
       </c>
       <c r="H29" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
-          <t>Conservation and Restoration of Gabaldon School Building (10 Classrooms + 2 Offices)</t>
+          <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
       <c r="L29" s="5" t="n">
-        <v>36145286.53</v>
+        <v>8822869.51</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>35761963.38</v>
+        <v>7032361.23</v>
       </c>
       <c r="O29" s="5" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="P29" s="5" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="5" t="inlineStr">
         <is>
-          <t>12/26/2025</t>
-        </is>
-      </c>
-      <c r="R29" s="5" t="inlineStr"/>
+          <t>11/18/2024</t>
+        </is>
+      </c>
+      <c r="R29" s="5" t="inlineStr">
+        <is>
+          <t>10/31/2024</t>
+        </is>
+      </c>
       <c r="S29" s="5" t="inlineStr">
         <is>
-          <t>ITB 2024-03-038</t>
+          <t>GAB 2022-R VII-TOLEDO-001</t>
         </is>
       </c>
       <c r="T29" s="5" t="inlineStr">
         <is>
-          <t>GAB202406026</t>
-        </is>
-      </c>
-      <c r="U29" s="5" t="inlineStr">
-        <is>
-          <t>3/27/2024</t>
-        </is>
-      </c>
-      <c r="V29" s="7" t="n">
-        <v>45386</v>
+          <t>2024-001</t>
+        </is>
+      </c>
+      <c r="U29" s="7" t="n">
+        <v>45415</v>
+      </c>
+      <c r="V29" s="5" t="inlineStr">
+        <is>
+          <t>3/14/2024</t>
+        </is>
       </c>
       <c r="W29" s="5" t="inlineStr">
         <is>
-          <t>4/16/2024</t>
-        </is>
-      </c>
-      <c r="X29" s="5" t="inlineStr">
-        <is>
-          <t>5/15/2024</t>
-        </is>
-      </c>
-      <c r="Y29" s="5" t="inlineStr">
-        <is>
-          <t>6/24/2024</t>
-        </is>
+          <t>3/26/2024</t>
+        </is>
+      </c>
+      <c r="X29" s="7" t="n">
+        <v>45355</v>
+      </c>
+      <c r="Y29" s="7" t="n">
+        <v>45510</v>
       </c>
       <c r="Z29" s="5" t="inlineStr">
         <is>
-          <t>TrinityCAD Corporation</t>
-        </is>
-      </c>
-      <c r="AA29" s="5" t="inlineStr">
-        <is>
-          <t>with time extension due to erratic weather conditions, processing of cutting permit, and scarcity of wood supply</t>
-        </is>
-      </c>
+          <t>Anielthone Construction &amp; Supply</t>
+        </is>
+      </c>
+      <c r="AA29" s="5" t="inlineStr"/>
       <c r="AB29" s="6" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>Siquijor</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>501429</v>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>Maria Integrated School</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>MARIA</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lone </t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>5057563.48</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>4996657.17</v>
-      </c>
-      <c r="O30" s="5" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
-      <c r="P30" s="5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q30" s="5" t="inlineStr">
-        <is>
-          <t>Jan. 26, 2025</t>
-        </is>
-      </c>
-      <c r="R30" s="5" t="inlineStr"/>
-      <c r="S30" s="5" t="n">
-        <v>10743443</v>
-      </c>
-      <c r="T30" s="5" t="inlineStr">
-        <is>
-          <t>2024-025</t>
-        </is>
-      </c>
-      <c r="U30" s="7" t="n">
-        <v>45600</v>
-      </c>
-      <c r="V30" s="5" t="inlineStr">
-        <is>
-          <t>4/18/2024</t>
-        </is>
-      </c>
-      <c r="W30" s="5" t="inlineStr">
-        <is>
-          <t>4/30/2024</t>
-        </is>
-      </c>
-      <c r="X30" s="7" t="n">
-        <v>45417</v>
-      </c>
-      <c r="Y30" s="7" t="n">
-        <v>45298</v>
-      </c>
-      <c r="Z30" s="5" t="inlineStr">
-        <is>
-          <t>Nale Construction</t>
-        </is>
-      </c>
-      <c r="AA30" s="5" t="inlineStr">
-        <is>
-          <t>with Time Extention. Revised Target Completion March 17, 2025</t>
-        </is>
-      </c>
-      <c r="AB30" s="6" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>Tagbilaran City</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>302846</v>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>Dr. Cecilio Putong NHS (Bohol NHS)</t>
-        </is>
-      </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>TAGBILARAN CITY (Capital)</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1st </t>
-        </is>
-      </c>
-      <c r="H31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>24222461.26</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>24202271.24</v>
-      </c>
-      <c r="O31" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="P31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="5" t="inlineStr">
-        <is>
-          <t>3/25/2025</t>
-        </is>
-      </c>
-      <c r="R31" s="5" t="inlineStr">
-        <is>
-          <t>1/30/2025</t>
-        </is>
-      </c>
-      <c r="S31" s="5" t="inlineStr">
-        <is>
-          <t>2024-001-Infra</t>
-        </is>
-      </c>
-      <c r="T31" s="5" t="inlineStr">
-        <is>
-          <t>2024-001-Infra</t>
-        </is>
-      </c>
-      <c r="U31" s="7" t="n">
-        <v>45599</v>
-      </c>
-      <c r="V31" s="5" t="inlineStr">
-        <is>
-          <t>3/21/2024</t>
-        </is>
-      </c>
-      <c r="W31" s="7" t="n">
-        <v>45416</v>
-      </c>
-      <c r="X31" s="7" t="n">
-        <v>45569</v>
-      </c>
-      <c r="Y31" s="5" t="inlineStr">
-        <is>
-          <t>6/21/2024</t>
-        </is>
-      </c>
-      <c r="Z31" s="5" t="inlineStr">
-        <is>
-          <t>CJANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
-        </is>
-      </c>
-      <c r="AA31" s="5" t="inlineStr"/>
-      <c r="AB31" s="6" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>Toledo City</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>120757</v>
-      </c>
-      <c r="E32" s="5" t="inlineStr">
-        <is>
-          <t>South City Central School</t>
-        </is>
-      </c>
-      <c r="F32" s="5" t="inlineStr">
-        <is>
-          <t>TOLEDO CITY</t>
-        </is>
-      </c>
-      <c r="G32" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3rd </t>
-        </is>
-      </c>
-      <c r="H32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>8822869.51</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>7032361.23</v>
-      </c>
-      <c r="O32" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="P32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="5" t="inlineStr">
-        <is>
-          <t>11/18/2024</t>
-        </is>
-      </c>
-      <c r="R32" s="5" t="inlineStr">
-        <is>
-          <t>10/31/2024</t>
-        </is>
-      </c>
-      <c r="S32" s="5" t="inlineStr">
-        <is>
-          <t>GAB 2022-R VII-TOLEDO-001</t>
-        </is>
-      </c>
-      <c r="T32" s="5" t="inlineStr">
-        <is>
-          <t>2024-001</t>
-        </is>
-      </c>
-      <c r="U32" s="7" t="n">
-        <v>45415</v>
-      </c>
-      <c r="V32" s="5" t="inlineStr">
-        <is>
-          <t>3/14/2024</t>
-        </is>
-      </c>
-      <c r="W32" s="5" t="inlineStr">
-        <is>
-          <t>3/26/2024</t>
-        </is>
-      </c>
-      <c r="X32" s="7" t="n">
-        <v>45355</v>
-      </c>
-      <c r="Y32" s="7" t="n">
-        <v>45510</v>
-      </c>
-      <c r="Z32" s="5" t="inlineStr">
-        <is>
-          <t>Anielthone Construction &amp; Supply</t>
-        </is>
-      </c>
-      <c r="AA32" s="5" t="inlineStr"/>
-      <c r="AB32" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AB2:AB32" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB29" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VII/Region VII_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_GABALDON.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -470,7 +470,7 @@
     <col width="17" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
     <col width="26" customWidth="1" min="17" max="17"/>
-    <col width="43" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
     <col width="41" customWidth="1" min="19" max="19"/>
     <col width="41" customWidth="1" min="20" max="20"/>
     <col width="31" customWidth="1" min="21" max="21"/>
@@ -2179,7 +2179,7 @@
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2021</t>
+          <t>GABALDON 2022</t>
         </is>
       </c>
       <c r="B17" s="5" t="inlineStr">
@@ -2189,20 +2189,20 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>Dumaguete City</t>
+          <t>Bohol</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>119935</v>
+        <v>118223</v>
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
-          <t>Camanjac Elementary School</t>
+          <t>Dagohoy Central Elementary</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>DUMAGUETE CITY (Capital)</t>
+          <t>DAGOHOY</t>
         </is>
       </c>
       <c r="G17" s="5" t="n">
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -2223,75 +2223,47 @@
         </is>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4102769</v>
+        <v>952221.1</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N17" s="5" t="n">
-        <v>4061000</v>
-      </c>
+      <c r="N17" s="5" t="inlineStr"/>
       <c r="O17" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Reverted</t>
         </is>
       </c>
       <c r="P17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="7" t="n">
-        <v>44544</v>
-      </c>
-      <c r="R17" s="5" t="inlineStr">
-        <is>
-          <t>c/o Maam Daday Guillen/Region-Implemented</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="R17" s="5" t="inlineStr"/>
       <c r="S17" s="5" t="inlineStr">
         <is>
-          <t>7595364-Lot 1</t>
+          <t>6944754-Lot 2</t>
         </is>
       </c>
       <c r="T17" s="5" t="n">
-        <v>44317</v>
-      </c>
-      <c r="U17" s="5" t="inlineStr">
-        <is>
-          <t>April 29, 2021</t>
-        </is>
-      </c>
-      <c r="V17" s="5" t="inlineStr">
-        <is>
-          <t>April 15, 2021</t>
-        </is>
-      </c>
-      <c r="W17" s="5" t="inlineStr">
-        <is>
-          <t>May 7, 2021</t>
-        </is>
-      </c>
-      <c r="X17" s="5" t="inlineStr">
-        <is>
-          <t>May 27, 2021</t>
-        </is>
-      </c>
-      <c r="Y17" s="5" t="inlineStr">
-        <is>
-          <t>June 10, 2021</t>
-        </is>
-      </c>
-      <c r="Z17" s="5" t="inlineStr">
-        <is>
-          <t>RISM BUILDERS AND CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="AA17" s="5" t="inlineStr"/>
+        <v>44321</v>
+      </c>
+      <c r="U17" s="5" t="inlineStr"/>
+      <c r="V17" s="5" t="inlineStr"/>
+      <c r="W17" s="5" t="inlineStr"/>
+      <c r="X17" s="5" t="inlineStr"/>
+      <c r="Y17" s="5" t="inlineStr"/>
+      <c r="Z17" s="5" t="inlineStr"/>
+      <c r="AA17" s="5" t="inlineStr">
+        <is>
+          <t>REVERTED SINCE FUNDED IN THE QRF BATCH 2</t>
+        </is>
+      </c>
       <c r="AB17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2022</t>
+          <t>GABALDON 2023</t>
         </is>
       </c>
       <c r="B18" s="5" t="inlineStr">
@@ -2305,37 +2277,37 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>118223</v>
+        <v>118672</v>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>Dagohoy Central Elementary</t>
+          <t>SEVILLA CENTRAL ELEMENTARY SCHOOL</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
-          <t>DAGOHOY</t>
+          <t>SEVILLA</t>
         </is>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="5" t="inlineStr">
         <is>
-          <t>Rehabilitation of Gabaldon Building</t>
+          <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
       <c r="L18" s="5" t="n">
-        <v>952221.1</v>
+        <v>7036885.43</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>1</v>
@@ -2343,33 +2315,23 @@
       <c r="N18" s="5" t="inlineStr"/>
       <c r="O18" s="5" t="inlineStr">
         <is>
-          <t>Reverted</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="P18" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="5" t="inlineStr"/>
       <c r="R18" s="5" t="inlineStr"/>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>6944754-Lot 2</t>
-        </is>
-      </c>
-      <c r="T18" s="5" t="n">
-        <v>44321</v>
-      </c>
+      <c r="S18" s="5" t="inlineStr"/>
+      <c r="T18" s="5" t="inlineStr"/>
       <c r="U18" s="5" t="inlineStr"/>
       <c r="V18" s="5" t="inlineStr"/>
       <c r="W18" s="5" t="inlineStr"/>
       <c r="X18" s="5" t="inlineStr"/>
       <c r="Y18" s="5" t="inlineStr"/>
       <c r="Z18" s="5" t="inlineStr"/>
-      <c r="AA18" s="5" t="inlineStr">
-        <is>
-          <t>REVERTED SINCE FUNDED IN THE QRF BATCH 2</t>
-        </is>
-      </c>
+      <c r="AA18" s="5" t="inlineStr"/>
       <c r="AB18" s="6" t="n"/>
     </row>
     <row r="19">
@@ -2385,30 +2347,30 @@
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
-          <t>Bohol</t>
+          <t>Cebu</t>
         </is>
       </c>
       <c r="D19" s="5" t="n">
-        <v>118672</v>
+        <v>119613</v>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>SEVILLA CENTRAL ELEMENTARY SCHOOL</t>
+          <t>Samboan Central ES</t>
         </is>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>SEVILLA</t>
+          <t>SAMBOAN</t>
         </is>
       </c>
       <c r="G19" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -2419,12 +2381,14 @@
         </is>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7036885.43</v>
+        <v>15492410.45</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="N19" s="5" t="n">
+        <v>15431357.88</v>
+      </c>
       <c r="O19" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2433,17 +2397,51 @@
       <c r="P19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" s="5" t="inlineStr"/>
-      <c r="R19" s="5" t="inlineStr"/>
-      <c r="S19" s="5" t="inlineStr"/>
-      <c r="T19" s="5" t="inlineStr"/>
-      <c r="U19" s="5" t="inlineStr"/>
-      <c r="V19" s="5" t="inlineStr"/>
-      <c r="W19" s="5" t="inlineStr"/>
-      <c r="X19" s="5" t="inlineStr"/>
-      <c r="Y19" s="5" t="inlineStr"/>
-      <c r="Z19" s="5" t="inlineStr"/>
-      <c r="AA19" s="5" t="inlineStr"/>
+      <c r="Q19" s="7" t="n">
+        <v>45567</v>
+      </c>
+      <c r="R19" s="7" t="n">
+        <v>45359</v>
+      </c>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>cy 2023 gabaldon-deped-region 7-cebu</t>
+        </is>
+      </c>
+      <c r="T19" s="5" t="inlineStr">
+        <is>
+          <t>cy 2023 gabaldon-deped-region 7-cebu-02</t>
+        </is>
+      </c>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>11/29/2023</t>
+        </is>
+      </c>
+      <c r="V19" s="7" t="n">
+        <v>45089</v>
+      </c>
+      <c r="W19" s="5" t="inlineStr">
+        <is>
+          <t>12/18/2023</t>
+        </is>
+      </c>
+      <c r="X19" s="7" t="n">
+        <v>45296</v>
+      </c>
+      <c r="Y19" s="7" t="n">
+        <v>45317</v>
+      </c>
+      <c r="Z19" s="5" t="inlineStr">
+        <is>
+          <t>Anielthon construction and supply</t>
+        </is>
+      </c>
+      <c r="AA19" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="AB19" s="6" t="n"/>
     </row>
     <row r="20">
@@ -2463,26 +2461,26 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>119613</v>
+        <v>119549</v>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>Samboan Central ES</t>
+          <t>Pilar Central School</t>
         </is>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>SAMBOAN</t>
+          <t>PILAR</t>
         </is>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -2493,13 +2491,13 @@
         </is>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15492410.45</v>
+        <v>9189509.48</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>15431357.88</v>
+        <v>9133229.310000001</v>
       </c>
       <c r="O20" s="5" t="inlineStr">
         <is>
@@ -2510,10 +2508,10 @@
         <v>1</v>
       </c>
       <c r="Q20" s="7" t="n">
-        <v>45567</v>
+        <v>45507</v>
       </c>
       <c r="R20" s="7" t="n">
-        <v>45359</v>
+        <v>45507</v>
       </c>
       <c r="S20" s="5" t="inlineStr">
         <is>
@@ -2522,7 +2520,7 @@
       </c>
       <c r="T20" s="5" t="inlineStr">
         <is>
-          <t>cy 2023 gabaldon-deped-region 7-cebu-02</t>
+          <t>cy 2023 gabaldon-deped-region 7-cebu-01</t>
         </is>
       </c>
       <c r="U20" s="5" t="inlineStr">
@@ -2546,7 +2544,7 @@
       </c>
       <c r="Z20" s="5" t="inlineStr">
         <is>
-          <t>Anielthon construction and supply</t>
+          <t>Barr steel construction</t>
         </is>
       </c>
       <c r="AA20" s="5" t="inlineStr">
@@ -2559,7 +2557,7 @@
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>GABALDON 2023</t>
+          <t>GABALDON 2024</t>
         </is>
       </c>
       <c r="B21" s="5" t="inlineStr">
@@ -2573,95 +2571,68 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>119549</v>
+        <v>119566</v>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Pilar Central School</t>
+          <t>Pinamungajan Central School</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>PILAR</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>5</v>
+          <t>PINAMUNGAHAN</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
       </c>
       <c r="H21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K21" s="5" t="inlineStr">
         <is>
-          <t>Restoration &amp; Conservation of Gabaldon Building</t>
+          <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9189509.48</v>
+        <v>485257.42</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N21" s="5" t="n">
-        <v>9133229.310000001</v>
-      </c>
+      <c r="N21" s="5" t="inlineStr"/>
       <c r="O21" s="5" t="inlineStr">
         <is>
-          <t>COMPLETED</t>
+          <t>Not Yet Started</t>
         </is>
       </c>
       <c r="P21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="7" t="n">
-        <v>45507</v>
-      </c>
-      <c r="R21" s="7" t="n">
-        <v>45507</v>
-      </c>
-      <c r="S21" s="5" t="inlineStr">
-        <is>
-          <t>cy 2023 gabaldon-deped-region 7-cebu</t>
-        </is>
-      </c>
-      <c r="T21" s="5" t="inlineStr">
-        <is>
-          <t>cy 2023 gabaldon-deped-region 7-cebu-01</t>
-        </is>
-      </c>
-      <c r="U21" s="5" t="inlineStr">
-        <is>
-          <t>11/29/2023</t>
-        </is>
-      </c>
-      <c r="V21" s="7" t="n">
-        <v>45089</v>
-      </c>
-      <c r="W21" s="5" t="inlineStr">
-        <is>
-          <t>12/18/2023</t>
-        </is>
-      </c>
-      <c r="X21" s="7" t="n">
-        <v>45296</v>
-      </c>
-      <c r="Y21" s="7" t="n">
-        <v>45317</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="R21" s="5" t="inlineStr"/>
+      <c r="S21" s="5" t="inlineStr"/>
+      <c r="T21" s="5" t="inlineStr"/>
+      <c r="U21" s="5" t="inlineStr"/>
+      <c r="V21" s="5" t="inlineStr"/>
+      <c r="W21" s="5" t="inlineStr"/>
+      <c r="X21" s="5" t="inlineStr"/>
+      <c r="Y21" s="5" t="inlineStr"/>
       <c r="Z21" s="5" t="inlineStr">
         <is>
-          <t>Barr steel construction</t>
+          <t>MP Sorela Construction</t>
         </is>
       </c>
       <c r="AA21" s="5" t="inlineStr">
         <is>
-          <t> </t>
+          <t>RO is waiting for the release of SARO as payment of the V.O. to MP Sorela Construction     
+declined by DO. Variation order implemented by RO. Several Letters sent by RO to CO requesting for the release of the fund. The project was already 100% completed.</t>
         </is>
       </c>
       <c r="AB21" s="6" t="n"/>
@@ -2683,27 +2654,29 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>119566</v>
+        <v>119248</v>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>Pinamungajan Central School</t>
+          <t>Tayud ES</t>
         </is>
       </c>
       <c r="F22" s="5" t="inlineStr">
         <is>
-          <t>PINAMUNGAHAN</t>
+          <t>CONSOLACION</t>
         </is>
       </c>
       <c r="G22" s="5" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t xml:space="preserve">6th </t>
         </is>
       </c>
       <c r="H22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="5" t="inlineStr"/>
+      <c r="I22" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
       </c>
@@ -2713,40 +2686,59 @@
         </is>
       </c>
       <c r="L22" s="5" t="n">
-        <v>485257.42</v>
+        <v>3731085.93</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="N22" s="5" t="n">
+        <v>3710147.91</v>
+      </c>
       <c r="O22" s="5" t="inlineStr">
         <is>
-          <t>Not Yet Started</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="P22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="5" t="inlineStr"/>
-      <c r="R22" s="5" t="inlineStr"/>
-      <c r="S22" s="5" t="inlineStr"/>
-      <c r="T22" s="5" t="inlineStr"/>
-      <c r="U22" s="5" t="inlineStr"/>
-      <c r="V22" s="5" t="inlineStr"/>
-      <c r="W22" s="5" t="inlineStr"/>
-      <c r="X22" s="5" t="inlineStr"/>
-      <c r="Y22" s="5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="7" t="n">
+        <v>45701</v>
+      </c>
+      <c r="R22" s="7" t="n">
+        <v>45700</v>
+      </c>
+      <c r="S22" s="5" t="inlineStr">
+        <is>
+          <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
+        </is>
+      </c>
+      <c r="T22" s="5" t="inlineStr">
+        <is>
+          <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
+        </is>
+      </c>
+      <c r="U22" s="7" t="n">
+        <v>45454</v>
+      </c>
+      <c r="V22" s="7" t="n">
+        <v>45461</v>
+      </c>
+      <c r="W22" s="7" t="n">
+        <v>45474</v>
+      </c>
+      <c r="X22" s="7" t="n">
+        <v>45495</v>
+      </c>
+      <c r="Y22" s="7" t="n">
+        <v>45548</v>
+      </c>
       <c r="Z22" s="5" t="inlineStr">
         <is>
-          <t>MP Sorela Construction</t>
-        </is>
-      </c>
-      <c r="AA22" s="5" t="inlineStr">
-        <is>
-          <t>RO is waiting for the release of SARO as payment of the V.O. to MP Sorela Construction     
-declined by DO. Variation order implemented by RO. Several Letters sent by RO to CO requesting for the release of the fund. The project was already 100% completed.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">JAJ&amp;L CONSTRUCTION AND ENGINEERING SERVICES </t>
+        </is>
+      </c>
+      <c r="AA22" s="5" t="inlineStr"/>
       <c r="AB22" s="6" t="n"/>
     </row>
     <row r="23">
@@ -2762,32 +2754,32 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>Cebu</t>
+          <t>Cebu City</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>119248</v>
+        <v>119874</v>
       </c>
       <c r="E23" s="5" t="inlineStr">
         <is>
-          <t>Tayud ES</t>
+          <t>City Central ES</t>
         </is>
       </c>
       <c r="F23" s="5" t="inlineStr">
         <is>
-          <t>CONSOLACION</t>
+          <t>CEBU CITY (Capital)</t>
         </is>
       </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">6th </t>
+          <t xml:space="preserve">1st </t>
         </is>
       </c>
       <c r="H23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2798,59 +2790,76 @@
         </is>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3731085.93</v>
+        <v>8310520</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>3710147.91</v>
+        <v>6093285.05</v>
       </c>
       <c r="O23" s="5" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="P23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q23" s="7" t="n">
-        <v>45701</v>
-      </c>
-      <c r="R23" s="7" t="n">
-        <v>45700</v>
+      <c r="Q23" s="5" t="inlineStr">
+        <is>
+          <t>1/27/2025</t>
+        </is>
+      </c>
+      <c r="R23" s="5" t="inlineStr">
+        <is>
+          <t>3/13/2025</t>
+        </is>
       </c>
       <c r="S23" s="5" t="inlineStr">
         <is>
-          <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
+          <t>Gabaldon 2024 - R VII - Cebu City - 002</t>
         </is>
       </c>
       <c r="T23" s="5" t="inlineStr">
         <is>
-          <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
+          <t>DepED CCD - Contract # 2024 - 11</t>
         </is>
       </c>
       <c r="U23" s="7" t="n">
-        <v>45454</v>
-      </c>
-      <c r="V23" s="7" t="n">
-        <v>45461</v>
-      </c>
-      <c r="W23" s="7" t="n">
-        <v>45474</v>
-      </c>
-      <c r="X23" s="7" t="n">
-        <v>45495</v>
-      </c>
-      <c r="Y23" s="7" t="n">
-        <v>45548</v>
+        <v>45449</v>
+      </c>
+      <c r="V23" s="5" t="inlineStr">
+        <is>
+          <t>6/14/2024</t>
+        </is>
+      </c>
+      <c r="W23" s="5" t="inlineStr">
+        <is>
+          <t>6/26/2024</t>
+        </is>
+      </c>
+      <c r="X23" s="5" t="inlineStr">
+        <is>
+          <t>7/24/2024</t>
+        </is>
+      </c>
+      <c r="Y23" s="5" t="inlineStr">
+        <is>
+          <t>9/23/2024</t>
+        </is>
       </c>
       <c r="Z23" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAJ&amp;L CONSTRUCTION AND ENGINEERING SERVICES </t>
-        </is>
-      </c>
-      <c r="AA23" s="5" t="inlineStr"/>
+          <t>JAJ &amp; L CONSTRUCTION AND ENGINEERING SERVICES</t>
+        </is>
+      </c>
+      <c r="AA23" s="5" t="inlineStr">
+        <is>
+          <t>Completed
+with (45 days extension)</t>
+        </is>
+      </c>
       <c r="AB23" s="6" t="n"/>
     </row>
     <row r="24">
@@ -2866,33 +2875,31 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>Cebu City</t>
+          <t>Danao City</t>
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>119874</v>
+        <v>119357</v>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>City Central ES</t>
+          <t>Severo Duterte Memo. ES</t>
         </is>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>CEBU CITY (Capital)</t>
+          <t>DANAO CITY</t>
         </is>
       </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1st </t>
+          <t>5th</t>
         </is>
       </c>
       <c r="H24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="5" t="n">
-        <v>20</v>
-      </c>
+      <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
         <v>1</v>
       </c>
@@ -2902,74 +2909,68 @@
         </is>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8310520</v>
+        <v>424730.16</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N24" s="5" t="n">
-        <v>6093285.05</v>
-      </c>
+      <c r="N24" s="5" t="inlineStr"/>
       <c r="O24" s="5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Not Yet Started</t>
         </is>
       </c>
       <c r="P24" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="5" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
-        </is>
-      </c>
-      <c r="R24" s="5" t="inlineStr">
-        <is>
-          <t>3/13/2025</t>
-        </is>
-      </c>
+          <t>11/18/2021</t>
+        </is>
+      </c>
+      <c r="R24" s="5" t="inlineStr"/>
       <c r="S24" s="5" t="inlineStr">
         <is>
-          <t>Gabaldon 2024 - R VII - Cebu City - 002</t>
-        </is>
-      </c>
-      <c r="T24" s="5" t="inlineStr">
-        <is>
-          <t>DepED CCD - Contract # 2024 - 11</t>
-        </is>
-      </c>
-      <c r="U24" s="7" t="n">
-        <v>45449</v>
+          <t>6944754-Lot 8</t>
+        </is>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>44331</v>
+      </c>
+      <c r="U24" s="5" t="inlineStr">
+        <is>
+          <t>April 29, 2021</t>
+        </is>
       </c>
       <c r="V24" s="5" t="inlineStr">
         <is>
-          <t>6/14/2024</t>
+          <t>April 15, 2021</t>
         </is>
       </c>
       <c r="W24" s="5" t="inlineStr">
         <is>
-          <t>6/26/2024</t>
+          <t>May 11, 2021</t>
         </is>
       </c>
       <c r="X24" s="5" t="inlineStr">
         <is>
-          <t>7/24/2024</t>
+          <t>May 27, 2021</t>
         </is>
       </c>
       <c r="Y24" s="5" t="inlineStr">
         <is>
-          <t>9/23/2024</t>
+          <t>June 14, 2021</t>
         </is>
       </c>
       <c r="Z24" s="5" t="inlineStr">
         <is>
-          <t>JAJ &amp; L CONSTRUCTION AND ENGINEERING SERVICES</t>
+          <t>PB OBIAL CONSTRUCTION</t>
         </is>
       </c>
       <c r="AA24" s="5" t="inlineStr">
         <is>
-          <t>Completed
-with (45 days extension)</t>
+          <t>Declined to Procure
+ (with letter submitted thru Regional Director, dated May 31, 2024). RO is also waiting for a response from CO on the downloading of funds for V.O. The project was satisfactorily done by the Contractor. Follow-up letter sent to Usec. Cabral dated Dec. 8, 2024</t>
         </is>
       </c>
       <c r="AB24" s="6" t="n"/>
@@ -2987,31 +2988,33 @@
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>Danao City</t>
+          <t>Mandaue City</t>
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>119357</v>
+        <v>119998</v>
       </c>
       <c r="E25" s="5" t="inlineStr">
         <is>
-          <t>Severo Duterte Memo. ES</t>
+          <t>Basak ES</t>
         </is>
       </c>
       <c r="F25" s="5" t="inlineStr">
         <is>
-          <t>DANAO CITY</t>
+          <t>MANDAUE CITY</t>
         </is>
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t xml:space="preserve">6th </t>
         </is>
       </c>
       <c r="H25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="5" t="inlineStr"/>
+      <c r="I25" s="5" t="n">
+        <v>4</v>
+      </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
       </c>
@@ -3021,70 +3024,65 @@
         </is>
       </c>
       <c r="L25" s="5" t="n">
-        <v>424730.16</v>
+        <v>6033004.04</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N25" s="5" t="inlineStr"/>
+      <c r="N25" s="5" t="n">
+        <v>5993579.01</v>
+      </c>
       <c r="O25" s="5" t="inlineStr">
         <is>
-          <t>Not Yet Started</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="P25" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="5" t="inlineStr">
         <is>
-          <t>11/18/2021</t>
-        </is>
-      </c>
-      <c r="R25" s="5" t="inlineStr"/>
+          <t>9/20/2024</t>
+        </is>
+      </c>
+      <c r="R25" s="5" t="inlineStr">
+        <is>
+          <t>9/20/2024</t>
+        </is>
+      </c>
       <c r="S25" s="5" t="inlineStr">
         <is>
-          <t>6944754-Lot 8</t>
+          <t>2024GAB01</t>
         </is>
       </c>
       <c r="T25" s="5" t="n">
-        <v>44331</v>
-      </c>
-      <c r="U25" s="5" t="inlineStr">
-        <is>
-          <t>April 29, 2021</t>
-        </is>
+        <v>45323</v>
+      </c>
+      <c r="U25" s="7" t="n">
+        <v>45630</v>
       </c>
       <c r="V25" s="5" t="inlineStr">
         <is>
-          <t>April 15, 2021</t>
-        </is>
-      </c>
-      <c r="W25" s="5" t="inlineStr">
-        <is>
-          <t>May 11, 2021</t>
-        </is>
-      </c>
-      <c r="X25" s="5" t="inlineStr">
-        <is>
-          <t>May 27, 2021</t>
-        </is>
+          <t>4/20/2024</t>
+        </is>
+      </c>
+      <c r="W25" s="7" t="n">
+        <v>45327</v>
+      </c>
+      <c r="X25" s="7" t="n">
+        <v>45478</v>
       </c>
       <c r="Y25" s="5" t="inlineStr">
         <is>
-          <t>June 14, 2021</t>
+          <t>6/24/2024</t>
         </is>
       </c>
       <c r="Z25" s="5" t="inlineStr">
         <is>
-          <t>PB OBIAL CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="AA25" s="5" t="inlineStr">
-        <is>
-          <t>Declined to Procure
- (with letter submitted thru Regional Director, dated May 31, 2024). RO is also waiting for a response from CO on the downloading of funds for V.O. The project was satisfactorily done by the Contractor. Follow-up letter sent to Usec. Cabral dated Dec. 8, 2024</t>
-        </is>
-      </c>
+          <t>Golden Hammer Construction and Supply</t>
+        </is>
+      </c>
+      <c r="AA25" s="5" t="inlineStr"/>
       <c r="AB25" s="6" t="n"/>
     </row>
     <row r="26">
@@ -3100,32 +3098,32 @@
       </c>
       <c r="C26" s="5" t="inlineStr">
         <is>
-          <t>Dumaguete City</t>
+          <t>Tagbilaran City</t>
         </is>
       </c>
       <c r="D26" s="5" t="n">
-        <v>119938</v>
+        <v>302846</v>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>North City ES</t>
+          <t>Dr. Cecilio Putong NHS (Bohol NHS)</t>
         </is>
       </c>
       <c r="F26" s="5" t="inlineStr">
         <is>
-          <t>DUMAGUETE CITY (Capital)</t>
+          <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2nd </t>
+          <t xml:space="preserve">1st </t>
         </is>
       </c>
       <c r="H26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -3136,67 +3134,67 @@
         </is>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10057346.25</v>
+        <v>24222461.26</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>6973017</v>
+        <v>24202271.24</v>
       </c>
       <c r="O26" s="5" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="P26" s="5" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Q26" s="7" t="n">
-        <v>45691</v>
-      </c>
-      <c r="R26" s="5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="5" t="inlineStr">
+        <is>
+          <t>3/25/2025</t>
+        </is>
+      </c>
+      <c r="R26" s="5" t="inlineStr">
+        <is>
+          <t>1/30/2025</t>
+        </is>
+      </c>
       <c r="S26" s="5" t="inlineStr">
         <is>
-          <t>2024-003</t>
+          <t>2024-001-Infra</t>
         </is>
       </c>
       <c r="T26" s="5" t="inlineStr">
         <is>
-          <t>2024-003</t>
-        </is>
-      </c>
-      <c r="U26" s="5" t="inlineStr">
-        <is>
-          <t>6/20/2024</t>
-        </is>
-      </c>
-      <c r="V26" s="7" t="n">
-        <v>45298</v>
-      </c>
-      <c r="W26" s="5" t="inlineStr">
-        <is>
-          <t>7/16/2024</t>
-        </is>
+          <t>2024-001-Infra</t>
+        </is>
+      </c>
+      <c r="U26" s="7" t="n">
+        <v>45599</v>
+      </c>
+      <c r="V26" s="5" t="inlineStr">
+        <is>
+          <t>3/21/2024</t>
+        </is>
+      </c>
+      <c r="W26" s="7" t="n">
+        <v>45416</v>
       </c>
       <c r="X26" s="7" t="n">
-        <v>45330</v>
+        <v>45569</v>
       </c>
       <c r="Y26" s="5" t="inlineStr">
         <is>
-          <t>9/27/2024</t>
+          <t>6/21/2024</t>
         </is>
       </c>
       <c r="Z26" s="5" t="inlineStr">
         <is>
-          <t>Four SG Enterprises</t>
-        </is>
-      </c>
-      <c r="AA26" s="5" t="inlineStr">
-        <is>
-          <t>On - Going</t>
-        </is>
-      </c>
+          <t>CJANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
+        </is>
+      </c>
+      <c r="AA26" s="5" t="inlineStr"/>
       <c r="AB26" s="6" t="n"/>
     </row>
     <row r="27">
@@ -3212,32 +3210,32 @@
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>Mandaue City</t>
+          <t>Toledo City</t>
         </is>
       </c>
       <c r="D27" s="5" t="n">
-        <v>119998</v>
+        <v>120757</v>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>Basak ES</t>
+          <t>South City Central School</t>
         </is>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>MANDAUE CITY</t>
+          <t>TOLEDO CITY</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">6th </t>
+          <t xml:space="preserve">3rd </t>
         </is>
       </c>
       <c r="H27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -3248,13 +3246,13 @@
         </is>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6033004.04</v>
+        <v>8822869.51</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>5993579.01</v>
+        <v>7032361.23</v>
       </c>
       <c r="O27" s="5" t="inlineStr">
         <is>
@@ -3266,276 +3264,54 @@
       </c>
       <c r="Q27" s="5" t="inlineStr">
         <is>
-          <t>9/20/2024</t>
+          <t>11/18/2024</t>
         </is>
       </c>
       <c r="R27" s="5" t="inlineStr">
         <is>
-          <t>9/20/2024</t>
+          <t>10/31/2024</t>
         </is>
       </c>
       <c r="S27" s="5" t="inlineStr">
         <is>
-          <t>2024GAB01</t>
-        </is>
-      </c>
-      <c r="T27" s="5" t="n">
-        <v>45323</v>
+          <t>GAB 2022-R VII-TOLEDO-001</t>
+        </is>
+      </c>
+      <c r="T27" s="5" t="inlineStr">
+        <is>
+          <t>2024-001</t>
+        </is>
       </c>
       <c r="U27" s="7" t="n">
-        <v>45630</v>
+        <v>45415</v>
       </c>
       <c r="V27" s="5" t="inlineStr">
         <is>
-          <t>4/20/2024</t>
-        </is>
-      </c>
-      <c r="W27" s="7" t="n">
-        <v>45327</v>
+          <t>3/14/2024</t>
+        </is>
+      </c>
+      <c r="W27" s="5" t="inlineStr">
+        <is>
+          <t>3/26/2024</t>
+        </is>
       </c>
       <c r="X27" s="7" t="n">
-        <v>45478</v>
-      </c>
-      <c r="Y27" s="5" t="inlineStr">
-        <is>
-          <t>6/24/2024</t>
-        </is>
+        <v>45355</v>
+      </c>
+      <c r="Y27" s="7" t="n">
+        <v>45510</v>
       </c>
       <c r="Z27" s="5" t="inlineStr">
         <is>
-          <t>Golden Hammer Construction and Supply</t>
+          <t>Anielthone Construction &amp; Supply</t>
         </is>
       </c>
       <c r="AA27" s="5" t="inlineStr"/>
       <c r="AB27" s="6" t="n"/>
     </row>
-    <row r="28">
-      <c r="A28" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>Tagbilaran City</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>302846</v>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>Dr. Cecilio Putong NHS (Bohol NHS)</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>TAGBILARAN CITY (Capital)</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1st </t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>24222461.26</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>24202271.24</v>
-      </c>
-      <c r="O28" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="P28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="5" t="inlineStr">
-        <is>
-          <t>3/25/2025</t>
-        </is>
-      </c>
-      <c r="R28" s="5" t="inlineStr">
-        <is>
-          <t>1/30/2025</t>
-        </is>
-      </c>
-      <c r="S28" s="5" t="inlineStr">
-        <is>
-          <t>2024-001-Infra</t>
-        </is>
-      </c>
-      <c r="T28" s="5" t="inlineStr">
-        <is>
-          <t>2024-001-Infra</t>
-        </is>
-      </c>
-      <c r="U28" s="7" t="n">
-        <v>45599</v>
-      </c>
-      <c r="V28" s="5" t="inlineStr">
-        <is>
-          <t>3/21/2024</t>
-        </is>
-      </c>
-      <c r="W28" s="7" t="n">
-        <v>45416</v>
-      </c>
-      <c r="X28" s="7" t="n">
-        <v>45569</v>
-      </c>
-      <c r="Y28" s="5" t="inlineStr">
-        <is>
-          <t>6/21/2024</t>
-        </is>
-      </c>
-      <c r="Z28" s="5" t="inlineStr">
-        <is>
-          <t>CJANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
-        </is>
-      </c>
-      <c r="AA28" s="5" t="inlineStr"/>
-      <c r="AB28" s="6" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>GABALDON 2024</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>Region VII</t>
-        </is>
-      </c>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>Toledo City</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>120757</v>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>South City Central School</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>TOLEDO CITY</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3rd </t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>Conservation and Restoration of Gabaldon School Building</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>8822869.51</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>7032361.23</v>
-      </c>
-      <c r="O29" s="5" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="P29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="5" t="inlineStr">
-        <is>
-          <t>11/18/2024</t>
-        </is>
-      </c>
-      <c r="R29" s="5" t="inlineStr">
-        <is>
-          <t>10/31/2024</t>
-        </is>
-      </c>
-      <c r="S29" s="5" t="inlineStr">
-        <is>
-          <t>GAB 2022-R VII-TOLEDO-001</t>
-        </is>
-      </c>
-      <c r="T29" s="5" t="inlineStr">
-        <is>
-          <t>2024-001</t>
-        </is>
-      </c>
-      <c r="U29" s="7" t="n">
-        <v>45415</v>
-      </c>
-      <c r="V29" s="5" t="inlineStr">
-        <is>
-          <t>3/14/2024</t>
-        </is>
-      </c>
-      <c r="W29" s="5" t="inlineStr">
-        <is>
-          <t>3/26/2024</t>
-        </is>
-      </c>
-      <c r="X29" s="7" t="n">
-        <v>45355</v>
-      </c>
-      <c r="Y29" s="7" t="n">
-        <v>45510</v>
-      </c>
-      <c r="Z29" s="5" t="inlineStr">
-        <is>
-          <t>Anielthone Construction &amp; Supply</t>
-        </is>
-      </c>
-      <c r="AA29" s="5" t="inlineStr"/>
-      <c r="AB29" s="6" t="n"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AB2:AB29" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB27" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region VII/Region VII_GABALDON.xlsx
+++ b/Filtered_By_Region/Region VII/Region VII_GABALDON.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,1435 +453,1477 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="43" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" min="10" max="10"/>
-    <col width="58" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="43" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="58" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="17" customWidth="1" min="15" max="15"/>
-    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="17" customWidth="1" min="16" max="16"/>
     <col width="26" customWidth="1" min="17" max="17"/>
-    <col width="27" customWidth="1" min="18" max="18"/>
-    <col width="41" customWidth="1" min="19" max="19"/>
+    <col width="26" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="19" max="19"/>
     <col width="41" customWidth="1" min="20" max="20"/>
-    <col width="31" customWidth="1" min="21" max="21"/>
-    <col width="27" customWidth="1" min="22" max="22"/>
-    <col width="21" customWidth="1" min="23" max="23"/>
-    <col width="33" customWidth="1" min="24" max="24"/>
-    <col width="31" customWidth="1" min="25" max="25"/>
-    <col width="55" customWidth="1" min="26" max="26"/>
-    <col width="281" customWidth="1" min="27" max="27"/>
-    <col width="28" customWidth="1" min="28" max="28"/>
+    <col width="41" customWidth="1" min="21" max="21"/>
+    <col width="31" customWidth="1" min="22" max="22"/>
+    <col width="27" customWidth="1" min="23" max="23"/>
+    <col width="21" customWidth="1" min="24" max="24"/>
+    <col width="33" customWidth="1" min="25" max="25"/>
+    <col width="31" customWidth="1" min="26" max="26"/>
+    <col width="55" customWidth="1" min="27" max="27"/>
+    <col width="281" customWidth="1" min="28" max="28"/>
+    <col width="28" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF BUILDINGS</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="Z1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="AA1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AB1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AC1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>118106</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Tultugan ES</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>CALAPE</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="M2" s="5" t="n">
         <v>6655556.76</v>
       </c>
-      <c r="M2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5" t="inlineStr"/>
-      <c r="O2" s="5" t="inlineStr">
+      <c r="N2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5" t="inlineStr"/>
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="Q2" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" s="5" t="inlineStr"/>
       <c r="S2" s="5" t="inlineStr"/>
       <c r="T2" s="5" t="inlineStr"/>
       <c r="U2" s="5" t="inlineStr"/>
       <c r="V2" s="5" t="inlineStr"/>
-      <c r="W2" s="5" t="inlineStr">
+      <c r="W2" s="5" t="inlineStr"/>
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>January 20, 2021</t>
         </is>
       </c>
-      <c r="X2" s="5" t="inlineStr"/>
       <c r="Y2" s="5" t="inlineStr"/>
       <c r="Z2" s="5" t="inlineStr"/>
       <c r="AA2" s="5" t="inlineStr"/>
-      <c r="AB2" s="6" t="n"/>
+      <c r="AB2" s="5" t="inlineStr"/>
+      <c r="AC2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>118504</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Sto. Niño Dela Paz ES</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>LOON</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="M3" s="5" t="n">
         <v>5424493.98</v>
       </c>
-      <c r="M3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="n">
         <v>5404011.5</v>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7" t="n">
+      <c r="Q3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="7" t="n">
         <v>44545</v>
       </c>
-      <c r="R3" s="5" t="inlineStr"/>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr"/>
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">6944754-Lot 1
 </t>
         </is>
       </c>
-      <c r="T3" s="5" t="n">
+      <c r="U3" s="5" t="n">
         <v>44320</v>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V3" s="5" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W3" s="5" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>June 19, 2021</t>
         </is>
       </c>
-      <c r="Z3" s="5" t="inlineStr">
+      <c r="AA3" s="5" t="inlineStr">
         <is>
           <t>ELEEO CONSTRUCTION AND SUPPLY</t>
         </is>
       </c>
-      <c r="AA3" s="5" t="inlineStr"/>
-      <c r="AB3" s="6" t="n"/>
+      <c r="AB3" s="5" t="inlineStr"/>
+      <c r="AC3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>118065</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Dagohoy Central Elementary</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>BUENAVISTA</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="H4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="M4" s="5" t="n">
         <v>4447691.3</v>
       </c>
-      <c r="M4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="n">
         <v>4401399.38</v>
       </c>
-      <c r="O4" s="5" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7" t="n">
+      <c r="Q4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7" t="n">
         <v>44538</v>
       </c>
-      <c r="R4" s="5" t="inlineStr"/>
       <c r="S4" s="5" t="inlineStr"/>
-      <c r="T4" s="5" t="n">
+      <c r="T4" s="5" t="inlineStr"/>
+      <c r="U4" s="5" t="n">
         <v>44321</v>
       </c>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V4" s="5" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W4" s="5" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y4" s="7" t="n">
+      <c r="Z4" s="7" t="n">
         <v>44351</v>
       </c>
-      <c r="Z4" s="5" t="inlineStr">
+      <c r="AA4" s="5" t="inlineStr">
         <is>
           <t>C. JANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AA4" s="5" t="inlineStr"/>
-      <c r="AB4" s="6" t="n"/>
+      <c r="AB4" s="5" t="inlineStr"/>
+      <c r="AC4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>118358</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Guindulman Central ES</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>GUINDULMAN</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="M5" s="5" t="n">
         <v>17354037.14</v>
       </c>
-      <c r="M5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="n">
         <v>13669174.29</v>
       </c>
-      <c r="O5" s="5" t="inlineStr">
+      <c r="P5" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7" t="n">
+      <c r="Q5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7" t="n">
         <v>44834</v>
       </c>
-      <c r="R5" s="5" t="inlineStr"/>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr"/>
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 3</t>
         </is>
       </c>
-      <c r="T5" s="5" t="n">
+      <c r="U5" s="5" t="n">
         <v>44324</v>
       </c>
-      <c r="U5" s="5" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V5" s="5" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W5" s="5" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>June 30, 2021</t>
         </is>
       </c>
-      <c r="Z5" s="5" t="inlineStr">
+      <c r="AA5" s="5" t="inlineStr">
         <is>
           <t>JY BONTILAO CONSTRUCTION AND ENTERPRISE</t>
         </is>
       </c>
-      <c r="AA5" s="5" t="inlineStr"/>
-      <c r="AB5" s="6" t="n"/>
+      <c r="AB5" s="5" t="inlineStr"/>
+      <c r="AC5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Carcar City</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>119170</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Valladolid Elementary School</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>CITY OF CARCAR</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="M6" s="5" t="n">
         <v>7095987.75</v>
       </c>
-      <c r="M6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr">
+      <c r="N6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" s="5" t="inlineStr"/>
       <c r="S6" s="5" t="inlineStr"/>
       <c r="T6" s="5" t="inlineStr"/>
       <c r="U6" s="5" t="inlineStr"/>
       <c r="V6" s="5" t="inlineStr"/>
-      <c r="W6" s="5" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr"/>
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>January 20, 2021</t>
         </is>
       </c>
-      <c r="X6" s="5" t="inlineStr"/>
       <c r="Y6" s="5" t="inlineStr"/>
       <c r="Z6" s="5" t="inlineStr"/>
       <c r="AA6" s="5" t="inlineStr"/>
-      <c r="AB6" s="6" t="n"/>
+      <c r="AB6" s="5" t="inlineStr"/>
+      <c r="AC6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>118872</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Alcoy Central ES</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>ALCOY</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="H7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="J7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="M7" s="5" t="n">
         <v>9684010.33</v>
       </c>
-      <c r="M7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="n">
         <v>6905228.73</v>
       </c>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="7" t="n">
+      <c r="Q7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7" t="n">
         <v>44864</v>
       </c>
-      <c r="R7" s="5" t="inlineStr"/>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr"/>
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 4</t>
         </is>
       </c>
-      <c r="T7" s="5" t="n">
+      <c r="U7" s="5" t="n">
         <v>44325</v>
       </c>
-      <c r="U7" s="5" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V7" s="5" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W7" s="5" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X7" s="5" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y7" s="7" t="n">
+      <c r="Z7" s="7" t="n">
         <v>44372</v>
       </c>
-      <c r="Z7" s="5" t="inlineStr">
+      <c r="AA7" s="5" t="inlineStr">
         <is>
           <t>JY BONTILAO CONSTRUCTION AND ENTERPRISE</t>
         </is>
       </c>
-      <c r="AA7" s="5" t="inlineStr"/>
-      <c r="AB7" s="6" t="n"/>
+      <c r="AB7" s="5" t="inlineStr"/>
+      <c r="AC7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>119377</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>DUMANJUG CENTRAL SCHOOL</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>DUMANJUG</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="H8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="J8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="M8" s="5" t="n">
         <v>14736225.74</v>
       </c>
-      <c r="M8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="n">
         <v>10885703.67</v>
       </c>
-      <c r="O8" s="5" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="7" t="n">
+      <c r="Q8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="7" t="n">
         <v>44558</v>
       </c>
-      <c r="R8" s="5" t="inlineStr"/>
-      <c r="S8" s="5" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr"/>
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 5</t>
         </is>
       </c>
-      <c r="T8" s="5" t="n">
+      <c r="U8" s="5" t="n">
         <v>44326</v>
       </c>
-      <c r="U8" s="5" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V8" s="5" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W8" s="5" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X8" s="5" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y8" s="7" t="n">
+      <c r="Z8" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="Z8" s="5" t="inlineStr">
+      <c r="AA8" s="5" t="inlineStr">
         <is>
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA8" s="5" t="inlineStr"/>
-      <c r="AB8" s="6" t="n"/>
+      <c r="AB8" s="5" t="inlineStr"/>
+      <c r="AC8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>119566</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Pinamungajan Central School</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>PINAMUNGAHAN</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="J9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="M9" s="5" t="n">
         <v>16571044.5</v>
       </c>
-      <c r="M9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="n">
         <v>12738307.98</v>
       </c>
-      <c r="O9" s="5" t="inlineStr">
+      <c r="P9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7" t="n">
+      <c r="Q9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7" t="n">
         <v>44834</v>
       </c>
-      <c r="R9" s="5" t="inlineStr"/>
-      <c r="S9" s="5" t="inlineStr">
+      <c r="S9" s="5" t="inlineStr"/>
+      <c r="T9" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 6</t>
         </is>
       </c>
-      <c r="T9" s="5" t="n">
+      <c r="U9" s="5" t="n">
         <v>44322</v>
       </c>
-      <c r="U9" s="5" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V9" s="5" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W9" s="5" t="inlineStr">
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X9" s="5" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y9" s="5" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
         <is>
           <t>June 10, 2021</t>
         </is>
       </c>
-      <c r="Z9" s="5" t="inlineStr">
+      <c r="AA9" s="5" t="inlineStr">
         <is>
           <t>MP SORELA CONSTRUCTION AND SUPPLY AND MARINE SERVICES</t>
         </is>
       </c>
-      <c r="AA9" s="5" t="inlineStr"/>
-      <c r="AB9" s="6" t="n"/>
+      <c r="AB9" s="5" t="inlineStr"/>
+      <c r="AC9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Cebu City</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>119910</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Pardo Ext. Elementary School</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>CEBU CITY</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="M10" s="5" t="n">
         <v>3257286.22</v>
       </c>
-      <c r="M10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5" t="n">
         <v>2896989.43</v>
       </c>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="P10" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7" t="n">
+      <c r="Q10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="7" t="n">
         <v>44520</v>
       </c>
-      <c r="R10" s="5" t="inlineStr"/>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr"/>
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 7</t>
         </is>
       </c>
-      <c r="T10" s="5" t="n">
+      <c r="U10" s="5" t="n">
         <v>44327</v>
       </c>
-      <c r="U10" s="5" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V10" s="5" t="inlineStr">
+      <c r="W10" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W10" s="5" t="inlineStr">
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X10" s="5" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y10" s="7" t="n">
+      <c r="Z10" s="7" t="n">
         <v>44363</v>
       </c>
-      <c r="Z10" s="5" t="inlineStr">
+      <c r="AA10" s="5" t="inlineStr">
         <is>
           <t>GELA CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA10" s="5" t="inlineStr"/>
-      <c r="AB10" s="6" t="n"/>
+      <c r="AB10" s="5" t="inlineStr"/>
+      <c r="AC10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Danao City</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>119357</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Severo Duterte MES</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>DANAO CITY</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="H11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="M11" s="5" t="n">
         <v>5532839.71</v>
       </c>
-      <c r="M11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="n">
         <v>4514013.67</v>
       </c>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="P11" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="7" t="n">
+      <c r="Q11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="7" t="n">
         <v>44518</v>
       </c>
-      <c r="R11" s="5" t="inlineStr"/>
-      <c r="S11" s="5" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr"/>
+      <c r="T11" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 8</t>
         </is>
       </c>
-      <c r="T11" s="5" t="n">
+      <c r="U11" s="5" t="n">
         <v>44331</v>
       </c>
-      <c r="U11" s="5" t="inlineStr">
+      <c r="V11" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V11" s="5" t="inlineStr">
+      <c r="W11" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W11" s="5" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X11" s="5" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y11" s="5" t="inlineStr">
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>June 14, 2021</t>
         </is>
       </c>
-      <c r="Z11" s="5" t="inlineStr">
+      <c r="AA11" s="5" t="inlineStr">
         <is>
           <t>PB OBIAL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA11" s="5" t="inlineStr"/>
-      <c r="AB11" s="6" t="n"/>
+      <c r="AB11" s="5" t="inlineStr"/>
+      <c r="AC11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Mandaue City</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>120010</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Canduman Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>MANDAUE CITY</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="M12" s="5" t="n">
         <v>3305576.84</v>
       </c>
-      <c r="M12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="n">
         <v>2412962.02</v>
       </c>
-      <c r="O12" s="5" t="inlineStr">
+      <c r="P12" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="7" t="n">
+      <c r="Q12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="7" t="n">
         <v>44498</v>
       </c>
-      <c r="R12" s="5" t="inlineStr">
+      <c r="S12" s="5" t="inlineStr">
         <is>
           <t>August 25, 2021</t>
         </is>
       </c>
-      <c r="S12" s="5" t="inlineStr">
+      <c r="T12" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 9</t>
         </is>
       </c>
-      <c r="T12" s="5" t="n">
+      <c r="U12" s="5" t="n">
         <v>44328</v>
       </c>
-      <c r="U12" s="5" t="inlineStr">
+      <c r="V12" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V12" s="5" t="inlineStr">
+      <c r="W12" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W12" s="5" t="inlineStr">
+      <c r="X12" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X12" s="5" t="inlineStr">
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y12" s="7" t="n">
+      <c r="Z12" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="Z12" s="5" t="inlineStr">
+      <c r="AA12" s="5" t="inlineStr">
         <is>
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA12" s="5" t="inlineStr"/>
-      <c r="AB12" s="6" t="n"/>
+      <c r="AB12" s="5" t="inlineStr"/>
+      <c r="AC12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Tagbilaran City</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>118713</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Tagbilaran City Central Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="M13" s="5" t="n">
         <v>1857042.7</v>
       </c>
-      <c r="M13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5" t="n">
         <v>1836406.24</v>
       </c>
-      <c r="O13" s="5" t="inlineStr">
+      <c r="P13" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7" t="n">
+      <c r="Q13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="7" t="n">
         <v>44498</v>
       </c>
-      <c r="R13" s="5" t="inlineStr"/>
-      <c r="S13" s="5" t="inlineStr">
+      <c r="S13" s="5" t="inlineStr"/>
+      <c r="T13" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 11</t>
         </is>
       </c>
-      <c r="T13" s="5" t="n">
+      <c r="U13" s="5" t="n">
         <v>44329</v>
       </c>
-      <c r="U13" s="5" t="inlineStr">
+      <c r="V13" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V13" s="5" t="inlineStr">
+      <c r="W13" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W13" s="5" t="inlineStr">
+      <c r="X13" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X13" s="5" t="inlineStr">
+      <c r="Y13" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y13" s="7" t="n">
+      <c r="Z13" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="Z13" s="5" t="inlineStr">
+      <c r="AA13" s="5" t="inlineStr">
         <is>
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA13" s="5" t="inlineStr"/>
-      <c r="AB13" s="6" t="n"/>
+      <c r="AB13" s="5" t="inlineStr"/>
+      <c r="AC13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Talisay City</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>119787</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Lawaan Elementary School</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>CITY OF TALISAY</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H14" s="5" t="n">
         <v>1</v>
       </c>
@@ -1891,437 +1933,451 @@
       <c r="J14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="M14" s="5" t="n">
         <v>1851252.72</v>
       </c>
-      <c r="M14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5" t="n">
         <v>1348308.86</v>
       </c>
-      <c r="O14" s="5" t="inlineStr">
+      <c r="P14" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="7" t="n">
+      <c r="Q14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="7" t="n">
         <v>44498</v>
       </c>
-      <c r="R14" s="5" t="inlineStr">
+      <c r="S14" s="5" t="inlineStr">
         <is>
           <t>August 25, 2021</t>
         </is>
       </c>
-      <c r="S14" s="5" t="inlineStr">
+      <c r="T14" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 12</t>
         </is>
       </c>
-      <c r="T14" s="5" t="n">
+      <c r="U14" s="5" t="n">
         <v>44330</v>
       </c>
-      <c r="U14" s="5" t="inlineStr">
+      <c r="V14" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V14" s="5" t="inlineStr">
+      <c r="W14" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W14" s="5" t="inlineStr">
+      <c r="X14" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X14" s="5" t="inlineStr">
+      <c r="Y14" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y14" s="7" t="n">
+      <c r="Z14" s="7" t="n">
         <v>44370</v>
       </c>
-      <c r="Z14" s="5" t="inlineStr">
+      <c r="AA14" s="5" t="inlineStr">
         <is>
           <t>TRI BAIRN CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA14" s="5" t="inlineStr"/>
-      <c r="AB14" s="6" t="n"/>
+      <c r="AB14" s="5" t="inlineStr"/>
+      <c r="AC14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>159</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>118331</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Getafe Central ES</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>GETAFE</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="H15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="M15" s="5" t="n">
         <v>3538205</v>
       </c>
-      <c r="M15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5" t="n">
         <v>3502098.85</v>
       </c>
-      <c r="O15" s="5" t="inlineStr">
+      <c r="P15" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7" t="n">
+      <c r="Q15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="7" t="n">
         <v>44538</v>
       </c>
-      <c r="R15" s="5" t="inlineStr"/>
-      <c r="S15" s="5" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr"/>
+      <c r="T15" s="5" t="inlineStr">
         <is>
           <t>7595364-Lot 2</t>
         </is>
       </c>
-      <c r="T15" s="5" t="n">
+      <c r="U15" s="5" t="n">
         <v>44318</v>
       </c>
-      <c r="U15" s="5" t="inlineStr">
+      <c r="V15" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V15" s="5" t="inlineStr">
+      <c r="W15" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W15" s="5" t="inlineStr">
+      <c r="X15" s="5" t="inlineStr">
         <is>
           <t>May 7, 2021</t>
         </is>
       </c>
-      <c r="X15" s="5" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y15" s="5" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>June 4, 2021</t>
         </is>
       </c>
-      <c r="Z15" s="5" t="inlineStr">
+      <c r="AA15" s="5" t="inlineStr">
         <is>
           <t>C. JANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AA15" s="5" t="inlineStr"/>
-      <c r="AB15" s="6" t="n"/>
+      <c r="AB15" s="5" t="inlineStr"/>
+      <c r="AC15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>160</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>119864</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>VILLAHERMOSA ES</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>TUDELA</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="H16" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="M16" s="5" t="n">
         <v>2804104</v>
       </c>
-      <c r="M16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5" t="n">
         <v>2779358.3</v>
       </c>
-      <c r="O16" s="5" t="inlineStr">
+      <c r="P16" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="7" t="n">
+      <c r="Q16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="7" t="n">
         <v>44485</v>
       </c>
-      <c r="R16" s="5" t="inlineStr"/>
-      <c r="S16" s="5" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr"/>
+      <c r="T16" s="5" t="inlineStr">
         <is>
           <t>7595364-Lot 3</t>
         </is>
       </c>
-      <c r="T16" s="5" t="n">
+      <c r="U16" s="5" t="n">
         <v>44319</v>
       </c>
-      <c r="U16" s="5" t="inlineStr">
+      <c r="V16" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V16" s="5" t="inlineStr">
+      <c r="W16" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W16" s="5" t="inlineStr">
+      <c r="X16" s="5" t="inlineStr">
         <is>
           <t>May 7, 2021</t>
         </is>
       </c>
-      <c r="X16" s="5" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y16" s="5" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>June 11, 2021</t>
         </is>
       </c>
-      <c r="Z16" s="5" t="inlineStr">
+      <c r="AA16" s="5" t="inlineStr">
         <is>
           <t>BARR STEEL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA16" s="5" t="inlineStr"/>
-      <c r="AB16" s="6" t="n"/>
+      <c r="AB16" s="5" t="inlineStr"/>
+      <c r="AC16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>175</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2022</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>118223</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Dagohoy Central Elementary</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>DAGOHOY</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="H17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L17" s="5" t="n">
+      <c r="M17" s="5" t="n">
         <v>952221.1</v>
       </c>
-      <c r="M17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr">
+      <c r="N17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5" t="inlineStr"/>
+      <c r="P17" s="5" t="inlineStr">
         <is>
           <t>Reverted</t>
         </is>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="Q17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" s="5" t="inlineStr"/>
       <c r="R17" s="5" t="inlineStr"/>
-      <c r="S17" s="5" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr"/>
+      <c r="T17" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 2</t>
         </is>
       </c>
-      <c r="T17" s="5" t="n">
+      <c r="U17" s="5" t="n">
         <v>44321</v>
       </c>
-      <c r="U17" s="5" t="inlineStr"/>
       <c r="V17" s="5" t="inlineStr"/>
       <c r="W17" s="5" t="inlineStr"/>
       <c r="X17" s="5" t="inlineStr"/>
       <c r="Y17" s="5" t="inlineStr"/>
       <c r="Z17" s="5" t="inlineStr"/>
-      <c r="AA17" s="5" t="inlineStr">
+      <c r="AA17" s="5" t="inlineStr"/>
+      <c r="AB17" s="5" t="inlineStr">
         <is>
           <t>REVERTED SINCE FUNDED IN THE QRF BATCH 2</t>
         </is>
       </c>
-      <c r="AB17" s="6" t="n"/>
+      <c r="AC17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>198</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Bohol</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>118672</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>SEVILLA CENTRAL ELEMENTARY SCHOOL</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>SEVILLA</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="H18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="M18" s="5" t="n">
         <v>7036885.43</v>
       </c>
-      <c r="M18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr">
+      <c r="N18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5" t="inlineStr"/>
+      <c r="P18" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="Q18" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R18" s="5" t="inlineStr"/>
       <c r="S18" s="5" t="inlineStr"/>
       <c r="T18" s="5" t="inlineStr"/>
@@ -2332,290 +2388,299 @@
       <c r="Y18" s="5" t="inlineStr"/>
       <c r="Z18" s="5" t="inlineStr"/>
       <c r="AA18" s="5" t="inlineStr"/>
-      <c r="AB18" s="6" t="n"/>
+      <c r="AB18" s="5" t="inlineStr"/>
+      <c r="AC18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>199</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>119613</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Samboan Central ES</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>SAMBOAN</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="H19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="M19" s="5" t="n">
         <v>15492410.45</v>
       </c>
-      <c r="M19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5" t="n">
         <v>15431357.88</v>
       </c>
-      <c r="O19" s="5" t="inlineStr">
+      <c r="P19" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="7" t="n">
+      <c r="Q19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="7" t="n">
         <v>45567</v>
       </c>
-      <c r="R19" s="7" t="n">
+      <c r="S19" s="7" t="n">
         <v>45359</v>
       </c>
-      <c r="S19" s="5" t="inlineStr">
+      <c r="T19" s="5" t="inlineStr">
         <is>
           <t>cy 2023 gabaldon-deped-region 7-cebu</t>
         </is>
       </c>
-      <c r="T19" s="5" t="inlineStr">
+      <c r="U19" s="5" t="inlineStr">
         <is>
           <t>cy 2023 gabaldon-deped-region 7-cebu-02</t>
         </is>
       </c>
-      <c r="U19" s="5" t="inlineStr">
+      <c r="V19" s="5" t="inlineStr">
         <is>
           <t>11/29/2023</t>
         </is>
       </c>
-      <c r="V19" s="7" t="n">
+      <c r="W19" s="7" t="n">
         <v>45089</v>
       </c>
-      <c r="W19" s="5" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t>12/18/2023</t>
         </is>
       </c>
-      <c r="X19" s="7" t="n">
+      <c r="Y19" s="7" t="n">
         <v>45296</v>
       </c>
-      <c r="Y19" s="7" t="n">
+      <c r="Z19" s="7" t="n">
         <v>45317</v>
       </c>
-      <c r="Z19" s="5" t="inlineStr">
+      <c r="AA19" s="5" t="inlineStr">
         <is>
           <t>Anielthon construction and supply</t>
         </is>
       </c>
-      <c r="AA19" s="5" t="inlineStr">
+      <c r="AB19" s="5" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AB19" s="6" t="n"/>
+      <c r="AC19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>200</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>119549</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Pilar Central School</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>PILAR</t>
         </is>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="H20" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="M20" s="5" t="n">
         <v>9189509.48</v>
       </c>
-      <c r="M20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5" t="n">
         <v>9133229.310000001</v>
       </c>
-      <c r="O20" s="5" t="inlineStr">
+      <c r="P20" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="7" t="n">
-        <v>45507</v>
+      <c r="Q20" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="R20" s="7" t="n">
         <v>45507</v>
       </c>
-      <c r="S20" s="5" t="inlineStr">
+      <c r="S20" s="7" t="n">
+        <v>45507</v>
+      </c>
+      <c r="T20" s="5" t="inlineStr">
         <is>
           <t>cy 2023 gabaldon-deped-region 7-cebu</t>
         </is>
       </c>
-      <c r="T20" s="5" t="inlineStr">
+      <c r="U20" s="5" t="inlineStr">
         <is>
           <t>cy 2023 gabaldon-deped-region 7-cebu-01</t>
         </is>
       </c>
-      <c r="U20" s="5" t="inlineStr">
+      <c r="V20" s="5" t="inlineStr">
         <is>
           <t>11/29/2023</t>
         </is>
       </c>
-      <c r="V20" s="7" t="n">
+      <c r="W20" s="7" t="n">
         <v>45089</v>
       </c>
-      <c r="W20" s="5" t="inlineStr">
+      <c r="X20" s="5" t="inlineStr">
         <is>
           <t>12/18/2023</t>
         </is>
       </c>
-      <c r="X20" s="7" t="n">
+      <c r="Y20" s="7" t="n">
         <v>45296</v>
       </c>
-      <c r="Y20" s="7" t="n">
+      <c r="Z20" s="7" t="n">
         <v>45317</v>
       </c>
-      <c r="Z20" s="5" t="inlineStr">
+      <c r="AA20" s="5" t="inlineStr">
         <is>
           <t>Barr steel construction</t>
         </is>
       </c>
-      <c r="AA20" s="5" t="inlineStr">
+      <c r="AB20" s="5" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="AB20" s="6" t="n"/>
+      <c r="AC20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>261</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>119566</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Pinamungajan Central School</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>PINAMUNGAHAN</t>
         </is>
       </c>
-      <c r="G21" s="5" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5" t="inlineStr">
+      <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="inlineStr"/>
+      <c r="K21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L21" s="5" t="n">
+      <c r="M21" s="5" t="n">
         <v>485257.42</v>
       </c>
-      <c r="M21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr">
+      <c r="N21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5" t="inlineStr"/>
+      <c r="P21" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="Q21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" s="5" t="inlineStr"/>
       <c r="R21" s="5" t="inlineStr"/>
       <c r="S21" s="5" t="inlineStr"/>
       <c r="T21" s="5" t="inlineStr"/>
@@ -2624,694 +2689,713 @@
       <c r="W21" s="5" t="inlineStr"/>
       <c r="X21" s="5" t="inlineStr"/>
       <c r="Y21" s="5" t="inlineStr"/>
-      <c r="Z21" s="5" t="inlineStr">
+      <c r="Z21" s="5" t="inlineStr"/>
+      <c r="AA21" s="5" t="inlineStr">
         <is>
           <t>MP Sorela Construction</t>
         </is>
       </c>
-      <c r="AA21" s="5" t="inlineStr">
+      <c r="AB21" s="5" t="inlineStr">
         <is>
           <t>RO is waiting for the release of SARO as payment of the V.O. to MP Sorela Construction     
 declined by DO. Variation order implemented by RO. Several Letters sent by RO to CO requesting for the release of the fund. The project was already 100% completed.</t>
         </is>
       </c>
-      <c r="AB21" s="6" t="n"/>
+      <c r="AC21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>262</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>119248</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Tayud ES</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>CONSOLACION</t>
         </is>
       </c>
-      <c r="G22" s="5" t="inlineStr">
+      <c r="H22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">6th </t>
         </is>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="M22" s="5" t="n">
         <v>3731085.93</v>
       </c>
-      <c r="M22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5" t="n">
         <v>3710147.91</v>
       </c>
-      <c r="O22" s="5" t="inlineStr">
+      <c r="P22" s="5" t="inlineStr">
         <is>
           <t>completed</t>
         </is>
       </c>
-      <c r="P22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="7" t="n">
+      <c r="Q22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="7" t="n">
         <v>45701</v>
       </c>
-      <c r="R22" s="7" t="n">
+      <c r="S22" s="7" t="n">
         <v>45700</v>
       </c>
-      <c r="S22" s="5" t="inlineStr">
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
         </is>
       </c>
-      <c r="T22" s="5" t="inlineStr">
+      <c r="U22" s="5" t="inlineStr">
         <is>
           <t>CY 2024 BEFF Gabaldon-DepED-R7-Cebu</t>
         </is>
       </c>
-      <c r="U22" s="7" t="n">
+      <c r="V22" s="7" t="n">
         <v>45454</v>
       </c>
-      <c r="V22" s="7" t="n">
+      <c r="W22" s="7" t="n">
         <v>45461</v>
       </c>
-      <c r="W22" s="7" t="n">
+      <c r="X22" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="X22" s="7" t="n">
+      <c r="Y22" s="7" t="n">
         <v>45495</v>
       </c>
-      <c r="Y22" s="7" t="n">
+      <c r="Z22" s="7" t="n">
         <v>45548</v>
       </c>
-      <c r="Z22" s="5" t="inlineStr">
+      <c r="AA22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JAJ&amp;L CONSTRUCTION AND ENGINEERING SERVICES </t>
         </is>
       </c>
-      <c r="AA22" s="5" t="inlineStr"/>
-      <c r="AB22" s="6" t="n"/>
+      <c r="AB22" s="5" t="inlineStr"/>
+      <c r="AC22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>263</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Cebu City</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>119874</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>City Central ES</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>CEBU CITY (Capital)</t>
         </is>
       </c>
-      <c r="G23" s="5" t="inlineStr">
+      <c r="H23" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="J23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5" t="inlineStr">
+      <c r="K23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L23" s="5" t="n">
+      <c r="M23" s="5" t="n">
         <v>8310520</v>
       </c>
-      <c r="M23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5" t="n">
         <v>6093285.05</v>
       </c>
-      <c r="O23" s="5" t="inlineStr">
+      <c r="P23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="inlineStr">
+      <c r="Q23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>1/27/2025</t>
         </is>
       </c>
-      <c r="R23" s="5" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>3/13/2025</t>
         </is>
       </c>
-      <c r="S23" s="5" t="inlineStr">
+      <c r="T23" s="5" t="inlineStr">
         <is>
           <t>Gabaldon 2024 - R VII - Cebu City - 002</t>
         </is>
       </c>
-      <c r="T23" s="5" t="inlineStr">
+      <c r="U23" s="5" t="inlineStr">
         <is>
           <t>DepED CCD - Contract # 2024 - 11</t>
         </is>
       </c>
-      <c r="U23" s="7" t="n">
+      <c r="V23" s="7" t="n">
         <v>45449</v>
       </c>
-      <c r="V23" s="5" t="inlineStr">
+      <c r="W23" s="5" t="inlineStr">
         <is>
           <t>6/14/2024</t>
         </is>
       </c>
-      <c r="W23" s="5" t="inlineStr">
+      <c r="X23" s="5" t="inlineStr">
         <is>
           <t>6/26/2024</t>
         </is>
       </c>
-      <c r="X23" s="5" t="inlineStr">
+      <c r="Y23" s="5" t="inlineStr">
         <is>
           <t>7/24/2024</t>
         </is>
       </c>
-      <c r="Y23" s="5" t="inlineStr">
+      <c r="Z23" s="5" t="inlineStr">
         <is>
           <t>9/23/2024</t>
         </is>
       </c>
-      <c r="Z23" s="5" t="inlineStr">
+      <c r="AA23" s="5" t="inlineStr">
         <is>
           <t>JAJ &amp; L CONSTRUCTION AND ENGINEERING SERVICES</t>
         </is>
       </c>
-      <c r="AA23" s="5" t="inlineStr">
+      <c r="AB23" s="5" t="inlineStr">
         <is>
           <t>Completed
 with (45 days extension)</t>
         </is>
       </c>
-      <c r="AB23" s="6" t="n"/>
+      <c r="AC23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>264</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Danao City</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>119357</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Severo Duterte Memo. ES</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>DANAO CITY</t>
         </is>
       </c>
-      <c r="G24" s="5" t="inlineStr">
+      <c r="H24" s="5" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="H24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5" t="inlineStr">
+      <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="inlineStr"/>
+      <c r="K24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L24" s="5" t="n">
+      <c r="M24" s="5" t="n">
         <v>424730.16</v>
       </c>
-      <c r="M24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr">
+      <c r="N24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5" t="inlineStr"/>
+      <c r="P24" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="Q24" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q24" s="5" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>11/18/2021</t>
         </is>
       </c>
-      <c r="R24" s="5" t="inlineStr"/>
-      <c r="S24" s="5" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr"/>
+      <c r="T24" s="5" t="inlineStr">
         <is>
           <t>6944754-Lot 8</t>
         </is>
       </c>
-      <c r="T24" s="5" t="n">
+      <c r="U24" s="5" t="n">
         <v>44331</v>
       </c>
-      <c r="U24" s="5" t="inlineStr">
+      <c r="V24" s="5" t="inlineStr">
         <is>
           <t>April 29, 2021</t>
         </is>
       </c>
-      <c r="V24" s="5" t="inlineStr">
+      <c r="W24" s="5" t="inlineStr">
         <is>
           <t>April 15, 2021</t>
         </is>
       </c>
-      <c r="W24" s="5" t="inlineStr">
+      <c r="X24" s="5" t="inlineStr">
         <is>
           <t>May 11, 2021</t>
         </is>
       </c>
-      <c r="X24" s="5" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>May 27, 2021</t>
         </is>
       </c>
-      <c r="Y24" s="5" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>June 14, 2021</t>
         </is>
       </c>
-      <c r="Z24" s="5" t="inlineStr">
+      <c r="AA24" s="5" t="inlineStr">
         <is>
           <t>PB OBIAL CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA24" s="5" t="inlineStr">
+      <c r="AB24" s="5" t="inlineStr">
         <is>
           <t>Declined to Procure
  (with letter submitted thru Regional Director, dated May 31, 2024). RO is also waiting for a response from CO on the downloading of funds for V.O. The project was satisfactorily done by the Contractor. Follow-up letter sent to Usec. Cabral dated Dec. 8, 2024</t>
         </is>
       </c>
-      <c r="AB24" s="6" t="n"/>
+      <c r="AC24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>266</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Mandaue City</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>119998</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Basak ES</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>MANDAUE CITY</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
+      <c r="H25" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">6th </t>
         </is>
       </c>
-      <c r="H25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5" t="inlineStr">
+      <c r="K25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="M25" s="5" t="n">
         <v>6033004.04</v>
       </c>
-      <c r="M25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5" t="n">
         <v>5993579.01</v>
       </c>
-      <c r="O25" s="5" t="inlineStr">
+      <c r="P25" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="5" t="inlineStr">
+      <c r="Q25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>9/20/2024</t>
         </is>
       </c>
-      <c r="R25" s="5" t="inlineStr">
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>9/20/2024</t>
         </is>
       </c>
-      <c r="S25" s="5" t="inlineStr">
+      <c r="T25" s="5" t="inlineStr">
         <is>
           <t>2024GAB01</t>
         </is>
       </c>
-      <c r="T25" s="5" t="n">
+      <c r="U25" s="5" t="n">
         <v>45323</v>
       </c>
-      <c r="U25" s="7" t="n">
+      <c r="V25" s="7" t="n">
         <v>45630</v>
       </c>
-      <c r="V25" s="5" t="inlineStr">
+      <c r="W25" s="5" t="inlineStr">
         <is>
           <t>4/20/2024</t>
         </is>
       </c>
-      <c r="W25" s="7" t="n">
+      <c r="X25" s="7" t="n">
         <v>45327</v>
       </c>
-      <c r="X25" s="7" t="n">
+      <c r="Y25" s="7" t="n">
         <v>45478</v>
       </c>
-      <c r="Y25" s="5" t="inlineStr">
+      <c r="Z25" s="5" t="inlineStr">
         <is>
           <t>6/24/2024</t>
         </is>
       </c>
-      <c r="Z25" s="5" t="inlineStr">
+      <c r="AA25" s="5" t="inlineStr">
         <is>
           <t>Golden Hammer Construction and Supply</t>
         </is>
       </c>
-      <c r="AA25" s="5" t="inlineStr"/>
-      <c r="AB25" s="6" t="n"/>
+      <c r="AB25" s="5" t="inlineStr"/>
+      <c r="AC25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Tagbilaran City</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>302846</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Dr. Cecilio Putong NHS (Bohol NHS)</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>TAGBILARAN CITY (Capital)</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="J26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5" t="inlineStr">
+      <c r="K26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L26" s="5" t="n">
+      <c r="M26" s="5" t="n">
         <v>24222461.26</v>
       </c>
-      <c r="M26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="5" t="n">
         <v>24202271.24</v>
       </c>
-      <c r="O26" s="5" t="inlineStr">
+      <c r="P26" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
+      <c r="Q26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>3/25/2025</t>
         </is>
       </c>
-      <c r="R26" s="5" t="inlineStr">
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>1/30/2025</t>
         </is>
       </c>
-      <c r="S26" s="5" t="inlineStr">
+      <c r="T26" s="5" t="inlineStr">
         <is>
           <t>2024-001-Infra</t>
         </is>
       </c>
-      <c r="T26" s="5" t="inlineStr">
+      <c r="U26" s="5" t="inlineStr">
         <is>
           <t>2024-001-Infra</t>
         </is>
       </c>
-      <c r="U26" s="7" t="n">
+      <c r="V26" s="7" t="n">
         <v>45599</v>
       </c>
-      <c r="V26" s="5" t="inlineStr">
+      <c r="W26" s="5" t="inlineStr">
         <is>
           <t>3/21/2024</t>
         </is>
       </c>
-      <c r="W26" s="7" t="n">
+      <c r="X26" s="7" t="n">
         <v>45416</v>
       </c>
-      <c r="X26" s="7" t="n">
+      <c r="Y26" s="7" t="n">
         <v>45569</v>
       </c>
-      <c r="Y26" s="5" t="inlineStr">
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>6/21/2024</t>
         </is>
       </c>
-      <c r="Z26" s="5" t="inlineStr">
+      <c r="AA26" s="5" t="inlineStr">
         <is>
           <t>CJANSEN CONSTRUCTION AND GENERAL MERCHANDISE</t>
         </is>
       </c>
-      <c r="AA26" s="5" t="inlineStr"/>
-      <c r="AB26" s="6" t="n"/>
+      <c r="AB26" s="5" t="inlineStr"/>
+      <c r="AC26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>270</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Region VII</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Toledo City</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>120757</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>South City Central School</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>TOLEDO CITY</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">3rd </t>
         </is>
       </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L27" s="5" t="n">
+      <c r="M27" s="5" t="n">
         <v>8822869.51</v>
       </c>
-      <c r="M27" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" s="5" t="n">
         <v>7032361.23</v>
       </c>
-      <c r="O27" s="5" t="inlineStr">
+      <c r="P27" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P27" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="5" t="inlineStr">
+      <c r="Q27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>11/18/2024</t>
         </is>
       </c>
-      <c r="R27" s="5" t="inlineStr">
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>10/31/2024</t>
         </is>
       </c>
-      <c r="S27" s="5" t="inlineStr">
+      <c r="T27" s="5" t="inlineStr">
         <is>
           <t>GAB 2022-R VII-TOLEDO-001</t>
         </is>
       </c>
-      <c r="T27" s="5" t="inlineStr">
+      <c r="U27" s="5" t="inlineStr">
         <is>
           <t>2024-001</t>
         </is>
       </c>
-      <c r="U27" s="7" t="n">
+      <c r="V27" s="7" t="n">
         <v>45415</v>
       </c>
-      <c r="V27" s="5" t="inlineStr">
+      <c r="W27" s="5" t="inlineStr">
         <is>
           <t>3/14/2024</t>
         </is>
       </c>
-      <c r="W27" s="5" t="inlineStr">
+      <c r="X27" s="5" t="inlineStr">
         <is>
           <t>3/26/2024</t>
         </is>
       </c>
-      <c r="X27" s="7" t="n">
+      <c r="Y27" s="7" t="n">
         <v>45355</v>
       </c>
-      <c r="Y27" s="7" t="n">
+      <c r="Z27" s="7" t="n">
         <v>45510</v>
       </c>
-      <c r="Z27" s="5" t="inlineStr">
+      <c r="AA27" s="5" t="inlineStr">
         <is>
           <t>Anielthone Construction &amp; Supply</t>
         </is>
       </c>
-      <c r="AA27" s="5" t="inlineStr"/>
-      <c r="AB27" s="6" t="n"/>
+      <c r="AB27" s="5" t="inlineStr"/>
+      <c r="AC27" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AB2:AB27" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AC2:AC27" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
